--- a/Regex 04.02.25.xlsx
+++ b/Regex 04.02.25.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="787"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="787" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="1230">
   <si>
     <t>with (?mx) with description</t>
   </si>
@@ -6905,9 +6905,6 @@
     <t xml:space="preserve">    "MI.04.01.01.08.0.30": "A9N61526",</t>
   </si>
   <si>
-    <t>MI.04.02.04.02.0.02</t>
-  </si>
-  <si>
     <t xml:space="preserve">    "MI.04.01.01.03.0.62": "LC1D18M7",</t>
   </si>
   <si>
@@ -7345,18 +7342,421 @@
   </si>
   <si>
     <t>Кабелна обувка ERGOM HI 16/12 10 бр.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.09.00.0.90": "NSYS3X10830H",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.04.01.0.05": "V6K6040",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.09.00.0.190": "NSYAEDH120S3D",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.08.0.41": "A9F74320",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.08.00.2.02": "IGR35F",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.04.01.0.08": "V6K10040",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.03.0.31": "LC1D09P7",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.09.00.0.122": "FF12A230UN5",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.09.00.0.123": "FF12A230UNR5",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.09.00.0.92": "NSYPIN108",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.08.0.36": "GV2ME04",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.09.00.0.30": "NSYTX8030",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.08.0.10": "A9F74101",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.03.1.23": "S2C-H6R",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.05.01.1.53": "E08KH-02020101601",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.04.01.0.04": "V6K5025",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.01.0.10": "RSB2A080P7",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.05.01.99.00.0.01": "OPVC 10x1",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.02.02.0.23": "AD-NR-6585L6",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.08.00.0.10": "HVMS250THP-230",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.04.01.0.07": "V6K10080",</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Diff between </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.*?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[\s\S]*? </t>
+    </r>
+  </si>
+  <si>
+    <t>. matches any character except a newline by default.</t>
+  </si>
+  <si>
+    <t>That means it will stop at line breaks unless you use the re.DOTALL (or (?s)) flag.</t>
+  </si>
+  <si>
+    <t>*? makes it lazy, so it still tries to match as little as possible.</t>
+  </si>
+  <si>
+    <t>[\s\S]*?</t>
+  </si>
+  <si>
+    <t>\s = whitespace (includes newlines)</t>
+  </si>
+  <si>
+    <t>\S = non-whitespace (everything else)</t>
+  </si>
+  <si>
+    <t>[\s\S] = literally any character including newlines — no special flag needed</t>
+  </si>
+  <si>
+    <t>*? = lazy match.</t>
+  </si>
+  <si>
+    <t>This works even without re.DOTALL.</t>
+  </si>
+  <si>
+    <t>In regex terms:</t>
+  </si>
+  <si>
+    <t>* (greedy) → Match as much as possible, then backtrack if needed</t>
+  </si>
+  <si>
+    <t>*? (lazy) → Match as little as possible, then expand if needed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">or: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Go ahead only as much as needed to find the quantity after the article number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — don’t gulp the whole document</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I means: Match any character (except newlines, unless DOTALL is on), but only as far as needed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>until the next part of the regex matches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.”</t>
+    </r>
+  </si>
+  <si>
+    <t>Match the previous thing at least 2 times, but no more than 3 times.</t>
+  </si>
+  <si>
+    <t>{2,3}</t>
+  </si>
+  <si>
+    <t>Match any single uppercase letter from A to Z.</t>
+  </si>
+  <si>
+    <t>[A-Z]</t>
+  </si>
+  <si>
+    <t>HAVTE</t>
+  </si>
+  <si>
+    <t>[A-Z]+</t>
+  </si>
+  <si>
+    <t>Count matches</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>['H', 'A', 'V', 'T', 'E']</t>
+  </si>
+  <si>
+    <t>['HAVTE']</t>
+  </si>
+  <si>
+    <t>[A-Z]*</t>
+  </si>
+  <si>
+    <t>['HAVTE', '']</t>
+  </si>
+  <si>
+    <t>[A-Z]?</t>
+  </si>
+  <si>
+    <t>['H', 'A', 'V', 'T', 'E', '']</t>
+  </si>
+  <si>
+    <t>Havte</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>avte</t>
+    </r>
+  </si>
+  <si>
+    <t>['H']</t>
+  </si>
+  <si>
+    <t>['H', '', '', '', '', '']</t>
+  </si>
+  <si>
+    <t>Match examples</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>[A-a]</t>
+  </si>
+  <si>
+    <t>['H', 'a', 'v', 't', 'e']</t>
+  </si>
+  <si>
+    <t>Match a sequence of one or more uppercase letters in a row</t>
+  </si>
+  <si>
+    <t>Match a sequence of zero or more uppercase letters in a row</t>
+  </si>
+  <si>
+    <t>So at the end of the string (right after the "E"), it finds a zero-length match — which is the empty string ''</t>
+  </si>
+  <si>
+    <t>means any single character whose ASCII code is between the codes for uppercase A and lowercase z</t>
+  </si>
+  <si>
+    <t>[A-z]</t>
+  </si>
+  <si>
+    <t>But it’s a bit tricky because the ASCII table has some extra characters between Z and a</t>
+  </si>
+  <si>
+    <t>`[ \ ] ^ _ ``</t>
+  </si>
+  <si>
+    <t>[A-Za-z]</t>
+  </si>
+  <si>
+    <t>matches only letters, both uppercase and lowercase, and does NOT include those extra special characters</t>
+  </si>
+  <si>
+    <t>starts with a letter (upper or lower), followed by one or more lowercase letters.”</t>
+  </si>
+  <si>
+    <t>[A-Z][a-z]+</t>
+  </si>
+  <si>
+    <t>starts with a letter (upper), followed by one or more lowercase letters.”</t>
+  </si>
+  <si>
+    <t>[A-Za--z][a-z]+</t>
+  </si>
+  <si>
+    <t>[A-Za-z]+</t>
+  </si>
+  <si>
+    <t>Match one or more characters (+) where each character is either (A to Z) or (a to z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.01.0.11": "RXM4AB1F7",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.03.0.64": "LC1K09004FE7",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.08.0.18": "GV2ME16",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.09.00.0.88": "NSYS3X12830H",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.08.0.24": "A9N61522",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.02.01.0.04": "XB5AA3351",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.02.01.0.03": "1SFA619550R1071",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.08.0.05": "A9F74202",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.01.0.07": "RM22TR33",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.03.0.06": "LP1K09004FD",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.08.0.25": "A9N61521",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.02.04.0.04": "SEXB4BD33",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.99.99.00.0.49": "70-2550 SS",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.99.99.00.0.50": "01-1273SS",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.02.05.0.01": "XB4-BK125M5",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.08.00.0.06": "IUK08250",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.03.0.07": "LP1K09008FD",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.08.0.11": "A9F74106",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.08.00.1.05": "TRT-10A230V-NC",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.03.1.52": "LADN40",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.08.00.0.18": "NC550 100R",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.05.01.08.00.2.15": "620510-GY",</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="39">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7659,6 +8059,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -7730,70 +8137,73 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9345,7 +9755,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -10728,17 +11140,17 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -11267,18 +11679,16 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J176"/>
+  <dimension ref="A1:J220"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="45" t="s">
-        <v>1018</v>
-      </c>
+      <c r="A1" s="45"/>
       <c r="C1" s="20" t="s">
         <v>174</v>
       </c>
@@ -12141,7 +12551,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F133" s="40">
         <v>84</v>
@@ -12149,7 +12559,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F134" s="40">
         <v>85</v>
@@ -12157,7 +12567,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F135" s="40">
         <v>86</v>
@@ -12165,7 +12575,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F136" s="40">
         <v>87</v>
@@ -12173,7 +12583,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F137" s="40">
         <v>88</v>
@@ -12181,7 +12591,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F138" s="40">
         <v>89</v>
@@ -12189,7 +12599,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F139" s="40">
         <v>90</v>
@@ -12197,7 +12607,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F140" s="40">
         <v>91</v>
@@ -12205,7 +12615,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F141" s="40">
         <v>92</v>
@@ -12213,7 +12623,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F142" s="40">
         <v>93</v>
@@ -12221,7 +12631,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F143" s="40">
         <v>94</v>
@@ -12229,7 +12639,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F144" s="40">
         <v>95</v>
@@ -12237,7 +12647,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F145" s="40">
         <v>96</v>
@@ -12245,7 +12655,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F146" s="40">
         <v>97</v>
@@ -12253,7 +12663,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F147" s="40">
         <v>98</v>
@@ -12261,7 +12671,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F148" s="40">
         <v>99</v>
@@ -12269,7 +12679,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F149" s="40">
         <v>100</v>
@@ -12277,7 +12687,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F150" s="40">
         <v>101</v>
@@ -12285,7 +12695,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F151" s="40">
         <v>102</v>
@@ -12301,7 +12711,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F153">
         <v>104</v>
@@ -12309,7 +12719,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F154">
         <v>105</v>
@@ -12317,115 +12727,467 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F155" s="39">
+        <v>1068</v>
+      </c>
+      <c r="F155" s="40">
         <v>106</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>596</v>
+        <v>1133</v>
+      </c>
+      <c r="F156" s="40">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F157" s="40">
+        <v>108</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>29</v>
+        <v>1135</v>
+      </c>
+      <c r="F158" s="40">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F159" s="40">
+        <v>110</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F160" s="40">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F161" s="40">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F162" s="40">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F163" s="40">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F164" s="40">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F165" s="40">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F166" s="40">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F167" s="40">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F168" s="40">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F169" s="40">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F170" s="40">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="48" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F171" s="40">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="40" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F172" s="40">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="40" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F173" s="40">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="40" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F174" s="40">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="40" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F175" s="40">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="40" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F176" s="40">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="40" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F177" s="40">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="40" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F178" s="40">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="40" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F179" s="40">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="40" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F180" s="40">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="40" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F181" s="40">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="40" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F182" s="40">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="40" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F183" s="40">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="40" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F184" s="40">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="40" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F185" s="40">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="40" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F186" s="40">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="40" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F187" s="40">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="40" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F188" s="40">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="40" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F189" s="40">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="40" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F190" s="40">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="40" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F191" s="40">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="40" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F192" s="40">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="40" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F193" s="40">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="40" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F194" s="40">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="40" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F195" s="40">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="40" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F196" s="40">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="40" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F197" s="39">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="40" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F198" s="39">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="40" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F199" s="39">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
-      <c r="A161" t="s">
+    <row r="205" spans="1:8">
+      <c r="A205" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
-      <c r="A162" t="s">
+    <row r="206" spans="1:8">
+      <c r="A206" t="s">
         <v>32</v>
       </c>
-      <c r="H162" t="s">
+      <c r="H206" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
-      <c r="A163" t="s">
+    <row r="207" spans="1:8">
+      <c r="A207" t="s">
         <v>729</v>
       </c>
-      <c r="H163" t="s">
+      <c r="H207" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
-      <c r="A164" t="s">
+    <row r="208" spans="1:8">
+      <c r="A208" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
-      <c r="A165" t="s">
+    <row r="209" spans="1:7">
+      <c r="A209" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
-      <c r="A166" t="s">
+    <row r="210" spans="1:7">
+      <c r="A210" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
-      <c r="A167" t="s">
+    <row r="211" spans="1:7">
+      <c r="A211" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
-      <c r="D171" t="s">
+    <row r="215" spans="1:7">
+      <c r="D215" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
-      <c r="C172">
+    <row r="216" spans="1:7">
+      <c r="C216">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
-      <c r="C173">
+    <row r="217" spans="1:7">
+      <c r="C217">
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
-      <c r="C174">
+    <row r="218" spans="1:7">
+      <c r="C218">
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
-      <c r="C175">
+    <row r="219" spans="1:7">
+      <c r="C219">
         <v>4</v>
       </c>
-      <c r="D175" s="39"/>
-      <c r="E175" s="39"/>
-      <c r="F175" s="39"/>
-      <c r="G175" s="39"/>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="C176">
+      <c r="D219" s="39"/>
+      <c r="E219" s="39"/>
+      <c r="F219" s="39"/>
+      <c r="G219" s="39"/>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="C220">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$B$54&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$B$52&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B$32=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12803,17 +13565,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>$C$35&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>$C$33&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>$C$15=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12965,17 +13727,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>$B$53&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>$B$51&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$B$33=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13118,17 +13880,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$B$38&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="4" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>$B$36&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>$B$16=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13141,7 +13903,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J261"/>
+  <dimension ref="A1:L313"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -13204,7 +13966,7 @@
       <c r="A12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>733</v>
       </c>
     </row>
@@ -13212,7 +13974,7 @@
       <c r="A13" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>58</v>
       </c>
     </row>
@@ -13220,7 +13982,7 @@
       <c r="A14" t="s">
         <v>59</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>63</v>
       </c>
     </row>
@@ -13228,7 +13990,7 @@
       <c r="A15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>64</v>
       </c>
     </row>
@@ -13236,7 +13998,7 @@
       <c r="A16" t="s">
         <v>61</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13244,938 +14006,1336 @@
       <c r="A17" t="s">
         <v>65</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>66</v>
       </c>
     </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1169</v>
+      </c>
+    </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="C24" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="8" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="8"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="8" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B35" s="50" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B39" s="50" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1181</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="B43" s="50"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="F45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="B46" s="50"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="10" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="10"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="25" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" s="10"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C52" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="25" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C53" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="25"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="35" t="s">
+    <row r="54" spans="1:3">
+      <c r="A54" s="25"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="8" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="8"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="8"/>
+      <c r="B57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="8"/>
+      <c r="C58" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="8"/>
+      <c r="C59" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="8"/>
+      <c r="C60" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="8"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="8"/>
+      <c r="C62" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="8"/>
+      <c r="C63" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="8"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="25"/>
+      <c r="B65" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="25"/>
+      <c r="C66" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="25"/>
+      <c r="C67" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="25"/>
+      <c r="C68" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="25"/>
+      <c r="C69" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="25"/>
+      <c r="C70" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="25"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="49" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="49"/>
+      <c r="B73" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="49"/>
+      <c r="B74" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="49"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="49"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="35" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="35" t="s">
+    <row r="79" spans="1:3">
+      <c r="B79" s="35" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="35" t="s">
+    <row r="80" spans="1:3">
+      <c r="B80" s="35" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="B29" s="35" t="s">
+    <row r="81" spans="1:2">
+      <c r="B81" s="35" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="B30" s="35" t="s">
+    <row r="82" spans="1:2">
+      <c r="B82" s="35" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="B31" s="35" t="s">
+    <row r="83" spans="1:2">
+      <c r="B83" s="35" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="B32" s="35" t="s">
+    <row r="84" spans="1:2">
+      <c r="B84" s="35" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="B33" s="35"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="85" spans="1:2">
+      <c r="B85" s="35"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
         <v>777</v>
       </c>
-      <c r="B34" s="35"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="B86" s="35"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
         <v>776</v>
       </c>
-      <c r="B35" s="35"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+      <c r="B87" s="35"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="35"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="B37" s="35"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="8" t="s">
+      <c r="B88" s="35"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="B89" s="35"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="8" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="B41" t="s">
+    <row r="93" spans="1:2">
+      <c r="B93" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="B43" t="s">
+    <row r="95" spans="1:2">
+      <c r="B95" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="B44" t="s">
+    <row r="96" spans="1:2">
+      <c r="B96" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="B45" t="s">
+    <row r="97" spans="1:5">
+      <c r="B97" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="B46" t="s">
+    <row r="98" spans="1:5">
+      <c r="B98" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="B48" t="s">
+    <row r="100" spans="1:5">
+      <c r="B100" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="B50" t="s">
+    <row r="102" spans="1:5">
+      <c r="B102" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="B51" t="s">
+    <row r="103" spans="1:5">
+      <c r="B103" t="s">
         <v>297</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E103" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="B53" t="s">
+    <row r="105" spans="1:5">
+      <c r="B105" t="s">
         <v>298</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E105" s="5">
         <v>3000025478</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="B54" t="s">
+    <row r="106" spans="1:5">
+      <c r="B106" t="s">
         <v>299</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E106" s="5">
         <v>3000025469</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="8" t="s">
+    <row r="108" spans="1:5">
+      <c r="A108" s="8" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="8"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="B58" t="s">
+    <row r="109" spans="1:5">
+      <c r="A109" s="8"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="B110" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="B60" t="s">
+    <row r="112" spans="1:5">
+      <c r="B112" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="B61" t="s">
+    <row r="113" spans="1:6">
+      <c r="B113" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="B62" t="s">
+    <row r="114" spans="1:6">
+      <c r="B114" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="B63" t="s">
+    <row r="115" spans="1:6">
+      <c r="B115" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="B65" t="s">
+    <row r="117" spans="1:6">
+      <c r="B117" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="B67" t="s">
+    <row r="119" spans="1:6">
+      <c r="B119" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="B68" t="s">
+    <row r="120" spans="1:6">
+      <c r="B120" t="s">
         <v>297</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F120" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="B70" t="s">
+    <row r="122" spans="1:6">
+      <c r="B122" t="s">
         <v>298</v>
       </c>
-      <c r="F70" s="28">
+      <c r="F122" s="28">
         <v>45246</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="B71" t="s">
+    <row r="123" spans="1:6">
+      <c r="B123" t="s">
         <v>305</v>
       </c>
-      <c r="F71" s="28">
+      <c r="F123" s="28">
         <v>45246</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="8" t="s">
+    <row r="125" spans="1:6">
+      <c r="A125" s="8" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="B75" t="s">
+    <row r="127" spans="1:6">
+      <c r="B127" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="B76" t="s">
+    <row r="128" spans="1:6">
+      <c r="B128" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="B78" t="s">
+    <row r="130" spans="2:2">
+      <c r="B130" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="B79" t="s">
+    <row r="131" spans="2:2">
+      <c r="B131" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="B80" t="s">
+    <row r="132" spans="2:2">
+      <c r="B132" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="81" spans="2:6">
-      <c r="B81" t="s">
+    <row r="133" spans="2:2">
+      <c r="B133" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:6">
-      <c r="B83" t="s">
+    <row r="135" spans="2:2">
+      <c r="B135" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="85" spans="2:6">
-      <c r="B85" t="s">
+    <row r="137" spans="2:2">
+      <c r="B137" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="2:6">
-      <c r="B87" t="s">
+    <row r="139" spans="2:2">
+      <c r="B139" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="88" spans="2:6">
-      <c r="B88" t="s">
+    <row r="140" spans="2:2">
+      <c r="B140" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="90" spans="2:6">
-      <c r="B90" t="s">
+    <row r="142" spans="2:2">
+      <c r="B142" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="91" spans="2:6">
-      <c r="B91" t="s">
+    <row r="143" spans="2:2">
+      <c r="B143" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="93" spans="2:6">
-      <c r="B93" t="s">
+    <row r="145" spans="1:9">
+      <c r="B145" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="94" spans="2:6">
-      <c r="B94" t="s">
+    <row r="146" spans="1:9">
+      <c r="B146" t="s">
         <v>317</v>
       </c>
-      <c r="F94" s="28">
+      <c r="F146" s="28">
         <v>45246</v>
       </c>
     </row>
-    <row r="95" spans="2:6">
-      <c r="B95" t="s">
+    <row r="147" spans="1:9">
+      <c r="B147" t="s">
         <v>318</v>
       </c>
-      <c r="F95" s="28">
+      <c r="F147" s="28">
         <v>45248</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="8" t="s">
+    <row r="149" spans="1:9">
+      <c r="A149" s="8" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="8"/>
-      <c r="B98" t="s">
+    <row r="150" spans="1:9">
+      <c r="A150" s="8"/>
+      <c r="B150" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="8"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="C100" t="s">
+    <row r="151" spans="1:9">
+      <c r="A151" s="8"/>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="C152" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
-      <c r="C101" t="s">
+    <row r="153" spans="1:9">
+      <c r="C153" t="s">
         <v>754</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I153" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
-      <c r="C103" t="s">
+    <row r="155" spans="1:9">
+      <c r="C155" t="s">
         <v>752</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I155" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
-      <c r="C105" t="s">
+    <row r="157" spans="1:9">
+      <c r="C157" t="s">
         <v>749</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I157" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
-      <c r="C107" t="s">
+    <row r="159" spans="1:9">
+      <c r="C159" t="s">
         <v>750</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E159" s="5" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="8" t="s">
+    <row r="161" spans="1:6">
+      <c r="A161" s="8" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="8"/>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="B111" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="B112" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6">
-      <c r="B113" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6">
-      <c r="B114" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6">
-      <c r="B116" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6">
-      <c r="B117" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6">
-      <c r="B118" t="s">
-        <v>297</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6">
-      <c r="F119" s="5"/>
-    </row>
-    <row r="120" spans="2:6">
-      <c r="F120" s="5"/>
-    </row>
-    <row r="121" spans="2:6">
-      <c r="F121" s="5"/>
-    </row>
-    <row r="122" spans="2:6">
-      <c r="B122" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="F122" s="5"/>
-    </row>
-    <row r="123" spans="2:6">
-      <c r="B123" t="s">
-        <v>786</v>
-      </c>
-      <c r="F123" s="5"/>
-    </row>
-    <row r="124" spans="2:6">
-      <c r="B124" t="s">
-        <v>787</v>
-      </c>
-      <c r="F124" s="5"/>
-    </row>
-    <row r="125" spans="2:6">
-      <c r="F125" s="5"/>
-    </row>
-    <row r="126" spans="2:6">
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="D126" t="s">
-        <v>785</v>
-      </c>
-      <c r="F126" s="5"/>
-    </row>
-    <row r="127" spans="2:6">
-      <c r="C127">
-        <v>2</v>
-      </c>
-      <c r="D127" t="s">
-        <v>788</v>
-      </c>
-      <c r="F127" s="5"/>
-    </row>
-    <row r="128" spans="2:6">
-      <c r="F128" s="5"/>
-    </row>
-    <row r="129" spans="2:6">
-      <c r="B129" t="s">
-        <v>789</v>
-      </c>
-      <c r="F129" s="5"/>
-    </row>
-    <row r="130" spans="2:6">
-      <c r="B130" t="s">
-        <v>790</v>
-      </c>
-      <c r="F130" s="5"/>
-    </row>
-    <row r="131" spans="2:6">
-      <c r="B131" t="s">
-        <v>791</v>
-      </c>
-      <c r="F131" s="5"/>
-    </row>
-    <row r="132" spans="2:6">
-      <c r="F132" s="5"/>
-    </row>
-    <row r="133" spans="2:6">
-      <c r="F133" s="5"/>
-    </row>
-    <row r="134" spans="2:6">
-      <c r="F134" s="5"/>
-    </row>
-    <row r="135" spans="2:6">
-      <c r="F135" s="5"/>
-    </row>
-    <row r="136" spans="2:6">
-      <c r="F136" s="5"/>
-    </row>
-    <row r="137" spans="2:6">
-      <c r="F137" s="5"/>
-    </row>
-    <row r="138" spans="2:6">
-      <c r="F138" s="5"/>
-    </row>
-    <row r="140" spans="2:6">
-      <c r="B140" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6">
-      <c r="B142" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="143" spans="2:6">
-      <c r="C143" s="36" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="144" spans="2:6">
-      <c r="C144" s="36" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="C145" s="36" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="D146" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="B148" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="B150" s="8" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="C151" s="36" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="C153" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="B155" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="15">
-      <c r="B156" s="37" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="8" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="B160" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="162" spans="1:6">
-      <c r="B162" t="s">
-        <v>793</v>
-      </c>
+      <c r="A162" s="8"/>
     </row>
     <row r="163" spans="1:6">
       <c r="B163" t="s">
-        <v>794</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="B164" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="B165" t="s">
-        <v>795</v>
+        <v>755</v>
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="B166" t="s">
-        <v>796</v>
-      </c>
-      <c r="F166" s="5" t="s">
-        <v>797</v>
+      <c r="B166" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="8" t="s">
-        <v>798</v>
+      <c r="B168" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="B169" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="B170" t="s">
+        <v>297</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="F171" s="5"/>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="F172" s="5"/>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="F173" s="5"/>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="B174" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="F174" s="5"/>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="B175" t="s">
+        <v>786</v>
+      </c>
+      <c r="F175" s="5"/>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="B176" t="s">
+        <v>787</v>
+      </c>
+      <c r="F176" s="5"/>
+    </row>
+    <row r="177" spans="2:6">
+      <c r="F177" s="5"/>
+    </row>
+    <row r="178" spans="2:6">
+      <c r="C178">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="B171" t="s">
+      <c r="D178" t="s">
+        <v>785</v>
+      </c>
+      <c r="F178" s="5"/>
+    </row>
+    <row r="179" spans="2:6">
+      <c r="C179">
+        <v>2</v>
+      </c>
+      <c r="D179" t="s">
+        <v>788</v>
+      </c>
+      <c r="F179" s="5"/>
+    </row>
+    <row r="180" spans="2:6">
+      <c r="F180" s="5"/>
+    </row>
+    <row r="181" spans="2:6">
+      <c r="B181" t="s">
+        <v>789</v>
+      </c>
+      <c r="F181" s="5"/>
+    </row>
+    <row r="182" spans="2:6">
+      <c r="B182" t="s">
+        <v>790</v>
+      </c>
+      <c r="F182" s="5"/>
+    </row>
+    <row r="183" spans="2:6">
+      <c r="B183" t="s">
+        <v>791</v>
+      </c>
+      <c r="F183" s="5"/>
+    </row>
+    <row r="184" spans="2:6">
+      <c r="F184" s="5"/>
+    </row>
+    <row r="185" spans="2:6">
+      <c r="F185" s="5"/>
+    </row>
+    <row r="186" spans="2:6">
+      <c r="F186" s="5"/>
+    </row>
+    <row r="187" spans="2:6">
+      <c r="F187" s="5"/>
+    </row>
+    <row r="188" spans="2:6">
+      <c r="F188" s="5"/>
+    </row>
+    <row r="189" spans="2:6">
+      <c r="F189" s="5"/>
+    </row>
+    <row r="190" spans="2:6">
+      <c r="F190" s="5"/>
+    </row>
+    <row r="192" spans="2:6">
+      <c r="B192" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4">
+      <c r="B194" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4">
+      <c r="C195" s="36" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4">
+      <c r="C196" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4">
+      <c r="C197" s="36" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4">
+      <c r="D198" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4">
+      <c r="B200" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4">
+      <c r="B202" s="8" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4">
+      <c r="C203" s="36" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4">
+      <c r="C205" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4">
+      <c r="B207" s="37" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" ht="15">
+      <c r="B208" s="37" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="8" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="B212" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="B214" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="B215" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="B217" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="B218" t="s">
+        <v>796</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="8" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="B222" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="B223" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
-      <c r="B173" t="s">
+    <row r="225" spans="1:8">
+      <c r="B225" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
-      <c r="B174" t="s">
+    <row r="226" spans="1:8">
+      <c r="B226" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
-      <c r="C175" s="5" t="s">
+    <row r="227" spans="1:8">
+      <c r="C227" s="5" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
-      <c r="A177" s="8" t="s">
+    <row r="229" spans="1:8">
+      <c r="A229" s="8" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
-      <c r="B179" t="s">
+    <row r="231" spans="1:8">
+      <c r="B231" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
-      <c r="B181" t="s">
+    <row r="233" spans="1:8">
+      <c r="B233" t="s">
         <v>804</v>
       </c>
-      <c r="H181" t="s">
+      <c r="H233" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
-      <c r="B182" t="s">
+    <row r="234" spans="1:8">
+      <c r="B234" t="s">
         <v>805</v>
       </c>
-      <c r="H182" t="s">
+      <c r="H234" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
-      <c r="B183" t="s">
+    <row r="235" spans="1:8">
+      <c r="B235" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
-      <c r="C184" s="5" t="s">
+    <row r="236" spans="1:8">
+      <c r="C236" s="5" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
-      <c r="A186" s="8" t="s">
+    <row r="238" spans="1:8">
+      <c r="A238" s="8" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
-      <c r="B188" t="s">
+    <row r="240" spans="1:8">
+      <c r="B240" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
-      <c r="B190" t="s">
+    <row r="242" spans="1:10">
+      <c r="B242" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
-      <c r="B191" t="s">
+    <row r="243" spans="1:10">
+      <c r="B243" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
-      <c r="B192" t="s">
+    <row r="244" spans="1:10">
+      <c r="B244" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
-      <c r="C193" s="5" t="s">
+    <row r="245" spans="1:10">
+      <c r="C245" s="5" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
-      <c r="A196" s="8" t="s">
+    <row r="248" spans="1:10">
+      <c r="A248" s="8" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
-      <c r="B198" t="s">
+    <row r="250" spans="1:10">
+      <c r="B250" t="s">
         <v>816</v>
       </c>
-      <c r="I198" t="s">
+      <c r="I250" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
-      <c r="B200" t="s">
+    <row r="252" spans="1:10">
+      <c r="B252" t="s">
         <v>1</v>
       </c>
-      <c r="I200" t="s">
+      <c r="I252" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
-      <c r="B201" t="s">
+    <row r="253" spans="1:10">
+      <c r="B253" t="s">
         <v>817</v>
       </c>
-      <c r="I201" t="s">
+      <c r="I253" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
-      <c r="B202" t="s">
+    <row r="254" spans="1:10">
+      <c r="B254" t="s">
         <v>821</v>
       </c>
-      <c r="I202" t="s">
+      <c r="I254" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
-      <c r="B203" t="s">
+    <row r="255" spans="1:10">
+      <c r="B255" t="s">
         <v>819</v>
       </c>
-      <c r="I203" t="s">
+      <c r="I255" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
-      <c r="C204" s="5" t="b">
+    <row r="256" spans="1:10">
+      <c r="C256" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J204" s="5" t="s">
+      <c r="J256" s="5" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
-      <c r="A207" s="8" t="s">
+    <row r="259" spans="1:3">
+      <c r="A259" s="8" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
-      <c r="B209" t="s">
+    <row r="261" spans="1:3">
+      <c r="B261" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
-      <c r="B211" t="s">
+    <row r="263" spans="1:3">
+      <c r="B263" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
-      <c r="B212" t="s">
+    <row r="264" spans="1:3">
+      <c r="B264" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
-      <c r="B213" t="s">
+    <row r="265" spans="1:3">
+      <c r="B265" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
-      <c r="C214" s="5" t="s">
+    <row r="266" spans="1:3">
+      <c r="C266" s="5" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="8" t="s">
+    <row r="268" spans="1:3">
+      <c r="A268" s="8" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
-      <c r="B217" t="s">
+    <row r="269" spans="1:3">
+      <c r="B269" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
-      <c r="B219" t="s">
+    <row r="271" spans="1:3">
+      <c r="B271" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
-      <c r="B220" t="s">
+    <row r="272" spans="1:3">
+      <c r="B272" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
-      <c r="B221" t="s">
+    <row r="273" spans="1:3">
+      <c r="B273" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
-      <c r="B222" t="s">
+    <row r="274" spans="1:3">
+      <c r="B274" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
-      <c r="C223" s="5" t="s">
+    <row r="275" spans="1:3">
+      <c r="C275" s="5" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="8" t="s">
+    <row r="277" spans="1:3">
+      <c r="A277" s="8" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
-      <c r="B227" t="s">
+    <row r="279" spans="1:3">
+      <c r="B279" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
-      <c r="B229" t="s">
+    <row r="281" spans="1:3">
+      <c r="B281" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
-      <c r="B230" t="s">
+    <row r="282" spans="1:3">
+      <c r="B282" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
-      <c r="B231" t="s">
+    <row r="283" spans="1:3">
+      <c r="B283" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
-      <c r="C232" s="5" t="s">
+    <row r="284" spans="1:3">
+      <c r="C284" s="5" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="8" t="s">
+    <row r="287" spans="1:3">
+      <c r="A287" s="8" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
-      <c r="B236" t="s">
+    <row r="288" spans="1:3">
+      <c r="B288" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
-      <c r="B238" t="s">
+    <row r="290" spans="1:5">
+      <c r="B290" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
-      <c r="B239" t="s">
+    <row r="291" spans="1:5">
+      <c r="B291" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
-      <c r="B241" t="s">
+    <row r="293" spans="1:5">
+      <c r="B293" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
-      <c r="B243" t="s">
+    <row r="295" spans="1:5">
+      <c r="B295" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
-      <c r="B244" t="s">
+    <row r="296" spans="1:5">
+      <c r="B296" t="s">
         <v>80</v>
       </c>
-      <c r="E244" s="5" t="s">
+      <c r="E296" s="5" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="8" t="s">
+    <row r="299" spans="1:5">
+      <c r="A299" s="8" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
-      <c r="B249" t="s">
+    <row r="301" spans="1:5">
+      <c r="B301" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
-      <c r="B251" t="s">
+    <row r="303" spans="1:5">
+      <c r="B303" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
-      <c r="B252" t="s">
+    <row r="304" spans="1:5">
+      <c r="B304" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
-      <c r="B253" t="s">
+    <row r="305" spans="2:7">
+      <c r="B305" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
-      <c r="B254" t="s">
+    <row r="306" spans="2:7">
+      <c r="B306" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
-      <c r="B256" t="s">
+    <row r="308" spans="2:7">
+      <c r="B308" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="258" spans="2:7">
-      <c r="B258" t="s">
+    <row r="310" spans="2:7">
+      <c r="B310" t="s">
         <v>910</v>
       </c>
-      <c r="G258" s="5" t="s">
+      <c r="G310" s="5" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="259" spans="2:7">
-      <c r="B259" t="s">
+    <row r="311" spans="2:7">
+      <c r="B311" t="s">
         <v>911</v>
       </c>
-      <c r="G259" s="5" t="s">
+      <c r="G311" s="5" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="260" spans="2:7">
-      <c r="B260" t="s">
+    <row r="312" spans="2:7">
+      <c r="B312" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="261" spans="2:7">
-      <c r="B261" t="s">
+    <row r="313" spans="2:7">
+      <c r="B313" t="s">
         <v>913</v>
       </c>
     </row>
@@ -15516,7 +16676,7 @@
     </row>
     <row r="264" spans="2:13">
       <c r="B264" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
@@ -15524,7 +16684,7 @@
     </row>
     <row r="265" spans="2:13">
       <c r="B265" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
@@ -15550,7 +16710,7 @@
     </row>
     <row r="270" spans="2:13">
       <c r="B270" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="271" spans="2:13">
@@ -15575,12 +16735,12 @@
     </row>
     <row r="275" spans="2:2">
       <c r="B275" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="276" spans="2:2">
       <c r="B276" s="33" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="277" spans="2:2">
@@ -15605,7 +16765,7 @@
     </row>
     <row r="281" spans="2:2">
       <c r="B281" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="282" spans="2:2">
@@ -16845,272 +18005,272 @@
     </row>
     <row r="530" spans="2:2">
       <c r="B530" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="531" spans="2:2">
       <c r="B531" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="532" spans="2:2">
       <c r="B532" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="533" spans="2:2">
       <c r="B533" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="534" spans="2:2">
       <c r="B534" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="535" spans="2:2">
       <c r="B535" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="536" spans="2:2">
       <c r="B536" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="537" spans="2:2">
       <c r="B537" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="538" spans="2:2">
       <c r="B538" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="539" spans="2:2">
       <c r="B539" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="540" spans="2:2">
       <c r="B540" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="541" spans="2:2">
       <c r="B541" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="542" spans="2:2">
       <c r="B542" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="543" spans="2:2">
       <c r="B543" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="544" spans="2:2">
       <c r="B544" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="545" spans="2:2">
       <c r="B545" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="546" spans="2:2">
       <c r="B546" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="547" spans="2:2">
       <c r="B547" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="548" spans="2:2">
       <c r="B548" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="549" spans="2:2">
       <c r="B549" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="550" spans="2:2">
       <c r="B550" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="551" spans="2:2">
       <c r="B551" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="552" spans="2:2">
       <c r="B552" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="553" spans="2:2">
       <c r="B553" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="554" spans="2:2">
       <c r="B554" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="555" spans="2:2">
       <c r="B555" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="556" spans="2:2">
       <c r="B556" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="557" spans="2:2">
       <c r="B557" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="558" spans="2:2">
       <c r="B558" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="559" spans="2:2">
       <c r="B559" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="560" spans="2:2">
       <c r="B560" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="561" spans="2:2">
       <c r="B561" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="562" spans="2:2">
       <c r="B562" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="563" spans="2:2">
       <c r="B563" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="564" spans="2:2">
       <c r="B564" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="565" spans="2:2">
       <c r="B565" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="566" spans="2:2">
       <c r="B566" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="567" spans="2:2">
       <c r="B567" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="568" spans="2:2">
       <c r="B568" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="569" spans="2:2">
       <c r="B569" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="570" spans="2:2">
       <c r="B570" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="571" spans="2:2">
       <c r="B571" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="572" spans="2:2">
       <c r="B572" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="573" spans="2:2">
       <c r="B573" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="574" spans="2:2">
       <c r="B574" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="575" spans="2:2">
       <c r="B575" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="576" spans="2:2">
       <c r="B576" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="577" spans="2:2">
       <c r="B577" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="578" spans="2:2">
       <c r="B578" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="579" spans="2:2">
       <c r="B579" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="580" spans="2:2">
       <c r="B580" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="581" spans="2:2">
       <c r="B581" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="582" spans="2:2">
       <c r="B582" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="583" spans="2:2">
       <c r="B583" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="584" spans="2:2">
@@ -20049,7 +21209,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G18">
         <v>6</v>
@@ -20081,7 +21241,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G22">
         <v>10</v>
@@ -20321,7 +21481,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G52">
         <v>40</v>
@@ -20380,7 +21540,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G59" s="40">
         <v>47</v>
@@ -20389,7 +21549,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G60" s="40">
         <v>48</v>
@@ -20398,7 +21558,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G61">
         <v>49</v>
@@ -20409,7 +21569,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G62" s="39">
         <v>50</v>
@@ -20485,27 +21645,27 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="8" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="B91" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>$B$82&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>$B$80&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="3" priority="12">
       <formula>$B$49=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22606,12 +23766,12 @@
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="46" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="46" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="121" spans="1:1">
@@ -22681,7 +23841,7 @@
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="135" spans="1:1">
@@ -22696,7 +23856,7 @@
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="138" spans="1:1">
@@ -22731,17 +23891,17 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="46" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -22749,12 +23909,12 @@
         <v>281</v>
       </c>
       <c r="L147" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="46" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -22764,7 +23924,7 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -22784,7 +23944,7 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="46" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -22814,7 +23974,7 @@
     </row>
     <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -23145,17 +24305,17 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="8" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="B239" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="241" spans="2:8">
       <c r="B241" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="243" spans="2:8">
@@ -23180,7 +24340,7 @@
     </row>
     <row r="248" spans="2:8">
       <c r="B248" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="249" spans="2:8">
@@ -23190,30 +24350,30 @@
     </row>
     <row r="251" spans="2:8">
       <c r="B251" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="252" spans="2:8">
       <c r="B252" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="253" spans="2:8">
       <c r="B253" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="254" spans="2:8">
       <c r="H254" s="5" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="255" spans="2:8">
       <c r="B255" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="256" spans="2:8">
@@ -23221,7 +24381,7 @@
     </row>
     <row r="257" spans="8:8">
       <c r="H257" s="5" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
   </sheetData>

--- a/Regex 04.02.25.xlsx
+++ b/Regex 04.02.25.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="1233">
   <si>
     <t>with (?mx) with description</t>
   </si>
@@ -7729,6 +7729,15 @@
   </si>
   <si>
     <t xml:space="preserve">    "MI.05.01.08.00.2.15": "620510-GY",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.03.0.09": "LP1K09008MD",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.01.0.05": "RXM4AB1MD",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.03.0.10": "LP1K09004MD",</t>
   </si>
 </sst>
 </file>
@@ -11679,10 +11688,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J220"/>
+  <dimension ref="A1:J223"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A193" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198"/>
+      <selection activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13029,7 +13038,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:6">
       <c r="A193" s="40" t="s">
         <v>1224</v>
       </c>
@@ -13037,7 +13046,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:6">
       <c r="A194" s="40" t="s">
         <v>1225</v>
       </c>
@@ -13045,7 +13054,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:6">
       <c r="A195" s="40" t="s">
         <v>1225</v>
       </c>
@@ -13053,7 +13062,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:6">
       <c r="A196" s="40" t="s">
         <v>1226</v>
       </c>
@@ -13061,117 +13070,141 @@
         <v>147</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:6">
       <c r="A197" s="40" t="s">
         <v>1227</v>
       </c>
-      <c r="F197" s="39">
+      <c r="F197" s="40">
         <v>148</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:6">
       <c r="A198" s="40" t="s">
         <v>1228</v>
       </c>
-      <c r="F198" s="39">
+      <c r="F198" s="40">
         <v>149</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:6">
       <c r="A199" s="40" t="s">
         <v>1229</v>
       </c>
-      <c r="F199" s="39">
+      <c r="F199" s="40">
         <v>150</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
-      <c r="A200" t="s">
+    <row r="200" spans="1:6">
+      <c r="A200" s="40" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F200" s="39">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="40" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F201" s="39">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="40" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F202" s="39">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
-      <c r="A202" t="s">
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
-      <c r="A204" t="s">
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
-      <c r="A205" t="s">
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
-      <c r="A206" t="s">
+    <row r="209" spans="1:8">
+      <c r="A209" t="s">
         <v>32</v>
       </c>
-      <c r="H206" t="s">
+      <c r="H209" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
-      <c r="A207" t="s">
+    <row r="210" spans="1:8">
+      <c r="A210" t="s">
         <v>729</v>
       </c>
-      <c r="H207" t="s">
+      <c r="H210" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
-      <c r="A208" t="s">
+    <row r="211" spans="1:8">
+      <c r="A211" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
-      <c r="A209" t="s">
+    <row r="212" spans="1:8">
+      <c r="A212" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
-      <c r="A210" t="s">
+    <row r="213" spans="1:8">
+      <c r="A213" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
-      <c r="A211" t="s">
+    <row r="214" spans="1:8">
+      <c r="A214" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
-      <c r="D215" t="s">
+    <row r="218" spans="1:8">
+      <c r="D218" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
-      <c r="C216">
+    <row r="219" spans="1:8">
+      <c r="C219">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
-      <c r="C217">
+    <row r="220" spans="1:8">
+      <c r="C220">
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
-      <c r="C218">
+    <row r="221" spans="1:8">
+      <c r="C221">
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
-      <c r="C219">
+    <row r="222" spans="1:8">
+      <c r="C222">
         <v>4</v>
       </c>
-      <c r="D219" s="39"/>
-      <c r="E219" s="39"/>
-      <c r="F219" s="39"/>
-      <c r="G219" s="39"/>
-    </row>
-    <row r="220" spans="1:7">
-      <c r="C220">
+      <c r="D222" s="39"/>
+      <c r="E222" s="39"/>
+      <c r="F222" s="39"/>
+      <c r="G222" s="39"/>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="C223">
         <v>5</v>
       </c>
     </row>

--- a/Regex 04.02.25.xlsx
+++ b/Regex 04.02.25.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="1234">
   <si>
     <t>with (?mx) with description</t>
   </si>
@@ -7738,6 +7738,9 @@
   </si>
   <si>
     <t xml:space="preserve">    "MI.04.01.01.03.0.10": "LP1K09004MD",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.02.02.0.19": "NSYLAMT5LD1",</t>
   </si>
 </sst>
 </file>
@@ -11688,10 +11691,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J223"/>
+  <dimension ref="A1:J224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A193" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+      <selection activeCell="H197" sqref="H197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13098,7 +13101,7 @@
       <c r="A200" s="40" t="s">
         <v>1230</v>
       </c>
-      <c r="F200" s="39">
+      <c r="F200">
         <v>151</v>
       </c>
     </row>
@@ -13106,7 +13109,7 @@
       <c r="A201" s="40" t="s">
         <v>1231</v>
       </c>
-      <c r="F201" s="39">
+      <c r="F201">
         <v>152</v>
       </c>
     </row>
@@ -13114,97 +13117,105 @@
       <c r="A202" s="40" t="s">
         <v>1232</v>
       </c>
-      <c r="F202" s="39">
+      <c r="F202">
         <v>153</v>
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" t="s">
+      <c r="A203" s="40" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F203" s="39">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
-      <c r="A205" t="s">
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>607</v>
+        <v>30</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>32</v>
-      </c>
-      <c r="H209" t="s">
-        <v>891</v>
+        <v>607</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>729</v>
+        <v>32</v>
       </c>
       <c r="H210" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>608</v>
+        <v>729</v>
+      </c>
+      <c r="H211" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>730</v>
+        <v>608</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>168</v>
+        <v>730</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
-      <c r="D218" t="s">
+    <row r="219" spans="1:8">
+      <c r="D219" t="s">
         <v>851</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
-      <c r="C219">
-        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="C220">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="C221">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
       <c r="C222">
-        <v>4</v>
-      </c>
-      <c r="D222" s="39"/>
-      <c r="E222" s="39"/>
-      <c r="F222" s="39"/>
-      <c r="G222" s="39"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="223" spans="1:8">
       <c r="C223">
+        <v>4</v>
+      </c>
+      <c r="D223" s="39"/>
+      <c r="E223" s="39"/>
+      <c r="F223" s="39"/>
+      <c r="G223" s="39"/>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="C224">
         <v>5</v>
       </c>
     </row>

--- a/Regex 04.02.25.xlsx
+++ b/Regex 04.02.25.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="1234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="1238">
   <si>
     <t>with (?mx) with description</t>
   </si>
@@ -7741,6 +7741,18 @@
   </si>
   <si>
     <t xml:space="preserve">    "MI.04.01.02.02.0.19": "NSYLAMT5LD1",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.08.0.38": "EZC100N3030",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.03.0.38": "LC1D12P7",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.09.00.0.23": "NSYTJ10030",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.05.02.0.25": "Държач за кабелна връзка 30x30",</t>
   </si>
 </sst>
 </file>
@@ -11691,10 +11703,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J224"/>
+  <dimension ref="A1:J228"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A193" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H197" sqref="H197"/>
+      <selection activeCell="C206" sqref="C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13125,97 +13137,129 @@
       <c r="A203" s="40" t="s">
         <v>1233</v>
       </c>
-      <c r="F203" s="39">
+      <c r="F203" s="40">
         <v>154</v>
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" t="s">
-        <v>596</v>
+      <c r="A204" s="40" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F204" s="39">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="40" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F205" s="39">
+        <v>156</v>
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" t="s">
-        <v>29</v>
+      <c r="A206" s="40" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F206" s="39">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="40" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F207" s="39">
+        <v>158</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="A209" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>32</v>
-      </c>
-      <c r="H210" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="A211" t="s">
-        <v>729</v>
-      </c>
-      <c r="H211" t="s">
-        <v>890</v>
+        <v>29</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>608</v>
+        <v>30</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>730</v>
+        <v>607</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>168</v>
+        <v>32</v>
+      </c>
+      <c r="H214" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" t="s">
+        <v>729</v>
+      </c>
+      <c r="H215" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
-      <c r="D219" t="s">
+    <row r="223" spans="1:8">
+      <c r="D223" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="C220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
-      <c r="C221">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
-      <c r="C222">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
-      <c r="C223">
-        <v>4</v>
-      </c>
-      <c r="D223" s="39"/>
-      <c r="E223" s="39"/>
-      <c r="F223" s="39"/>
-      <c r="G223" s="39"/>
     </row>
     <row r="224" spans="1:8">
       <c r="C224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="3:7">
+      <c r="C225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="3:7">
+      <c r="C226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="3:7">
+      <c r="C227">
+        <v>4</v>
+      </c>
+      <c r="D227" s="39"/>
+      <c r="E227" s="39"/>
+      <c r="F227" s="39"/>
+      <c r="G227" s="39"/>
+    </row>
+    <row r="228" spans="3:7">
+      <c r="C228">
         <v>5</v>
       </c>
     </row>

--- a/Regex 04.02.25.xlsx
+++ b/Regex 04.02.25.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="787" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="787" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="1238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="1306">
   <si>
     <t>with (?mx) with description</t>
   </si>
@@ -4882,9 +4882,6 @@
   </si>
   <si>
     <t>['Mariq&amp;Ivanova&amp;Georgieva', 'Mariq']</t>
-  </si>
-  <si>
-    <t>In this case, the non-capturing group is used to match the &amp; and subsequent capitalized words like &amp;Ivanova, &amp;Georgieva, but it doesn't create a separate result for those parts — they are simply part of the entire match</t>
   </si>
   <si>
     <r>
@@ -7753,18 +7750,571 @@
   </si>
   <si>
     <t xml:space="preserve">    "MI.04.02.05.02.0.25": "Държач за кабелна връзка 30x30",</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In this case, the non-capturing group is used to match the &amp; and subsequent capitalized words like &amp;Ivanova, &amp;Georgieva, but it doesn't create a separate result for those parts — </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>they are simply part of the entire match</t>
+    </r>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>['ha', 'haha', 'hahaha']</t>
+  </si>
+  <si>
+    <t>['haha', 'hahaha']</t>
+  </si>
+  <si>
+    <t>More examples:</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>haha</t>
+  </si>
+  <si>
+    <t>hahaha</t>
+  </si>
+  <si>
+    <t>Match 1</t>
+  </si>
+  <si>
+    <t>Match 2</t>
+  </si>
+  <si>
+    <t>Match 3</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>['cat', 'dog']</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <r>
+      <t>text = "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cat dog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bat"</t>
+    </r>
+  </si>
+  <si>
+    <t>Group 1</t>
+  </si>
+  <si>
+    <t>r"(cat|dog)"</t>
+  </si>
+  <si>
+    <t>r"\b\w+(?:ing|ed)\b"</t>
+  </si>
+  <si>
+    <t>r"(?:ha){2,}"</t>
+  </si>
+  <si>
+    <t>r"(?:ha)+"</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cat dog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bat"</t>
+    </r>
+  </si>
+  <si>
+    <t>pattern = r"(?:cat|dog)"</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ha haha hahaha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"ha </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>haha hahaha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>['playing', 'played']</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>played</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>playing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">played </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>player"</t>
+    </r>
+  </si>
+  <si>
+    <t>r"\b\w+(ing|ed)\b"</t>
+  </si>
+  <si>
+    <t>['ing', 'ed']</t>
+  </si>
+  <si>
+    <r>
+      <t>"play</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>play</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> player"</t>
+    </r>
+  </si>
+  <si>
+    <t>ing</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>pattern = r""</t>
+  </si>
+  <si>
+    <t># match words that end with either "ing" or "ed"</t>
+  </si>
+  <si>
+    <t># match "ha" repeated 2 or more times — like "haha" or "hahaha"</t>
+  </si>
+  <si>
+    <t># match either "cat" or "dog"</t>
+  </si>
+  <si>
+    <t>r"colo(?:u)?r"</t>
+  </si>
+  <si>
+    <t>['color', 'colour']</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>color colour</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>colour</t>
+  </si>
+  <si>
+    <t># match either "color" or "colour"</t>
+  </si>
+  <si>
+    <t>r"item_(?:no)?(\d+)"</t>
+  </si>
+  <si>
+    <t>['1', '22', '333']</t>
+  </si>
+  <si>
+    <r>
+      <t>"item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> item_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>333</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 444"</t>
+    </r>
+  </si>
+  <si>
+    <t>item_1</t>
+  </si>
+  <si>
+    <t>item_22</t>
+  </si>
+  <si>
+    <t>item_333</t>
+  </si>
+  <si>
+    <t>r"abc(?=(?:1|2))"</t>
+  </si>
+  <si>
+    <t>['abc', 'abc']</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abc1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abc2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> abc3"</t>
+    </r>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t># combining with lookarounds</t>
+  </si>
+  <si>
+    <t>In my pattern</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>(?:бр|БР|Бр|ПАК|M|М|пак|м|броя|оп)?</t>
+  </si>
+  <si>
+    <t># may habe point or not</t>
+  </si>
+  <si>
+    <t>\.?</t>
+  </si>
+  <si>
+    <t># may have white sapce or not</t>
+  </si>
+  <si>
+    <t># quantity 17,00</t>
+  </si>
+  <si>
+    <t># go ahead</t>
+  </si>
+  <si>
+    <t># Optionally match one of these unit labels</t>
+  </si>
+  <si>
+    <t>Optionally match one of these unit labels (бр, ПАК, м, etc.) after the quantity — but don’t treat it as a captured group.</t>
+  </si>
+  <si>
+    <t>So this regex fragment means:</t>
+  </si>
+  <si>
+    <t>matches an optional unit word from several options,</t>
+  </si>
+  <si>
+    <t>doesn’t capture it</t>
+  </si>
+  <si>
+    <t>just helps verify and structure the match.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8161,73 +8711,74 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9780,7 +10331,7 @@
   <dimension ref="C3:F7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9846,13 +10397,13 @@
     </row>
     <row r="7" spans="3:6" ht="34.799999999999997" customHeight="1">
       <c r="C7" s="19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F7" s="19"/>
     </row>
@@ -10504,7 +11055,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -10539,7 +11090,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="41" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -10619,22 +11170,22 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -10644,7 +11195,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="41" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -10654,17 +11205,17 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -10866,7 +11417,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -11164,17 +11715,17 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -11705,8 +12256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C206" sqref="C206"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11821,7 +12372,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -11836,12 +12387,12 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -12319,7 +12870,7 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F101">
         <v>52</v>
@@ -12327,7 +12878,7 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F102">
         <v>53</v>
@@ -12335,7 +12886,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F103">
         <v>54</v>
@@ -12343,7 +12894,7 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F104">
         <v>55</v>
@@ -12351,7 +12902,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F105">
         <v>56</v>
@@ -12359,7 +12910,7 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F106">
         <v>57</v>
@@ -12367,7 +12918,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F107">
         <v>58</v>
@@ -12375,7 +12926,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F108">
         <v>59</v>
@@ -12391,7 +12942,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F110">
         <v>61</v>
@@ -12399,7 +12950,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F111">
         <v>62</v>
@@ -12407,7 +12958,7 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F112">
         <v>63</v>
@@ -12415,7 +12966,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F113">
         <v>64</v>
@@ -12423,7 +12974,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F114">
         <v>65</v>
@@ -12431,7 +12982,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F115" s="40">
         <v>66</v>
@@ -12439,7 +12990,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F116" s="40">
         <v>67</v>
@@ -12447,7 +12998,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F117" s="40">
         <v>68</v>
@@ -12455,7 +13006,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F118" s="40">
         <v>69</v>
@@ -12463,7 +13014,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F119" s="40">
         <v>70</v>
@@ -12471,7 +13022,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F120" s="40">
         <v>71</v>
@@ -12479,7 +13030,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F121" s="40">
         <v>72</v>
@@ -12487,7 +13038,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F122" s="40">
         <v>73</v>
@@ -12495,7 +13046,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F123" s="40">
         <v>74</v>
@@ -12503,7 +13054,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F124" s="40">
         <v>75</v>
@@ -12511,7 +13062,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F125" s="40">
         <v>76</v>
@@ -12519,7 +13070,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F126" s="40">
         <v>77</v>
@@ -12527,7 +13078,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F127" s="40">
         <v>78</v>
@@ -12535,7 +13086,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F128" s="40">
         <v>79</v>
@@ -12543,7 +13094,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F129" s="40">
         <v>80</v>
@@ -12551,7 +13102,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F130" s="40">
         <v>81</v>
@@ -12559,7 +13110,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F131" s="40">
         <v>82</v>
@@ -12567,7 +13118,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F132" s="40">
         <v>83</v>
@@ -12575,7 +13126,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F133" s="40">
         <v>84</v>
@@ -12583,7 +13134,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F134" s="40">
         <v>85</v>
@@ -12591,7 +13142,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F135" s="40">
         <v>86</v>
@@ -12599,7 +13150,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F136" s="40">
         <v>87</v>
@@ -12607,7 +13158,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F137" s="40">
         <v>88</v>
@@ -12615,7 +13166,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F138" s="40">
         <v>89</v>
@@ -12623,7 +13174,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F139" s="40">
         <v>90</v>
@@ -12631,7 +13182,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F140" s="40">
         <v>91</v>
@@ -12639,7 +13190,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F141" s="40">
         <v>92</v>
@@ -12647,7 +13198,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F142" s="40">
         <v>93</v>
@@ -12655,7 +13206,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F143" s="40">
         <v>94</v>
@@ -12663,7 +13214,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F144" s="40">
         <v>95</v>
@@ -12671,7 +13222,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F145" s="40">
         <v>96</v>
@@ -12679,7 +13230,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F146" s="40">
         <v>97</v>
@@ -12687,7 +13238,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F147" s="40">
         <v>98</v>
@@ -12695,7 +13246,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F148" s="40">
         <v>99</v>
@@ -12703,7 +13254,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F149" s="40">
         <v>100</v>
@@ -12711,7 +13262,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F150" s="40">
         <v>101</v>
@@ -12719,7 +13270,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F151" s="40">
         <v>102</v>
@@ -12735,7 +13286,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F153">
         <v>104</v>
@@ -12743,7 +13294,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F154">
         <v>105</v>
@@ -12751,7 +13302,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F155" s="40">
         <v>106</v>
@@ -12759,7 +13310,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F156" s="40">
         <v>107</v>
@@ -12767,7 +13318,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F157" s="40">
         <v>108</v>
@@ -12775,7 +13326,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F158" s="40">
         <v>109</v>
@@ -12783,7 +13334,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F159" s="40">
         <v>110</v>
@@ -12791,7 +13342,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F160" s="40">
         <v>111</v>
@@ -12799,7 +13350,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F161" s="40">
         <v>112</v>
@@ -12807,7 +13358,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F162" s="40">
         <v>113</v>
@@ -12815,7 +13366,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="F163" s="40">
         <v>114</v>
@@ -12823,7 +13374,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F164" s="40">
         <v>115</v>
@@ -12831,7 +13382,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F165" s="40">
         <v>116</v>
@@ -12839,7 +13390,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F166" s="40">
         <v>117</v>
@@ -12847,7 +13398,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F167" s="40">
         <v>118</v>
@@ -12855,7 +13406,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F168" s="40">
         <v>119</v>
@@ -12863,7 +13414,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F169" s="40">
         <v>120</v>
@@ -12871,7 +13422,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F170" s="40">
         <v>121</v>
@@ -12879,7 +13430,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="48" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F171" s="40">
         <v>122</v>
@@ -12887,7 +13438,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="40" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F172" s="40">
         <v>123</v>
@@ -12895,7 +13446,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="40" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F173" s="40">
         <v>124</v>
@@ -12903,7 +13454,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="40" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F174" s="40">
         <v>125</v>
@@ -12911,7 +13462,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="40" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F175" s="40">
         <v>126</v>
@@ -12919,7 +13470,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="40" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F176" s="40">
         <v>127</v>
@@ -12927,7 +13478,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="40" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F177" s="40">
         <v>128</v>
@@ -12935,7 +13486,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="40" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F178" s="40">
         <v>129</v>
@@ -12943,7 +13494,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="40" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F179" s="40">
         <v>130</v>
@@ -12951,7 +13502,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="40" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F180" s="40">
         <v>131</v>
@@ -12959,7 +13510,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="40" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F181" s="40">
         <v>132</v>
@@ -12967,7 +13518,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="40" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F182" s="40">
         <v>133</v>
@@ -12975,7 +13526,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="40" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F183" s="40">
         <v>134</v>
@@ -12983,7 +13534,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="40" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F184" s="40">
         <v>135</v>
@@ -12991,7 +13542,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="40" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F185" s="40">
         <v>136</v>
@@ -12999,7 +13550,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="40" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F186" s="40">
         <v>137</v>
@@ -13007,7 +13558,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="40" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F187" s="40">
         <v>138</v>
@@ -13015,7 +13566,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="40" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F188" s="40">
         <v>139</v>
@@ -13023,7 +13574,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="40" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F189" s="40">
         <v>140</v>
@@ -13031,7 +13582,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="40" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F190" s="40">
         <v>141</v>
@@ -13039,7 +13590,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="40" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F191" s="40">
         <v>142</v>
@@ -13047,7 +13598,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="40" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F192" s="40">
         <v>143</v>
@@ -13055,7 +13606,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="40" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F193" s="40">
         <v>144</v>
@@ -13063,7 +13614,7 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="40" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F194" s="40">
         <v>145</v>
@@ -13071,7 +13622,7 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="40" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F195" s="40">
         <v>146</v>
@@ -13079,7 +13630,7 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="40" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F196" s="40">
         <v>147</v>
@@ -13087,7 +13638,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="40" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F197" s="40">
         <v>148</v>
@@ -13095,7 +13646,7 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="40" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F198" s="40">
         <v>149</v>
@@ -13103,7 +13654,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="40" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F199" s="40">
         <v>150</v>
@@ -13111,7 +13662,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="40" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F200">
         <v>151</v>
@@ -13119,7 +13670,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="40" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F201">
         <v>152</v>
@@ -13127,7 +13678,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="40" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F202">
         <v>153</v>
@@ -13135,7 +13686,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="40" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F203" s="40">
         <v>154</v>
@@ -13143,7 +13694,7 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="40" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F204" s="39">
         <v>155</v>
@@ -13151,7 +13702,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="40" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F205" s="39">
         <v>156</v>
@@ -13159,7 +13710,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="40" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F206" s="39">
         <v>157</v>
@@ -13167,7 +13718,7 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="40" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="F207" s="39">
         <v>158</v>
@@ -13198,7 +13749,7 @@
         <v>32</v>
       </c>
       <c r="H214" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -13206,7 +13757,7 @@
         <v>729</v>
       </c>
       <c r="H215" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -13231,7 +13782,7 @@
     </row>
     <row r="223" spans="1:8">
       <c r="D223" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -13265,17 +13816,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>$B$54&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>$B$52&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$B$32=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13313,7 +13864,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F4" s="40"/>
     </row>
@@ -13448,7 +13999,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F19" s="40"/>
     </row>
@@ -13466,7 +14017,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F21" s="40"/>
     </row>
@@ -13493,7 +14044,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F24" s="40"/>
     </row>
@@ -13502,7 +14053,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F25" s="40"/>
     </row>
@@ -13520,7 +14071,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F27" s="40"/>
     </row>
@@ -13529,7 +14080,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F28" s="40"/>
     </row>
@@ -13547,7 +14098,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F30" s="40"/>
     </row>
@@ -13556,7 +14107,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F31" s="40"/>
     </row>
@@ -13565,7 +14116,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F32" s="40"/>
     </row>
@@ -13583,7 +14134,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F34" s="40"/>
     </row>
@@ -13592,7 +14143,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -13600,7 +14151,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -13608,7 +14159,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -13624,7 +14175,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -13632,7 +14183,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -13640,7 +14191,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -13648,22 +14199,22 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="14" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>$C$35&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>$C$33&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>$C$15=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13815,17 +14366,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>$B$53&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>$B$51&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$B$33=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13968,17 +14519,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>$B$38&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>$B$36&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="3" priority="12">
       <formula>$B$16=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13991,10 +14542,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L313"/>
+  <dimension ref="A1:O363"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E249" sqref="E249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14032,12 +14583,12 @@
     <row r="7" spans="1:3">
       <c r="B7" s="34"/>
       <c r="C7" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="38" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -14100,89 +14651,89 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C18" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C19" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C20" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C21" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C22" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="C23" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="C24" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C25" t="s">
         <v>1200</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C26" t="s">
         <v>1203</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C27" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C28" t="s">
         <v>1206</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="8" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -14190,27 +14741,27 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="8" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>1189</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>1190</v>
-      </c>
       <c r="D33" s="8" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>1176</v>
+      </c>
+      <c r="J33" s="8" t="s">
         <v>1175</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>1177</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B34" s="50" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -14219,15 +14770,15 @@
         <v>29</v>
       </c>
       <c r="J34" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -14236,15 +14787,15 @@
         <v>29</v>
       </c>
       <c r="J35" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B36" s="50" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D36">
         <v>6</v>
@@ -14253,15 +14804,15 @@
         <v>29</v>
       </c>
       <c r="J36" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D37">
         <v>6</v>
@@ -14270,15 +14821,15 @@
         <v>29</v>
       </c>
       <c r="J37" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B39" s="50" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -14287,15 +14838,15 @@
         <v>29</v>
       </c>
       <c r="J39" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B40" s="50" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -14304,18 +14855,18 @@
         <v>29</v>
       </c>
       <c r="J40" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="L40" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B41" s="50" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D41">
         <v>6</v>
@@ -14324,15 +14875,15 @@
         <v>29</v>
       </c>
       <c r="J41" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B42" s="50" t="s">
         <v>1172</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>1173</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -14341,7 +14892,7 @@
         <v>29</v>
       </c>
       <c r="J42" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -14349,10 +14900,10 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D44">
         <v>5</v>
@@ -14361,15 +14912,15 @@
         <v>29</v>
       </c>
       <c r="J44" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D45">
         <v>5</v>
@@ -14378,7 +14929,7 @@
         <v>29</v>
       </c>
       <c r="J45" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -14418,7 +14969,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="8" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -14433,19 +14984,19 @@
     <row r="58" spans="1:3">
       <c r="A58" s="8"/>
       <c r="C58" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="8"/>
       <c r="C59" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="8"/>
       <c r="C60" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -14454,13 +15005,13 @@
     <row r="62" spans="1:3">
       <c r="A62" s="8"/>
       <c r="C62" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="8"/>
       <c r="C63" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -14469,37 +15020,37 @@
     <row r="65" spans="1:3">
       <c r="A65" s="25"/>
       <c r="B65" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="25"/>
       <c r="C66" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="25"/>
       <c r="C67" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="25"/>
       <c r="C68" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="25"/>
       <c r="C69" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="25"/>
       <c r="C70" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -14507,19 +15058,19 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="49" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="49"/>
       <c r="B73" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="49"/>
       <c r="B74" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -14568,13 +15119,13 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B86" s="35"/>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B87" s="35"/>
     </row>
@@ -14806,7 +15357,7 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -14857,7 +15408,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -14870,7 +15421,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="B164" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -14885,7 +15436,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="B168" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -14912,19 +15463,19 @@
     </row>
     <row r="174" spans="1:6">
       <c r="B174" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F174" s="5"/>
     </row>
     <row r="175" spans="1:6">
       <c r="B175" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F175" s="5"/>
     </row>
     <row r="176" spans="1:6">
       <c r="B176" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F176" s="5"/>
     </row>
@@ -14936,7 +15487,7 @@
         <v>1</v>
       </c>
       <c r="D178" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F178" s="5"/>
     </row>
@@ -14945,7 +15496,7 @@
         <v>2</v>
       </c>
       <c r="D179" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F179" s="5"/>
     </row>
@@ -14954,19 +15505,19 @@
     </row>
     <row r="181" spans="2:6">
       <c r="B181" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F181" s="5"/>
     </row>
     <row r="182" spans="2:6">
       <c r="B182" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F182" s="5"/>
     </row>
     <row r="183" spans="2:6">
       <c r="B183" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F183" s="5"/>
     </row>
@@ -14993,438 +15544,933 @@
     </row>
     <row r="192" spans="2:6">
       <c r="B192" t="s">
-        <v>757</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="194" spans="2:4">
       <c r="B194" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="195" spans="2:4">
       <c r="C195" s="36" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="196" spans="2:4">
       <c r="C196" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="197" spans="2:4">
       <c r="C197" s="36" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="198" spans="2:4">
       <c r="D198" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="200" spans="2:4">
       <c r="B200" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="202" spans="2:4">
       <c r="B202" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="203" spans="2:4">
       <c r="C203" s="36" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="205" spans="2:4">
       <c r="C205" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="207" spans="2:4">
       <c r="B207" s="37" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="208" spans="2:4" ht="15">
       <c r="B208" s="37" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210" s="8" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="209" spans="2:13">
+      <c r="B209" s="37"/>
+    </row>
+    <row r="210" spans="2:13">
+      <c r="B210" s="37" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="211" spans="2:13">
+      <c r="B211" s="37"/>
+    </row>
+    <row r="212" spans="2:13">
+      <c r="B212" s="37" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E212" s="8" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G212" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="J212" s="8"/>
+      <c r="K212" s="8"/>
+      <c r="L212" s="8"/>
+      <c r="M212" s="8"/>
+    </row>
+    <row r="213" spans="2:13">
+      <c r="B213" s="51" t="s">
+        <v>877</v>
+      </c>
+      <c r="E213" s="51" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G213" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J213" s="8"/>
+      <c r="K213" s="8"/>
+      <c r="L213" s="8"/>
+      <c r="M213" s="8"/>
+    </row>
+    <row r="214" spans="2:13">
+      <c r="B214" s="37"/>
+      <c r="E214" s="8"/>
+      <c r="G214" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="J214" s="8"/>
+      <c r="K214" s="8"/>
+      <c r="L214" s="8"/>
+      <c r="M214" s="8"/>
+    </row>
+    <row r="215" spans="2:13">
+      <c r="B215" s="51" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E215" s="8"/>
+      <c r="G215" s="8"/>
+      <c r="J215" s="51" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K215" s="51" t="s">
+        <v>1246</v>
+      </c>
+      <c r="L215" s="8"/>
+      <c r="M215" s="8"/>
+    </row>
+    <row r="216" spans="2:13">
+      <c r="B216" s="51" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G216" t="s">
+        <v>1249</v>
+      </c>
+      <c r="J216" t="s">
+        <v>1250</v>
+      </c>
+      <c r="K216" t="s">
+        <v>1251</v>
+      </c>
+      <c r="L216" s="8"/>
+      <c r="M216" s="8"/>
+    </row>
+    <row r="217" spans="2:13">
+      <c r="B217" s="51"/>
+      <c r="L217" s="8"/>
+      <c r="M217" s="8"/>
+    </row>
+    <row r="218" spans="2:13">
+      <c r="B218" s="51"/>
+      <c r="J218" s="51" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K218" s="51" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L218" s="51" t="s">
+        <v>1246</v>
+      </c>
+      <c r="M218" s="51" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="219" spans="2:13">
+      <c r="B219" s="51" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G219" t="s">
+        <v>1249</v>
+      </c>
+      <c r="J219" t="s">
+        <v>1250</v>
+      </c>
+      <c r="K219" t="s">
+        <v>1250</v>
+      </c>
+      <c r="L219" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M219" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="220" spans="2:13">
+      <c r="B220" s="51"/>
+    </row>
+    <row r="221" spans="2:13">
+      <c r="B221" s="51"/>
+      <c r="J221" s="51" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K221" s="51" t="s">
+        <v>1246</v>
+      </c>
+      <c r="L221" s="51" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="222" spans="2:13">
+      <c r="B222" s="51" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G222" t="s">
+        <v>1239</v>
+      </c>
+      <c r="J222" t="s">
+        <v>1242</v>
+      </c>
+      <c r="K222" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L222" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="223" spans="2:13">
+      <c r="B223" s="51"/>
+    </row>
+    <row r="224" spans="2:13">
+      <c r="B224" s="51" t="s">
+        <v>1273</v>
+      </c>
+      <c r="J224" s="51" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K224" s="51" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="225" spans="2:15">
+      <c r="B225" s="51" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E225" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G225" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J225" t="s">
+        <v>1243</v>
+      </c>
+      <c r="K225" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="226" spans="2:15">
+      <c r="B226" s="51"/>
+    </row>
+    <row r="227" spans="2:15">
+      <c r="B227" s="51" t="s">
+        <v>1272</v>
+      </c>
+      <c r="J227" s="51" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K227" s="51" t="s">
+        <v>1246</v>
+      </c>
+      <c r="L227" s="51" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="228" spans="2:15">
+      <c r="B228" s="51" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E228" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G228" t="s">
+        <v>1262</v>
+      </c>
+      <c r="J228" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K228" t="s">
+        <v>1264</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="2:15">
+      <c r="B229" s="51"/>
+    </row>
+    <row r="230" spans="2:15">
+      <c r="B230" s="51"/>
+      <c r="J230" s="51" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K230" s="51" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L230" s="51" t="s">
+        <v>1246</v>
+      </c>
+      <c r="M230" s="51" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="231" spans="2:15">
+      <c r="B231" s="33" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E231" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G231" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J231" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K231" t="s">
+        <v>1269</v>
+      </c>
+      <c r="L231" t="s">
+        <v>1264</v>
+      </c>
+      <c r="M231" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="232" spans="2:15">
+      <c r="B232" s="51"/>
+    </row>
+    <row r="233" spans="2:15">
+      <c r="B233" s="51" t="s">
+        <v>1280</v>
+      </c>
+      <c r="J233" s="51" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K233" s="51" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="234" spans="2:15">
+      <c r="B234" s="51" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E234" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G234" t="s">
+        <v>1276</v>
+      </c>
+      <c r="J234" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K234" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="235" spans="2:15">
+      <c r="B235" s="51"/>
+    </row>
+    <row r="236" spans="2:15">
+      <c r="B236" s="51"/>
+      <c r="J236" s="51" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K236" s="51" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L236" s="51" t="s">
+        <v>1246</v>
+      </c>
+      <c r="M236" s="51" t="s">
+        <v>1253</v>
+      </c>
+      <c r="N236" s="51" t="s">
+        <v>1247</v>
+      </c>
+      <c r="O236" s="51" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="237" spans="2:15">
+      <c r="B237" s="51" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E237" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G237" t="s">
+        <v>1282</v>
+      </c>
+      <c r="J237" t="s">
+        <v>1284</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="L237" t="s">
+        <v>1285</v>
+      </c>
+      <c r="M237">
+        <v>22</v>
+      </c>
+      <c r="N237" t="s">
+        <v>1286</v>
+      </c>
+      <c r="O237">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="238" spans="2:15">
+      <c r="B238" s="37"/>
+    </row>
+    <row r="239" spans="2:15">
+      <c r="B239" s="51" t="s">
+        <v>1291</v>
+      </c>
+      <c r="J239" s="51" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K239" s="51" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="240" spans="2:15">
+      <c r="B240" s="51" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E240" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G240" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J240" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K240" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="241" spans="2:8">
+      <c r="B241" s="37"/>
+    </row>
+    <row r="242" spans="2:8">
+      <c r="B242" s="37"/>
+    </row>
+    <row r="243" spans="2:8">
+      <c r="B243" s="37" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="244" spans="2:8">
+      <c r="B244" s="37"/>
+      <c r="C244" t="s">
+        <v>49</v>
+      </c>
+      <c r="H244" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="245" spans="2:8">
+      <c r="B245" s="37"/>
+      <c r="C245" t="s">
+        <v>283</v>
+      </c>
+      <c r="H245" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="246" spans="2:8">
+      <c r="B246" s="37"/>
+      <c r="C246" t="s">
+        <v>605</v>
+      </c>
+      <c r="H246" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="247" spans="2:8">
+      <c r="B247" s="37"/>
+      <c r="C247" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H247" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="248" spans="2:8">
+      <c r="B248" s="37"/>
+      <c r="C248" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H248" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="249" spans="2:8">
+      <c r="B249" s="37"/>
+      <c r="C249" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8">
+      <c r="B250" s="37"/>
+    </row>
+    <row r="251" spans="2:8">
+      <c r="B251" s="37"/>
+      <c r="C251" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="252" spans="2:8">
+      <c r="B252" s="37"/>
+      <c r="C252" s="8" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="253" spans="2:8">
+      <c r="B253" s="37"/>
+      <c r="D253" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="254" spans="2:8">
+      <c r="B254" s="37"/>
+    </row>
+    <row r="255" spans="2:8">
+      <c r="B255" s="37"/>
+      <c r="D255" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="256" spans="2:8">
+      <c r="B256" s="37"/>
+      <c r="D256" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="B257" s="37"/>
+      <c r="D257" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="B258" s="37"/>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="8" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="B262" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="B264" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
-      <c r="B212" t="s">
+    <row r="265" spans="1:6">
+      <c r="B265" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="B267" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="B268" t="s">
+        <v>795</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="B272" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
-      <c r="B214" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="B215" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="B217" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="B218" t="s">
-        <v>796</v>
-      </c>
-      <c r="F218" s="5" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="8" t="s">
+    <row r="273" spans="1:8">
+      <c r="B273" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
-      <c r="B222" t="s">
+    <row r="275" spans="1:8">
+      <c r="B275" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="B276" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="C277" s="5" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="8" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="B281" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
-      <c r="B223" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="B225" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
-      <c r="B226" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
-      <c r="C227" s="5" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
-      <c r="A229" s="8" t="s">
+    <row r="283" spans="1:8">
+      <c r="B283" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="B231" t="s">
+      <c r="H283" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="B284" t="s">
+        <v>804</v>
+      </c>
+      <c r="H284" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="B285" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="C286" s="5" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="8" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
+      <c r="B290" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
-      <c r="B233" t="s">
-        <v>804</v>
-      </c>
-      <c r="H233" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="B234" t="s">
-        <v>805</v>
-      </c>
-      <c r="H234" t="s">
+    <row r="292" spans="1:9">
+      <c r="B292" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
+      <c r="B293" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
+      <c r="B294" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
+      <c r="C295" s="5" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
+      <c r="A298" s="8" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
-      <c r="B235" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="C236" s="5" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="A238" s="8" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="B240" t="s">
+    <row r="300" spans="1:9">
+      <c r="B300" t="s">
+        <v>815</v>
+      </c>
+      <c r="I300" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
+      <c r="B302" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
-      <c r="B242" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10">
-      <c r="B243" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10">
-      <c r="B244" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10">
-      <c r="C245" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10">
-      <c r="A248" s="8" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10">
-      <c r="B250" t="s">
+      <c r="I302" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
+      <c r="B303" t="s">
         <v>816</v>
       </c>
-      <c r="I250" t="s">
+      <c r="I303" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
+      <c r="B304" t="s">
+        <v>820</v>
+      </c>
+      <c r="I304" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10">
+      <c r="B305" t="s">
+        <v>818</v>
+      </c>
+      <c r="I305" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10">
+      <c r="C306" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J306" s="5" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10">
+      <c r="A309" s="8" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
-      <c r="B252" t="s">
+    <row r="311" spans="1:10">
+      <c r="B311" t="s">
         <v>1</v>
       </c>
-      <c r="I252" t="s">
+    </row>
+    <row r="313" spans="1:10">
+      <c r="B313" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10">
+      <c r="B314" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10">
+      <c r="B315" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10">
+      <c r="C316" s="5" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10">
+      <c r="A318" s="8" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10">
+      <c r="B319" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="B321" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:10">
-      <c r="B253" t="s">
-        <v>817</v>
-      </c>
-      <c r="I253" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10">
-      <c r="B254" t="s">
-        <v>821</v>
-      </c>
-      <c r="I254" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10">
-      <c r="B255" t="s">
-        <v>819</v>
-      </c>
-      <c r="I255" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10">
-      <c r="C256" s="5" t="b">
+    <row r="322" spans="1:3">
+      <c r="B322" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="B323" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="B324" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="C325" s="5" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="8" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="B329" t="s">
         <v>1</v>
       </c>
-      <c r="J256" s="5" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259" s="8" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="B261" t="s">
+    </row>
+    <row r="331" spans="1:3">
+      <c r="B331" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="B332" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="B333" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="C334" s="5" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="8" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="B338" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
-      <c r="B263" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="B264" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="B265" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="C266" s="5" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" s="8" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="B269" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="B271" t="s">
+    <row r="340" spans="1:5">
+      <c r="B340" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="B341" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="B343" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="B345" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="B346" t="s">
+        <v>80</v>
+      </c>
+      <c r="E346" s="5" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="8" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="B351" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
-      <c r="B272" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="B273" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="B274" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="C275" s="5" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
-      <c r="A277" s="8" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
-      <c r="B279" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="B281" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
-      <c r="B282" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="B283" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
-      <c r="C284" s="5" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
-      <c r="A287" s="8" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
-      <c r="B288" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
-      <c r="B290" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
-      <c r="B291" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
-      <c r="B293" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
-      <c r="B295" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
-      <c r="B296" t="s">
-        <v>80</v>
-      </c>
-      <c r="E296" s="5" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
-      <c r="A299" s="8" t="s">
+    <row r="353" spans="2:7">
+      <c r="B353" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="2:7">
+      <c r="B354" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="355" spans="2:7">
+      <c r="B355" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="356" spans="2:7">
+      <c r="B356" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="2:7">
+      <c r="B358" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
-      <c r="B301" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
-      <c r="B303" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
-      <c r="B304" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="305" spans="2:7">
-      <c r="B305" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="306" spans="2:7">
-      <c r="B306" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="308" spans="2:7">
-      <c r="B308" t="s">
+    <row r="360" spans="2:7">
+      <c r="B360" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="310" spans="2:7">
-      <c r="B310" t="s">
+      <c r="G360" s="5" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="361" spans="2:7">
+      <c r="B361" t="s">
         <v>910</v>
       </c>
-      <c r="G310" s="5" t="s">
+      <c r="G361" s="5" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="311" spans="2:7">
-      <c r="B311" t="s">
+    <row r="362" spans="2:7">
+      <c r="B362" t="s">
         <v>911</v>
       </c>
-      <c r="G311" s="5" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="312" spans="2:7">
-      <c r="B312" t="s">
+    </row>
+    <row r="363" spans="2:7">
+      <c r="B363" t="s">
         <v>912</v>
-      </c>
-    </row>
-    <row r="313" spans="2:7">
-      <c r="B313" t="s">
-        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -16764,7 +17810,7 @@
     </row>
     <row r="264" spans="2:13">
       <c r="B264" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
@@ -16772,7 +17818,7 @@
     </row>
     <row r="265" spans="2:13">
       <c r="B265" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
@@ -16788,17 +17834,17 @@
         <v>237</v>
       </c>
       <c r="I268" s="40" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="269" spans="2:13">
       <c r="B269" s="47" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="270" spans="2:13">
       <c r="B270" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="271" spans="2:13">
@@ -16813,27 +17859,27 @@
     </row>
     <row r="273" spans="2:2">
       <c r="B273" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="274" spans="2:2">
       <c r="B274" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="276" spans="2:2">
       <c r="B276" s="33" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="277" spans="2:2">
       <c r="B277" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="278" spans="2:2">
@@ -16853,7 +17899,7 @@
     </row>
     <row r="281" spans="2:2">
       <c r="B281" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="282" spans="2:2">
@@ -17838,527 +18884,527 @@
     </row>
     <row r="479" spans="2:2">
       <c r="B479" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="480" spans="2:2">
       <c r="B480" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="481" spans="2:2">
       <c r="B481" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="482" spans="2:2">
       <c r="B482" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="483" spans="2:2">
       <c r="B483" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="484" spans="2:2">
       <c r="B484" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="485" spans="2:2">
       <c r="B485" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="486" spans="2:2">
       <c r="B486" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="487" spans="2:2">
       <c r="B487" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="488" spans="2:2">
       <c r="B488" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="489" spans="2:2">
       <c r="B489" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="490" spans="2:2">
       <c r="B490" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="491" spans="2:2">
       <c r="B491" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="492" spans="2:2">
       <c r="B492" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="493" spans="2:2">
       <c r="B493" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="494" spans="2:2">
       <c r="B494" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="495" spans="2:2">
       <c r="B495" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="496" spans="2:2">
       <c r="B496" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="497" spans="2:2">
       <c r="B497" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="498" spans="2:2">
       <c r="B498" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="499" spans="2:2">
       <c r="B499" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="500" spans="2:2">
       <c r="B500" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="501" spans="2:2">
       <c r="B501" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="502" spans="2:2">
       <c r="B502" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="503" spans="2:2">
       <c r="B503" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="504" spans="2:2">
       <c r="B504" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="505" spans="2:2">
       <c r="B505" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="506" spans="2:2">
       <c r="B506" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="507" spans="2:2">
       <c r="B507" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="508" spans="2:2">
       <c r="B508" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="509" spans="2:2">
       <c r="B509" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="510" spans="2:2">
       <c r="B510" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="511" spans="2:2">
       <c r="B511" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="512" spans="2:2">
       <c r="B512" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="513" spans="2:2">
       <c r="B513" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="514" spans="2:2">
       <c r="B514" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="515" spans="2:2">
       <c r="B515" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="516" spans="2:2">
       <c r="B516" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="517" spans="2:2">
       <c r="B517" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="518" spans="2:2">
       <c r="B518" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="519" spans="2:2">
       <c r="B519" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="520" spans="2:2">
       <c r="B520" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="521" spans="2:2">
       <c r="B521" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="522" spans="2:2">
       <c r="B522" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="523" spans="2:2">
       <c r="B523" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="524" spans="2:2">
       <c r="B524" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="525" spans="2:2">
       <c r="B525" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="526" spans="2:2">
       <c r="B526" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="527" spans="2:2">
       <c r="B527" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="528" spans="2:2">
       <c r="B528" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="529" spans="2:2">
       <c r="B529" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="530" spans="2:2">
       <c r="B530" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="531" spans="2:2">
       <c r="B531" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="532" spans="2:2">
       <c r="B532" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="533" spans="2:2">
       <c r="B533" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="534" spans="2:2">
       <c r="B534" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="535" spans="2:2">
       <c r="B535" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="536" spans="2:2">
       <c r="B536" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="537" spans="2:2">
       <c r="B537" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="538" spans="2:2">
       <c r="B538" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="539" spans="2:2">
       <c r="B539" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="540" spans="2:2">
       <c r="B540" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="541" spans="2:2">
       <c r="B541" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="542" spans="2:2">
       <c r="B542" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="543" spans="2:2">
       <c r="B543" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="544" spans="2:2">
       <c r="B544" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="545" spans="2:2">
       <c r="B545" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="546" spans="2:2">
       <c r="B546" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="547" spans="2:2">
       <c r="B547" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="548" spans="2:2">
       <c r="B548" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="549" spans="2:2">
       <c r="B549" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="550" spans="2:2">
       <c r="B550" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="551" spans="2:2">
       <c r="B551" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="552" spans="2:2">
       <c r="B552" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="553" spans="2:2">
       <c r="B553" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="554" spans="2:2">
       <c r="B554" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="555" spans="2:2">
       <c r="B555" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="556" spans="2:2">
       <c r="B556" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="557" spans="2:2">
       <c r="B557" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="558" spans="2:2">
       <c r="B558" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="559" spans="2:2">
       <c r="B559" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="560" spans="2:2">
       <c r="B560" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="561" spans="2:2">
       <c r="B561" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="562" spans="2:2">
       <c r="B562" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="563" spans="2:2">
       <c r="B563" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="564" spans="2:2">
       <c r="B564" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="565" spans="2:2">
       <c r="B565" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="566" spans="2:2">
       <c r="B566" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="567" spans="2:2">
       <c r="B567" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="568" spans="2:2">
       <c r="B568" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="569" spans="2:2">
       <c r="B569" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="570" spans="2:2">
       <c r="B570" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="571" spans="2:2">
       <c r="B571" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="572" spans="2:2">
       <c r="B572" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="573" spans="2:2">
       <c r="B573" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="574" spans="2:2">
       <c r="B574" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="575" spans="2:2">
       <c r="B575" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="576" spans="2:2">
       <c r="B576" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="577" spans="2:2">
       <c r="B577" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="578" spans="2:2">
       <c r="B578" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="579" spans="2:2">
       <c r="B579" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="580" spans="2:2">
       <c r="B580" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="581" spans="2:2">
       <c r="B581" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="582" spans="2:2">
       <c r="B582" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="583" spans="2:2">
       <c r="B583" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="584" spans="2:2">
@@ -20680,12 +21726,12 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -20700,7 +21746,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -20710,7 +21756,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -20785,7 +21831,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -20815,7 +21861,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -20878,17 +21924,17 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -20898,32 +21944,32 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -20933,7 +21979,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -21138,12 +22184,12 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="62" spans="1:1">
@@ -21153,22 +22199,22 @@
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
   </sheetData>
@@ -21207,7 +22253,7 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -21219,7 +22265,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="L7" s="5">
         <v>1</v>
@@ -21227,14 +22273,14 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H8" s="5"/>
       <c r="J8" s="5">
         <v>2</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="L8" s="5">
         <v>1</v>
@@ -21252,12 +22298,12 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="43" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="42" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -21273,7 +22319,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -21289,7 +22335,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -21297,7 +22343,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G18">
         <v>6</v>
@@ -21329,7 +22375,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G22">
         <v>10</v>
@@ -21385,7 +22431,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G29">
         <v>17</v>
@@ -21401,7 +22447,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G31">
         <v>19</v>
@@ -21425,7 +22471,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G34">
         <v>22</v>
@@ -21433,7 +22479,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G35">
         <v>23</v>
@@ -21449,7 +22495,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G37">
         <v>25</v>
@@ -21457,7 +22503,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G38">
         <v>26</v>
@@ -21473,7 +22519,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G40">
         <v>28</v>
@@ -21481,7 +22527,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G41">
         <v>29</v>
@@ -21489,7 +22535,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="G42">
         <v>30</v>
@@ -21505,7 +22551,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G44">
         <v>32</v>
@@ -21513,7 +22559,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G45">
         <v>33</v>
@@ -21521,7 +22567,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G46">
         <v>34</v>
@@ -21529,7 +22575,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G47">
         <v>35</v>
@@ -21545,7 +22591,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G49">
         <v>37</v>
@@ -21553,7 +22599,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G50">
         <v>38</v>
@@ -21561,7 +22607,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G51">
         <v>39</v>
@@ -21569,7 +22615,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="G52">
         <v>40</v>
@@ -21577,7 +22623,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="G53">
         <v>41</v>
@@ -21585,7 +22631,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G54">
         <v>42</v>
@@ -21593,7 +22639,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G55">
         <v>43</v>
@@ -21601,7 +22647,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G56">
         <v>44</v>
@@ -21609,7 +22655,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G57">
         <v>45</v>
@@ -21617,7 +22663,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G58">
         <v>46</v>
@@ -21628,7 +22674,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G59" s="40">
         <v>47</v>
@@ -21637,7 +22683,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G60" s="40">
         <v>48</v>
@@ -21646,7 +22692,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G61">
         <v>49</v>
@@ -21657,7 +22703,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G62" s="39">
         <v>50</v>
@@ -21668,7 +22714,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="43" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -21678,7 +22724,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="41" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -21688,17 +22734,17 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -21733,27 +22779,27 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="8" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="B91" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>$B$82&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="4" priority="11">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>$B$80&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>$B$49=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22198,8 +23244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22590,8 +23636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23142,7 +24188,7 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -23854,12 +24900,12 @@
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="46" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="46" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="121" spans="1:1">
@@ -23929,7 +24975,7 @@
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="135" spans="1:1">
@@ -23944,7 +24990,7 @@
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="138" spans="1:1">
@@ -23979,17 +25025,17 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="46" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -23997,12 +25043,12 @@
         <v>281</v>
       </c>
       <c r="L147" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="46" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -24012,7 +25058,7 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -24032,7 +25078,7 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="46" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -24062,7 +25108,7 @@
     </row>
     <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -24083,12 +25129,12 @@
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="39" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -24098,57 +25144,57 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="186" spans="1:1">
@@ -24318,7 +25364,7 @@
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="220" spans="1:1">
@@ -24328,12 +25374,12 @@
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -24348,7 +25394,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -24368,42 +25414,42 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="8" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="B239" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="241" spans="2:8">
       <c r="B241" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="243" spans="2:8">
@@ -24428,7 +25474,7 @@
     </row>
     <row r="248" spans="2:8">
       <c r="B248" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="249" spans="2:8">
@@ -24438,30 +25484,30 @@
     </row>
     <row r="251" spans="2:8">
       <c r="B251" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="252" spans="2:8">
       <c r="B252" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="253" spans="2:8">
       <c r="B253" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="254" spans="2:8">
       <c r="H254" s="5" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="255" spans="2:8">
       <c r="B255" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="256" spans="2:8">
@@ -24469,7 +25515,7 @@
     </row>
     <row r="257" spans="8:8">
       <c r="H257" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
   </sheetData>

--- a/Regex 04.02.25.xlsx
+++ b/Regex 04.02.25.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="787" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="787" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="1306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="1310">
   <si>
     <t>with (?mx) with description</t>
   </si>
@@ -8295,6 +8295,18 @@
   </si>
   <si>
     <t>just helps verify and structure the match.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.03.1.11": "CA2KN22M7",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.05.02.0.03": "AK-KO-005",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.03.1.09": "LA1KN11",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.05.03.0.01": "E11KM-02020102000",</t>
   </si>
 </sst>
 </file>
@@ -10331,7 +10343,7 @@
   <dimension ref="C3:F7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12254,10 +12266,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J228"/>
+  <dimension ref="A1:J232"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13696,7 +13708,7 @@
       <c r="A204" s="40" t="s">
         <v>1234</v>
       </c>
-      <c r="F204" s="39">
+      <c r="F204" s="40">
         <v>155</v>
       </c>
     </row>
@@ -13704,7 +13716,7 @@
       <c r="A205" s="40" t="s">
         <v>1233</v>
       </c>
-      <c r="F205" s="39">
+      <c r="F205" s="40">
         <v>156</v>
       </c>
     </row>
@@ -13712,7 +13724,7 @@
       <c r="A206" s="40" t="s">
         <v>1235</v>
       </c>
-      <c r="F206" s="39">
+      <c r="F206" s="40">
         <v>157</v>
       </c>
     </row>
@@ -13720,113 +13732,145 @@
       <c r="A207" s="40" t="s">
         <v>1236</v>
       </c>
-      <c r="F207" s="39">
+      <c r="F207" s="40">
         <v>158</v>
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" t="s">
-        <v>596</v>
+      <c r="A208" s="40" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F208" s="39">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="40" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F209" s="39">
+        <v>160</v>
       </c>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" t="s">
-        <v>29</v>
+      <c r="A210" s="40" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F210" s="39">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="40" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F211" s="39">
+        <v>162</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
-      <c r="A213" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>32</v>
-      </c>
-      <c r="H214" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="A215" t="s">
-        <v>729</v>
-      </c>
-      <c r="H215" t="s">
-        <v>889</v>
+        <v>29</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>608</v>
+        <v>30</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>730</v>
+        <v>607</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>168</v>
+        <v>32</v>
+      </c>
+      <c r="H218" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
+        <v>729</v>
+      </c>
+      <c r="H219" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
-      <c r="D223" t="s">
+    <row r="227" spans="3:7">
+      <c r="D227" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="224" spans="1:8">
-      <c r="C224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="3:7">
-      <c r="C225">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="3:7">
-      <c r="C226">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="3:7">
-      <c r="C227">
-        <v>4</v>
-      </c>
-      <c r="D227" s="39"/>
-      <c r="E227" s="39"/>
-      <c r="F227" s="39"/>
-      <c r="G227" s="39"/>
     </row>
     <row r="228" spans="3:7">
       <c r="C228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="3:7">
+      <c r="C229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="3:7">
+      <c r="C230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="3:7">
+      <c r="C231">
+        <v>4</v>
+      </c>
+      <c r="D231" s="39"/>
+      <c r="E231" s="39"/>
+      <c r="F231" s="39"/>
+      <c r="G231" s="39"/>
+    </row>
+    <row r="232" spans="3:7">
+      <c r="C232">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$B$54&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$B$52&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B$32=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14204,17 +14248,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>$C$35&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>$C$33&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>$C$15=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14366,17 +14410,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>$B$53&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>$B$51&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$B$33=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14519,17 +14563,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$B$38&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="4" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>$B$36&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>$B$16=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14544,8 +14588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E249" sqref="E249"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22789,17 +22833,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>$B$82&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>$B$80&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="3" priority="12">
       <formula>$B$49=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Regex 04.02.25.xlsx
+++ b/Regex 04.02.25.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="1686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3051" uniqueCount="1700">
   <si>
     <t>with (?mx) with description</t>
   </si>
@@ -8298,9 +8298,6 @@
     <t>re.compile()</t>
   </si>
   <si>
-    <t>shop_pattern = re.compile('shop')</t>
-  </si>
-  <si>
     <t>print(type(shop_pattern))</t>
   </si>
   <si>
@@ -8417,26 +8414,67 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDA7BB9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>matshes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
+    <t>What does re.compile() do?</t>
+  </si>
+  <si>
+    <t>This compiled object can then be reused to search, match, or manipulate strings more efficiently and cleanly</t>
+  </si>
+  <si>
+    <t>Basic syntax</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" is the regular expression pattern</t>
+    </r>
+  </si>
+  <si>
+    <t>Why use re.compile()?</t>
+  </si>
+  <si>
+    <t>Reusability</t>
+  </si>
+  <si>
+    <t>You can use the same pattern many times without rewriting it</t>
+  </si>
+  <si>
+    <t>Better readability</t>
+  </si>
+  <si>
+    <t>Your code is cleaner and easier to understand</t>
+  </si>
+  <si>
+    <t>Slight performance benefit</t>
+  </si>
+  <si>
+    <t>If you use the same pattern multiple times, Python doesn’t need to recompile it each time</t>
+  </si>
+  <si>
+    <t>Common methods of a compiled pattern</t>
+  </si>
+  <si>
+    <t>Once you have a compiled pattern, you can use:</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -8465,6 +8503,56 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(text)   # Finds the first match</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>shop_pattern.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(text)    # Matches only at the beginning</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>shop_pattern.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>findall</t>
     </r>
     <r>
@@ -8475,69 +8563,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>text</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shop_pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF179A77"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>re</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
+      <t>(text)  # Finds all matches</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>shop_pattern.</t>
     </r>
     <r>
       <rPr>
@@ -8547,335 +8578,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>compile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shop</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>')</t>
-    </r>
-  </si>
-  <si>
-    <t>What does re.compile() do?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">re.compile() </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>takes a regular expression pattern as a string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>compiles it into a regex object</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>This compiled object can then be reused to search, match, or manipulate strings more efficiently and cleanly</t>
-  </si>
-  <si>
-    <t>Basic syntax</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shop_pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is a compiled regular expression object</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shop</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" is the regular expression pattern</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shop_pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = re.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>compile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>("</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shop</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>")</t>
-    </r>
-  </si>
-  <si>
-    <t>Why use re.compile()?</t>
-  </si>
-  <si>
-    <t>Reusability</t>
-  </si>
-  <si>
-    <t>You can use the same pattern many times without rewriting it</t>
-  </si>
-  <si>
-    <t>Better readability</t>
-  </si>
-  <si>
-    <t>Your code is cleaner and easier to understand</t>
-  </si>
-  <si>
-    <t>Slight performance benefit</t>
-  </si>
-  <si>
-    <t>If you use the same pattern multiple times, Python doesn’t need to recompile it each time</t>
-  </si>
-  <si>
-    <t>Common methods of a compiled pattern</t>
-  </si>
-  <si>
-    <t>Once you have a compiled pattern, you can use:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shop_pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>search</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(text)   # Finds the first match</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>shop_pattern.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(text)    # Matches only at the beginning</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>shop_pattern.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>findall</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(text)  # Finds all matches</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>shop_pattern.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>sub</t>
     </r>
     <r>
@@ -8948,9 +8650,6 @@
   </si>
   <si>
     <t>2. You then use that compiled pattern:</t>
-  </si>
-  <si>
-    <t>shop_pattern.findall(text)</t>
   </si>
   <si>
     <t>Methods</t>
@@ -13046,17 +12745,680 @@
       <t>(pattern, string)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shop_pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>re</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>matshes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shop_pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>findall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">re.compile() </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>takes a regular expression pattern as a string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">compiles it into a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regex object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shop_pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = re.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shop_pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = re.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('shop')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shop_pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>findall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regex object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> created by re.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">() represents a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compiled regular expression pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that can be</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reused</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>match object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> created by re.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">() represents the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result of applying that pattern to a string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contains details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> about the matched text</t>
+    </r>
+  </si>
+  <si>
+    <t>Diff between findall and match</t>
+  </si>
+  <si>
+    <t>text = "Vasil Vasilev"</t>
+  </si>
+  <si>
+    <t>pattern = re.compile(r"\w+")</t>
+  </si>
+  <si>
+    <t>print(match)</t>
+  </si>
+  <si>
+    <t>['Vasil', 'Vasilev']</t>
+  </si>
+  <si>
+    <t>print(match.group())</t>
+  </si>
+  <si>
+    <t>&lt;re.Match object; span=(0, 5), match='Vasil'&gt;</t>
+  </si>
+  <si>
+    <t>Vasil</t>
+  </si>
+  <si>
+    <r>
+      <t>match = pattern.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>findall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>match = pattern.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <t>Vesil е защото match() връща само първото съвпадение и то ако е в началото</t>
+  </si>
+  <si>
+    <t>['Vasil', 'Vasilev'] защото findall() връща лист от всички съвпадения които отговарят на pattern-a</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="60">
+  <fonts count="62">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13520,6 +13882,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -13699,73 +14070,73 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -13773,23 +14144,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -13810,25 +14181,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -15197,8 +15570,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFA47A20"/>
       <color rgb="FF7D7DFF"/>
-      <color rgb="FFA47A20"/>
       <color rgb="FFA626A4"/>
       <color rgb="FFDA7BB9"/>
       <color rgb="FF179A77"/>
@@ -15222,13 +15595,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>321</xdr:row>
+      <xdr:row>333</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>538163</xdr:colOff>
-      <xdr:row>329</xdr:row>
+      <xdr:row>341</xdr:row>
       <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15269,13 +15642,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>566738</xdr:colOff>
-      <xdr:row>321</xdr:row>
+      <xdr:row>333</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>329</xdr:row>
+      <xdr:row>341</xdr:row>
       <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15316,13 +15689,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>334</xdr:row>
+      <xdr:row>346</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>547687</xdr:colOff>
-      <xdr:row>336</xdr:row>
+      <xdr:row>348</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15363,13 +15736,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>223842</xdr:colOff>
-      <xdr:row>335</xdr:row>
+      <xdr:row>347</xdr:row>
       <xdr:rowOff>4</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>336</xdr:row>
+      <xdr:row>348</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15772,7 +16145,7 @@
         <v>966</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
     </row>
   </sheetData>
@@ -19192,7 +19565,7 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="39" t="s">
-        <v>1651</v>
+        <v>1644</v>
       </c>
       <c r="F212" s="38">
         <v>163</v>
@@ -19200,7 +19573,7 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="39" t="s">
-        <v>1652</v>
+        <v>1645</v>
       </c>
       <c r="F213" s="38">
         <v>164</v>
@@ -19208,7 +19581,7 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="39" t="s">
-        <v>1653</v>
+        <v>1646</v>
       </c>
       <c r="F214" s="38">
         <v>165</v>
@@ -19216,7 +19589,7 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="39" t="s">
-        <v>1654</v>
+        <v>1647</v>
       </c>
       <c r="F215" s="38">
         <v>166</v>
@@ -19224,7 +19597,7 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="39" t="s">
-        <v>1655</v>
+        <v>1648</v>
       </c>
       <c r="F216" s="38">
         <v>167</v>
@@ -19232,7 +19605,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="39" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
       <c r="F217" s="38">
         <v>168</v>
@@ -19240,7 +19613,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="39" t="s">
-        <v>1657</v>
+        <v>1650</v>
       </c>
       <c r="F218" s="38">
         <v>169</v>
@@ -19248,7 +19621,7 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="39" t="s">
-        <v>1658</v>
+        <v>1651</v>
       </c>
       <c r="F219" s="38">
         <v>170</v>
@@ -19346,17 +19719,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="20" priority="3">
       <formula>$B$54&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>$B$52&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$B$32=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19734,17 +20107,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="20" priority="7">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>$C$35&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="19" priority="8">
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>$C$33&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="18" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>$C$15=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19896,17 +20269,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>$B$53&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>$B$51&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$B$33=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20049,17 +20422,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>$B$38&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$B$36&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>$B$16=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28319,17 +28692,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$B$82&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>$B$80&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>$B$49=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28358,7 +28731,7 @@
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>1659</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -28381,15 +28754,15 @@
       <c r="F7" s="18"/>
       <c r="G7" s="57"/>
       <c r="I7" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
       <c r="K7" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="56" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -28397,14 +28770,14 @@
       <c r="F8" s="18"/>
       <c r="G8" s="57"/>
       <c r="I8" s="74" t="s">
-        <v>1630</v>
+        <v>1623</v>
       </c>
       <c r="J8" s="52"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="56" t="s">
-        <v>1551</v>
+        <v>1544</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -28440,14 +28813,14 @@
       <c r="F11" s="18"/>
       <c r="G11" s="57"/>
       <c r="I11" s="75" t="s">
-        <v>1631</v>
+        <v>1624</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="57"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="61" t="s">
-        <v>1633</v>
+        <v>1626</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -28455,7 +28828,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="57"/>
       <c r="I12" s="75" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="57"/>
@@ -28485,7 +28858,7 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="78" t="s">
-        <v>1661</v>
+        <v>1654</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -28493,15 +28866,15 @@
       <c r="F15" s="18"/>
       <c r="G15" s="57"/>
       <c r="I15" t="s">
-        <v>1624</v>
+        <v>1617</v>
       </c>
       <c r="K15" t="s">
-        <v>1622</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="78" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -28509,15 +28882,15 @@
       <c r="F16" s="18"/>
       <c r="G16" s="57"/>
       <c r="I16" t="s">
-        <v>1625</v>
+        <v>1618</v>
       </c>
       <c r="K16" t="s">
-        <v>1623</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="17" spans="2:18">
       <c r="B17" s="56" t="s">
-        <v>1660</v>
+        <v>1653</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -28525,15 +28898,15 @@
       <c r="F17" s="18"/>
       <c r="G17" s="57"/>
       <c r="I17" t="s">
-        <v>1627</v>
+        <v>1620</v>
       </c>
       <c r="K17" t="s">
-        <v>1626</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="78" t="s">
-        <v>1662</v>
+        <v>1655</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -28541,10 +28914,10 @@
       <c r="F18" s="18"/>
       <c r="G18" s="57"/>
       <c r="I18" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
       <c r="K18" t="s">
-        <v>1628</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="19" spans="2:18">
@@ -28557,7 +28930,7 @@
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="61" t="s">
-        <v>1638</v>
+        <v>1631</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -28565,7 +28938,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="57"/>
       <c r="I20" s="60" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="21" spans="2:18">
@@ -28576,12 +28949,12 @@
       <c r="F21" s="18"/>
       <c r="G21" s="57"/>
       <c r="I21" t="s">
-        <v>1637</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="61" t="s">
-        <v>1642</v>
+        <v>1635</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -28589,12 +28962,12 @@
       <c r="F22" s="18"/>
       <c r="G22" s="57"/>
       <c r="I22" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="78" t="s">
-        <v>1663</v>
+        <v>1656</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -28602,7 +28975,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="57"/>
       <c r="I23" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="24" spans="2:18">
@@ -28613,12 +28986,12 @@
       <c r="F24" s="18"/>
       <c r="G24" s="57"/>
       <c r="I24" t="s">
-        <v>1644</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="56" t="s">
-        <v>1592</v>
+        <v>1585</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -28628,7 +29001,7 @@
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="56" t="s">
-        <v>1593</v>
+        <v>1586</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -28636,12 +29009,12 @@
       <c r="F26" s="18"/>
       <c r="G26" s="57"/>
       <c r="I26" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="56" t="s">
-        <v>1594</v>
+        <v>1587</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -28649,7 +29022,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="57"/>
       <c r="I27" s="79" t="s">
-        <v>1671</v>
+        <v>1664</v>
       </c>
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
@@ -28668,7 +29041,7 @@
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="78" t="s">
-        <v>1665</v>
+        <v>1658</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -28676,10 +29049,10 @@
       <c r="F29" s="18"/>
       <c r="G29" s="57"/>
       <c r="I29" t="s">
-        <v>1647</v>
+        <v>1640</v>
       </c>
       <c r="M29" s="58" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="N29" s="52"/>
       <c r="O29" s="52"/>
@@ -28687,7 +29060,7 @@
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="56" t="s">
-        <v>1648</v>
+        <v>1641</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -28695,7 +29068,7 @@
       <c r="F30" s="18"/>
       <c r="G30" s="57"/>
       <c r="M30" s="80" t="s">
-        <v>1675</v>
+        <v>1668</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -28711,7 +29084,7 @@
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="56" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -28721,7 +29094,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="56" t="s">
-        <v>1641</v>
+        <v>1634</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -28729,12 +29102,12 @@
       <c r="F33" s="18"/>
       <c r="G33" s="57"/>
       <c r="I33" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="78" t="s">
-        <v>1667</v>
+        <v>1660</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
@@ -28742,12 +29115,12 @@
       <c r="F34" s="18"/>
       <c r="G34" s="57"/>
       <c r="I34" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="56" t="s">
-        <v>1664</v>
+        <v>1657</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
@@ -28755,12 +29128,12 @@
       <c r="F35" s="18"/>
       <c r="G35" s="57"/>
       <c r="I35" s="77" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="56" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
@@ -28770,7 +29143,7 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="56" t="s">
-        <v>1650</v>
+        <v>1643</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
@@ -28788,7 +29161,7 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="56" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
@@ -28798,7 +29171,7 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="78" t="s">
-        <v>1668</v>
+        <v>1661</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
@@ -28808,7 +29181,7 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="56" t="s">
-        <v>1669</v>
+        <v>1662</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -28818,7 +29191,7 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="56" t="s">
-        <v>1598</v>
+        <v>1591</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
@@ -28828,7 +29201,7 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="56" t="s">
-        <v>1599</v>
+        <v>1592</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
@@ -28838,7 +29211,7 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="56" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
@@ -28848,7 +29221,7 @@
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="56" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
@@ -28866,7 +29239,7 @@
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="56" t="s">
-        <v>1602</v>
+        <v>1595</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
@@ -28876,7 +29249,7 @@
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="56" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
@@ -28886,7 +29259,7 @@
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="56" t="s">
-        <v>1604</v>
+        <v>1597</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
@@ -28896,7 +29269,7 @@
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="56" t="s">
-        <v>1605</v>
+        <v>1598</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
@@ -28906,7 +29279,7 @@
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="56" t="s">
-        <v>1606</v>
+        <v>1599</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
@@ -28916,7 +29289,7 @@
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="56" t="s">
-        <v>1607</v>
+        <v>1600</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
@@ -28926,7 +29299,7 @@
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="56" t="s">
-        <v>1608</v>
+        <v>1601</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
@@ -28944,7 +29317,7 @@
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="56" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
@@ -28954,7 +29327,7 @@
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="56" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
@@ -28972,7 +29345,7 @@
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="56" t="s">
-        <v>1670</v>
+        <v>1663</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
@@ -28982,7 +29355,7 @@
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="56" t="s">
-        <v>1611</v>
+        <v>1604</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
@@ -29000,7 +29373,7 @@
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="56" t="s">
-        <v>1612</v>
+        <v>1605</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
@@ -29038,7 +29411,7 @@
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="56" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
@@ -29048,7 +29421,7 @@
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="56" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="C66" s="18"/>
       <c r="D66" s="18"/>
@@ -29058,7 +29431,7 @@
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="56" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
@@ -29068,7 +29441,7 @@
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="56" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
       <c r="C68" s="18"/>
       <c r="D68" s="18"/>
@@ -29078,7 +29451,7 @@
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="56" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
@@ -29096,7 +29469,7 @@
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="56" t="s">
-        <v>1618</v>
+        <v>1611</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -29106,7 +29479,7 @@
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="56" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
       <c r="C72" s="18"/>
       <c r="D72" s="18"/>
@@ -29116,7 +29489,7 @@
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="56" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
@@ -29134,7 +29507,7 @@
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="54" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -29167,10 +29540,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M360"/>
+  <dimension ref="A1:M372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H146" sqref="H146"/>
+    <sheetView tabSelected="1" topLeftCell="A317" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G330" sqref="G330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -29195,17 +29568,17 @@
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="79" t="s">
-        <v>1673</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="79" t="s">
-        <v>1672</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" t="s">
-        <v>1674</v>
+        <v>1667</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -29262,37 +29635,37 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="8" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="B23" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="8" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="58" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="C28" s="52"/>
       <c r="D28" s="53"/>
@@ -29304,14 +29677,14 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="54" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="55"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="8" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="33" spans="2:13">
@@ -29319,12 +29692,12 @@
     </row>
     <row r="34" spans="2:13">
       <c r="B34" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="58" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="C35" s="52"/>
       <c r="D35" s="53"/>
@@ -29335,32 +29708,32 @@
       <c r="D36" s="57"/>
       <c r="F36" s="81"/>
       <c r="G36" s="84" t="s">
-        <v>1677</v>
+        <v>1670</v>
       </c>
       <c r="H36" s="85" t="s">
-        <v>1678</v>
+        <v>1671</v>
       </c>
       <c r="I36" s="85" t="s">
-        <v>1679</v>
+        <v>1672</v>
       </c>
       <c r="K36" s="87" t="s">
-        <v>1680</v>
+        <v>1673</v>
       </c>
       <c r="M36" s="86" t="s">
-        <v>1681</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="37" spans="2:13">
       <c r="B37" s="56" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="57"/>
       <c r="F37" s="83" t="s">
-        <v>1676</v>
+        <v>1669</v>
       </c>
       <c r="G37" s="71" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
       <c r="H37" s="71">
         <v>0</v>
@@ -29369,15 +29742,15 @@
         <v>4</v>
       </c>
       <c r="K37" s="81" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="M37" s="82" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="38" spans="2:13">
       <c r="B38" s="56" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="57"/>
@@ -29389,37 +29762,37 @@
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="61" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="57"/>
     </row>
     <row r="41" spans="2:13">
       <c r="B41" s="56" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="57"/>
       <c r="F41" s="5" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="42" spans="2:13">
       <c r="B42" s="56" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="57"/>
       <c r="F42" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H42" t="s">
         <v>1383</v>
-      </c>
-      <c r="H42" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="43" spans="2:13">
       <c r="B43" s="56" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="57"/>
@@ -29429,7 +29802,7 @@
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="56" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="57"/>
@@ -29439,22 +29812,22 @@
     </row>
     <row r="45" spans="2:13">
       <c r="B45" s="54" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="55"/>
       <c r="F45" s="5" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="47" spans="2:13">
       <c r="B47" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="48" spans="2:13">
       <c r="B48" s="58" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="C48" s="52"/>
       <c r="D48" s="53"/>
@@ -29466,14 +29839,14 @@
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="56" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="57"/>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="56" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="57"/>
@@ -29485,34 +29858,34 @@
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="78" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="57"/>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="56" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="57"/>
       <c r="F54" s="5" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="54" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="55"/>
       <c r="F55" s="5" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="8" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="59" spans="2:8">
@@ -29524,7 +29897,7 @@
       </c>
       <c r="D60" s="53"/>
       <c r="E60" s="59" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
       <c r="F60" s="52"/>
       <c r="G60" s="52"/>
@@ -29532,11 +29905,11 @@
     </row>
     <row r="61" spans="2:8">
       <c r="C61" s="56" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="D61" s="57"/>
       <c r="E61" s="56" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
@@ -29544,11 +29917,11 @@
     </row>
     <row r="62" spans="2:8">
       <c r="C62" s="54" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="D62" s="55"/>
       <c r="E62" s="54" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
@@ -29564,7 +29937,7 @@
     </row>
     <row r="64" spans="2:8">
       <c r="C64" s="8" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
@@ -29574,7 +29947,7 @@
     </row>
     <row r="65" spans="3:10">
       <c r="C65" s="62" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
@@ -29592,7 +29965,7 @@
     </row>
     <row r="67" spans="3:10">
       <c r="C67" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="D67" s="18"/>
       <c r="E67" s="18"/>
@@ -29602,7 +29975,7 @@
     </row>
     <row r="68" spans="3:10">
       <c r="C68" t="s">
-        <v>1394</v>
+        <v>1387</v>
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
@@ -29612,7 +29985,7 @@
     </row>
     <row r="69" spans="3:10">
       <c r="C69" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="D69" s="18"/>
       <c r="E69" s="18"/>
@@ -29629,51 +30002,51 @@
     </row>
     <row r="71" spans="3:10">
       <c r="C71" s="63" t="s">
-        <v>1401</v>
+        <v>1394</v>
       </c>
       <c r="E71" s="18"/>
       <c r="F71" s="18"/>
       <c r="J71" s="8" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="72" spans="3:10">
       <c r="C72" s="18" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="E72" s="18"/>
       <c r="F72" s="18"/>
       <c r="J72" s="60" t="s">
-        <v>1398</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="73" spans="3:10">
       <c r="C73" s="18"/>
       <c r="D73" t="s">
-        <v>1402</v>
+        <v>1395</v>
       </c>
       <c r="E73" s="18"/>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
       <c r="J73" s="60" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="74" spans="3:10">
       <c r="C74" s="18"/>
       <c r="D74" t="s">
-        <v>1403</v>
+        <v>1396</v>
       </c>
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
       <c r="J74" s="60" t="s">
-        <v>1400</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="75" spans="3:10">
       <c r="C75" s="18" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="E75" s="18"/>
       <c r="F75" s="18"/>
@@ -29681,17 +30054,17 @@
     </row>
     <row r="76" spans="3:10">
       <c r="D76" t="s">
-        <v>1404</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="77" spans="3:10">
       <c r="D77" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="79" spans="3:10">
       <c r="C79" s="51" t="s">
-        <v>1406</v>
+        <v>1399</v>
       </c>
       <c r="D79" s="52"/>
       <c r="E79" s="52"/>
@@ -29701,7 +30074,7 @@
     <row r="80" spans="3:10">
       <c r="C80" s="56"/>
       <c r="D80" s="64" t="s">
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="E80" s="18"/>
       <c r="F80" s="18"/>
@@ -29709,7 +30082,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="C81" s="56" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
       <c r="D81" s="18"/>
       <c r="E81" s="18"/>
@@ -29719,7 +30092,7 @@
     <row r="82" spans="1:7">
       <c r="C82" s="54"/>
       <c r="D82" s="65" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -29734,7 +30107,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="B84" s="8" t="s">
-        <v>1432</v>
+        <v>1425</v>
       </c>
       <c r="C84" s="18"/>
       <c r="D84" s="64"/>
@@ -29745,7 +30118,7 @@
     <row r="85" spans="1:7">
       <c r="B85" s="8"/>
       <c r="C85" s="18" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="D85" s="64"/>
       <c r="E85" s="18"/>
@@ -29755,7 +30128,7 @@
     <row r="86" spans="1:7">
       <c r="B86" s="8"/>
       <c r="C86" s="18" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="D86" s="64"/>
       <c r="E86" s="18"/>
@@ -29772,32 +30145,32 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="B89" t="s">
-        <v>1413</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="B90" t="s">
-        <v>1412</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="B91" t="s">
-        <v>1411</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="B92" t="s">
-        <v>1410</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="B94" s="8" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -29809,19 +30182,19 @@
     </row>
     <row r="96" spans="1:7">
       <c r="B96" s="54" t="s">
-        <v>1685</v>
+        <v>1678</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="55"/>
     </row>
     <row r="98" spans="2:6">
       <c r="B98" s="8" t="s">
-        <v>1414</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="100" spans="2:6">
       <c r="B100" s="88" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="C100" s="52"/>
       <c r="D100" s="53"/>
@@ -29833,14 +30206,14 @@
     </row>
     <row r="102" spans="2:6">
       <c r="B102" s="56" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="C102" s="18"/>
       <c r="D102" s="57"/>
     </row>
     <row r="103" spans="2:6">
       <c r="B103" s="56" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="C103" s="18"/>
       <c r="D103" s="57"/>
@@ -29852,70 +30225,70 @@
     </row>
     <row r="105" spans="2:6">
       <c r="B105" s="61" t="s">
-        <v>1415</v>
+        <v>1408</v>
       </c>
       <c r="C105" s="18"/>
       <c r="D105" s="57"/>
     </row>
     <row r="106" spans="2:6">
       <c r="B106" s="56" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="C106" s="18"/>
       <c r="D106" s="57"/>
       <c r="F106" s="5" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="107" spans="2:6">
       <c r="B107" s="56" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="C107" s="18"/>
       <c r="D107" s="57"/>
       <c r="F107" s="5" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="108" spans="2:6">
       <c r="B108" s="54" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="55"/>
       <c r="F108" s="5" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="111" spans="2:6">
       <c r="B111" s="8" t="s">
-        <v>1416</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="112" spans="2:6">
       <c r="B112" s="8"/>
       <c r="C112" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="114" spans="2:7">
       <c r="C114" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="115" spans="2:7">
       <c r="C115" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="118" spans="2:7">
       <c r="B118" s="8" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="120" spans="2:7">
       <c r="C120" s="58" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="D120" s="52"/>
       <c r="E120" s="53"/>
@@ -29927,14 +30300,14 @@
     </row>
     <row r="122" spans="2:7">
       <c r="C122" s="56" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
       <c r="D122" s="18"/>
       <c r="E122" s="57"/>
     </row>
     <row r="123" spans="2:7">
       <c r="C123" s="56" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
       <c r="D123" s="18"/>
       <c r="E123" s="57"/>
@@ -29946,24 +30319,24 @@
     </row>
     <row r="125" spans="2:7">
       <c r="C125" s="61" t="s">
-        <v>1415</v>
+        <v>1408</v>
       </c>
       <c r="D125" s="18"/>
       <c r="E125" s="57"/>
     </row>
     <row r="126" spans="2:7">
       <c r="C126" s="56" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="D126" s="18"/>
       <c r="E126" s="57"/>
       <c r="G126" s="5" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="127" spans="2:7">
       <c r="C127" s="54" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="D127" s="7"/>
       <c r="E127" s="55"/>
@@ -29973,22 +30346,22 @@
     </row>
     <row r="130" spans="1:5">
       <c r="B130" s="8" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="C131" t="s">
-        <v>1425</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="C132" s="89" t="s">
-        <v>1426</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="C133" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -29998,66 +30371,66 @@
     </row>
     <row r="136" spans="1:5">
       <c r="B136" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="B138" t="s">
-        <v>1316</v>
+      <c r="B138" s="90" t="s">
+        <v>1679</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="B140" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="B142" t="s">
-        <v>1315</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="B144" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E144" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="145" spans="2:6">
       <c r="B145" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E145" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="146" spans="2:6">
       <c r="B146" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E146" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="149" spans="2:6">
       <c r="B149" s="36" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="150" spans="2:6">
       <c r="B150" t="s">
-        <v>1318</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="151" spans="2:6">
       <c r="B151" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="153" spans="2:6">
       <c r="B153" s="36" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="154" spans="2:6">
@@ -30069,8 +30442,8 @@
       <c r="F154" s="53"/>
     </row>
     <row r="155" spans="2:6">
-      <c r="C155" s="54" t="s">
-        <v>1323</v>
+      <c r="C155" s="91" t="s">
+        <v>1682</v>
       </c>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -30078,178 +30451,178 @@
     </row>
     <row r="157" spans="2:6">
       <c r="C157" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="158" spans="2:6">
-      <c r="C158" t="s">
-        <v>1321</v>
+      <c r="C158" s="90" t="s">
+        <v>1664</v>
       </c>
     </row>
     <row r="160" spans="2:6">
       <c r="B160" s="36" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="161" spans="2:4">
       <c r="C161" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="162" spans="2:4">
       <c r="D162" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="163" spans="2:4">
       <c r="C163" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="164" spans="2:4">
       <c r="D164" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="165" spans="2:4">
       <c r="C165" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="166" spans="2:4">
       <c r="D166" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="168" spans="2:4">
       <c r="B168" s="36" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="169" spans="2:4">
       <c r="C169" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="170" spans="2:4">
       <c r="D170" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="171" spans="2:4">
       <c r="D171" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="172" spans="2:4">
       <c r="D172" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="173" spans="2:4">
       <c r="D173" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="175" spans="2:4">
       <c r="B175" s="8" t="s">
-        <v>1428</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="176" spans="2:4">
       <c r="B176" s="8"/>
-      <c r="C176" t="s">
-        <v>1429</v>
+      <c r="C176" s="89" t="s">
+        <v>1422</v>
       </c>
     </row>
     <row r="177" spans="2:8">
       <c r="B177" s="8"/>
       <c r="C177" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="178" spans="2:8">
       <c r="C178" t="s">
-        <v>1431</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="180" spans="2:8">
       <c r="B180" s="8" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="182" spans="2:8">
       <c r="B182" s="51" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C182" s="52"/>
       <c r="D182" s="53"/>
       <c r="E182" s="51" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="F182" s="53"/>
       <c r="G182" s="51" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="H182" s="53"/>
     </row>
     <row r="183" spans="2:8">
       <c r="B183" s="56" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="C183" s="18"/>
       <c r="D183" s="57"/>
       <c r="E183" s="56" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="F183" s="57"/>
       <c r="G183" s="56" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="H183" s="57"/>
     </row>
     <row r="184" spans="2:8">
       <c r="B184" s="56" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C184" s="18"/>
       <c r="D184" s="57"/>
       <c r="E184" s="56" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="F184" s="57"/>
       <c r="G184" s="56" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="H184" s="57"/>
     </row>
     <row r="185" spans="2:8">
       <c r="B185" s="56" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="C185" s="18"/>
       <c r="D185" s="57"/>
       <c r="E185" s="56" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="F185" s="57"/>
       <c r="G185" s="56" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="H185" s="57"/>
     </row>
     <row r="186" spans="2:8">
       <c r="B186" s="56" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="C186" s="18"/>
       <c r="D186" s="57"/>
       <c r="E186" s="56" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="F186" s="57"/>
       <c r="G186" s="56" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="H186" s="57"/>
     </row>
@@ -30260,17 +30633,17 @@
       <c r="C187" s="7"/>
       <c r="D187" s="55"/>
       <c r="E187" s="54" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="F187" s="55"/>
       <c r="G187" s="54" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="H187" s="55"/>
     </row>
     <row r="189" spans="2:8">
       <c r="B189" s="36" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="190" spans="2:8">
@@ -30280,1069 +30653,1194 @@
     </row>
     <row r="191" spans="2:8">
       <c r="C191" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="192" spans="2:8">
       <c r="C192" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="B194" s="36" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="C195" s="6" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="196" spans="1:4">
-      <c r="D196" t="s">
-        <v>1306</v>
+      <c r="D196" s="90" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="C197" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="198" spans="1:4">
-      <c r="D198" t="s">
-        <v>1357</v>
+      <c r="D198" s="90" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="B200" s="8" t="s">
+        <v>1685</v>
       </c>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="8" t="s">
-        <v>1436</v>
+      <c r="C201" t="s">
+        <v>1686</v>
       </c>
     </row>
     <row r="202" spans="1:4">
-      <c r="B202" s="8" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="B203" t="s">
-        <v>1438</v>
+      <c r="C202" t="s">
+        <v>1687</v>
       </c>
     </row>
     <row r="204" spans="1:4">
-      <c r="B204" t="s">
-        <v>1439</v>
+      <c r="A204" s="8" t="s">
+        <v>1429</v>
       </c>
     </row>
     <row r="205" spans="1:4">
-      <c r="B205" t="s">
-        <v>1440</v>
+      <c r="B205" s="8" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="B206" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="207" spans="1:4">
-      <c r="B207" s="8" t="s">
-        <v>1320</v>
+      <c r="B207" t="s">
+        <v>1432</v>
       </c>
     </row>
     <row r="208" spans="1:4">
-      <c r="B208" s="51" t="s">
+      <c r="B208" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6">
+      <c r="B210" s="8" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6">
+      <c r="B211" s="51" t="s">
         <v>1</v>
-      </c>
-      <c r="C208" s="52"/>
-      <c r="D208" s="53"/>
-    </row>
-    <row r="209" spans="2:9">
-      <c r="B209" s="66" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C209" s="7"/>
-      <c r="D209" s="55"/>
-    </row>
-    <row r="211" spans="2:9">
-      <c r="B211" s="59" t="s">
-        <v>1364</v>
       </c>
       <c r="C211" s="52"/>
       <c r="D211" s="53"/>
     </row>
-    <row r="212" spans="2:9">
-      <c r="B212" s="56" t="s">
+    <row r="212" spans="2:6">
+      <c r="B212" s="66" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C212" s="7"/>
+      <c r="D212" s="55"/>
+    </row>
+    <row r="214" spans="2:6">
+      <c r="B214" s="59" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C214" s="52"/>
+      <c r="D214" s="53"/>
+    </row>
+    <row r="215" spans="2:6">
+      <c r="B215" s="56" t="s">
         <v>1</v>
-      </c>
-      <c r="C212" s="18"/>
-      <c r="D212" s="57"/>
-    </row>
-    <row r="213" spans="2:9">
-      <c r="B213" s="56"/>
-      <c r="C213" s="18"/>
-      <c r="D213" s="57"/>
-    </row>
-    <row r="214" spans="2:9">
-      <c r="B214" s="56" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C214" s="18"/>
-      <c r="D214" s="57"/>
-    </row>
-    <row r="215" spans="2:9">
-      <c r="B215" s="56" t="s">
-        <v>1422</v>
       </c>
       <c r="C215" s="18"/>
       <c r="D215" s="57"/>
     </row>
-    <row r="216" spans="2:9">
+    <row r="216" spans="2:6">
       <c r="B216" s="56"/>
       <c r="C216" s="18"/>
       <c r="D216" s="57"/>
     </row>
-    <row r="217" spans="2:9">
-      <c r="B217" s="61" t="s">
-        <v>1445</v>
+    <row r="217" spans="2:6">
+      <c r="B217" s="56" t="s">
+        <v>1414</v>
       </c>
       <c r="C217" s="18"/>
       <c r="D217" s="57"/>
     </row>
-    <row r="218" spans="2:9">
+    <row r="218" spans="2:6">
       <c r="B218" s="56" t="s">
-        <v>1442</v>
+        <v>1415</v>
       </c>
       <c r="C218" s="18"/>
       <c r="D218" s="57"/>
-      <c r="F218" t="s">
+    </row>
+    <row r="219" spans="2:6">
+      <c r="B219" s="56"/>
+      <c r="C219" s="18"/>
+      <c r="D219" s="57"/>
+    </row>
+    <row r="220" spans="2:6">
+      <c r="B220" s="61" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C220" s="18"/>
+      <c r="D220" s="57"/>
+    </row>
+    <row r="221" spans="2:6">
+      <c r="B221" s="56" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C221" s="18"/>
+      <c r="D221" s="57"/>
+      <c r="F221" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6">
+      <c r="B222" s="54" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C222" s="7"/>
+      <c r="D222" s="55"/>
+      <c r="F222" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6">
+      <c r="B224" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10">
+      <c r="C226" s="59" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D226" s="53"/>
+      <c r="E226" s="59" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F226" s="52"/>
+      <c r="G226" s="53"/>
+      <c r="H226" s="59" t="s">
+        <v>1440</v>
+      </c>
+      <c r="I226" s="53"/>
+    </row>
+    <row r="227" spans="2:10">
+      <c r="C227" s="56" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D227" s="57"/>
+      <c r="E227" s="56" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F227" s="18"/>
+      <c r="G227" s="57"/>
+      <c r="H227" s="56" t="s">
+        <v>1442</v>
+      </c>
+      <c r="I227" s="57"/>
+    </row>
+    <row r="228" spans="2:10">
+      <c r="C228" s="56" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D228" s="57"/>
+      <c r="E228" s="56" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F228" s="18"/>
+      <c r="G228" s="57"/>
+      <c r="H228" s="56" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I228" s="57"/>
+    </row>
+    <row r="229" spans="2:10">
+      <c r="C229" s="54" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D229" s="55"/>
+      <c r="E229" s="54" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="219" spans="2:9">
-      <c r="B219" s="54" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C219" s="7"/>
-      <c r="D219" s="55"/>
-      <c r="F219" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="221" spans="2:9">
-      <c r="B221" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="223" spans="2:9">
-      <c r="C223" s="59" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D223" s="53"/>
-      <c r="E223" s="59" t="s">
-        <v>1446</v>
-      </c>
-      <c r="F223" s="52"/>
-      <c r="G223" s="53"/>
-      <c r="H223" s="59" t="s">
+      <c r="F229" s="7"/>
+      <c r="G229" s="55"/>
+      <c r="H229" s="54" t="s">
+        <v>1445</v>
+      </c>
+      <c r="I229" s="55"/>
+    </row>
+    <row r="231" spans="2:10">
+      <c r="B231" s="8" t="s">
         <v>1447</v>
-      </c>
-      <c r="I223" s="53"/>
-    </row>
-    <row r="224" spans="2:9">
-      <c r="C224" s="56" t="s">
-        <v>1359</v>
-      </c>
-      <c r="D224" s="57"/>
-      <c r="E224" s="56" t="s">
-        <v>1448</v>
-      </c>
-      <c r="F224" s="18"/>
-      <c r="G224" s="57"/>
-      <c r="H224" s="56" t="s">
-        <v>1449</v>
-      </c>
-      <c r="I224" s="57"/>
-    </row>
-    <row r="225" spans="2:10">
-      <c r="C225" s="56" t="s">
-        <v>1380</v>
-      </c>
-      <c r="D225" s="57"/>
-      <c r="E225" s="56" t="s">
-        <v>1448</v>
-      </c>
-      <c r="F225" s="18"/>
-      <c r="G225" s="57"/>
-      <c r="H225" s="56" t="s">
-        <v>1450</v>
-      </c>
-      <c r="I225" s="57"/>
-    </row>
-    <row r="226" spans="2:10">
-      <c r="C226" s="54" t="s">
-        <v>1436</v>
-      </c>
-      <c r="D226" s="55"/>
-      <c r="E226" s="54" t="s">
-        <v>1451</v>
-      </c>
-      <c r="F226" s="7"/>
-      <c r="G226" s="55"/>
-      <c r="H226" s="54" t="s">
-        <v>1452</v>
-      </c>
-      <c r="I226" s="55"/>
-    </row>
-    <row r="228" spans="2:10">
-      <c r="B228" s="8" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="230" spans="2:10">
-      <c r="C230" s="8" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="231" spans="2:10">
-      <c r="C231" t="s">
-        <v>1456</v>
-      </c>
-      <c r="I231" s="5" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="233" spans="2:10">
       <c r="C233" s="8" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="234" spans="2:10">
       <c r="C234" t="s">
-        <v>1460</v>
+        <v>1449</v>
       </c>
       <c r="I234" s="5" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="235" spans="2:10">
-      <c r="C235" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H235" s="5"/>
-      <c r="I235" s="5" t="s">
-        <v>1463</v>
-      </c>
-      <c r="J235" t="s">
-        <v>1464</v>
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="236" spans="2:10">
+      <c r="C236" s="8" t="s">
+        <v>1450</v>
       </c>
     </row>
     <row r="237" spans="2:10">
-      <c r="C237" s="8" t="s">
-        <v>1458</v>
+      <c r="C237" t="s">
+        <v>1453</v>
+      </c>
+      <c r="I237" s="5" t="s">
+        <v>1437</v>
       </c>
     </row>
     <row r="238" spans="2:10">
       <c r="C238" t="s">
+        <v>1455</v>
+      </c>
+      <c r="H238" s="5"/>
+      <c r="I238" s="5" t="s">
+        <v>1456</v>
+      </c>
+      <c r="J238" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="240" spans="2:10">
+      <c r="C240" s="8" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="241" spans="2:12">
+      <c r="C241" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I241" s="5" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="242" spans="2:12">
+      <c r="C242" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I242" s="5" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="244" spans="2:12">
+      <c r="B244" s="8" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="245" spans="2:12">
+      <c r="C245" t="s">
         <v>1461</v>
       </c>
-      <c r="I238" s="5" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="239" spans="2:10">
-      <c r="C239" t="s">
+    </row>
+    <row r="246" spans="2:12">
+      <c r="C246" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="247" spans="2:12">
+      <c r="C247" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="249" spans="2:12">
+      <c r="B249" s="8" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="250" spans="2:12">
+      <c r="B250" s="8"/>
+      <c r="C250" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D250" s="52"/>
+      <c r="E250" s="53"/>
+      <c r="G250" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="H250" s="52"/>
+      <c r="I250" s="53"/>
+    </row>
+    <row r="251" spans="2:12">
+      <c r="B251" s="8"/>
+      <c r="C251" s="56" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D251" s="18"/>
+      <c r="E251" s="57"/>
+      <c r="G251" s="56" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H251" s="18"/>
+      <c r="I251" s="57"/>
+    </row>
+    <row r="252" spans="2:12">
+      <c r="B252" s="8"/>
+      <c r="C252" s="56" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D252" s="18"/>
+      <c r="E252" s="57"/>
+      <c r="G252" s="56" t="s">
+        <v>1690</v>
+      </c>
+      <c r="H252" s="18"/>
+      <c r="I252" s="57"/>
+    </row>
+    <row r="253" spans="2:12">
+      <c r="B253" s="8"/>
+      <c r="C253" s="56" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D253" s="18"/>
+      <c r="E253" s="57"/>
+      <c r="G253" s="56" t="s">
+        <v>1697</v>
+      </c>
+      <c r="H253" s="18"/>
+      <c r="I253" s="57"/>
+    </row>
+    <row r="254" spans="2:12">
+      <c r="B254" s="8"/>
+      <c r="C254" s="54" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D254" s="7"/>
+      <c r="E254" s="55"/>
+      <c r="G254" s="56" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H254" s="18"/>
+      <c r="I254" s="57"/>
+      <c r="K254" s="5" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="255" spans="2:12">
+      <c r="D255" s="5" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G255" s="54" t="s">
+        <v>1693</v>
+      </c>
+      <c r="H255" s="7"/>
+      <c r="I255" s="55"/>
+      <c r="K255" s="5" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L255" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="256" spans="2:12">
+      <c r="D256" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F256" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="8" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="B259" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="B260" t="s">
         <v>1465</v>
       </c>
-      <c r="I239" s="5" t="s">
+    </row>
+    <row r="261" spans="1:5">
+      <c r="B261" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
-      <c r="B241" s="8" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="C242" t="s">
+    <row r="263" spans="1:5">
+      <c r="B263" s="8" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="B264" s="58" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C264" s="52"/>
+      <c r="D264" s="52"/>
+      <c r="E264" s="53"/>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="B265" s="66" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C265" s="7"/>
+      <c r="D265" s="7"/>
+      <c r="E265" s="55"/>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="B267" s="60" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="B269" s="4" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="B270" s="58" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C270" s="52"/>
+      <c r="D270" s="52"/>
+      <c r="E270" s="53"/>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="B271" s="56"/>
+      <c r="C271" s="18"/>
+      <c r="D271" s="18"/>
+      <c r="E271" s="57"/>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="B272" s="56" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="C243" t="s">
+      <c r="C272" s="18"/>
+      <c r="D272" s="18"/>
+      <c r="E272" s="57"/>
+    </row>
+    <row r="273" spans="2:9">
+      <c r="B273" s="56" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C273" s="18"/>
+      <c r="D273" s="18"/>
+      <c r="E273" s="57"/>
+    </row>
+    <row r="274" spans="2:9">
+      <c r="B274" s="56"/>
+      <c r="C274" s="18"/>
+      <c r="D274" s="18"/>
+      <c r="E274" s="57"/>
+    </row>
+    <row r="275" spans="2:9">
+      <c r="B275" s="61" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C275" s="18"/>
+      <c r="D275" s="18"/>
+      <c r="E275" s="57"/>
+    </row>
+    <row r="276" spans="2:9">
+      <c r="B276" s="56"/>
+      <c r="C276" s="18"/>
+      <c r="D276" s="18"/>
+      <c r="E276" s="57"/>
+    </row>
+    <row r="277" spans="2:9">
+      <c r="B277" s="56" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C277" s="18"/>
+      <c r="D277" s="18"/>
+      <c r="E277" s="57"/>
+      <c r="G277" s="5" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="278" spans="2:9">
+      <c r="B278" s="56" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C278" s="18"/>
+      <c r="D278" s="18"/>
+      <c r="E278" s="57"/>
+      <c r="G278" s="5" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="279" spans="2:9">
+      <c r="B279" s="56"/>
+      <c r="C279" s="18"/>
+      <c r="D279" s="18"/>
+      <c r="E279" s="57"/>
+    </row>
+    <row r="280" spans="2:9">
+      <c r="B280" s="56" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C280" s="18"/>
+      <c r="D280" s="18"/>
+      <c r="E280" s="57"/>
+    </row>
+    <row r="281" spans="2:9">
+      <c r="B281" s="56" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C281" s="18"/>
+      <c r="D281" s="18"/>
+      <c r="E281" s="57"/>
+      <c r="G281" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="282" spans="2:9">
+      <c r="B282" s="54" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C282" s="7"/>
+      <c r="D282" s="7"/>
+      <c r="E282" s="55"/>
+      <c r="G282">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="283" spans="2:9">
+      <c r="G283" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="284" spans="2:9">
+      <c r="G284">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="287" spans="2:9">
+      <c r="B287" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="288" spans="2:9">
+      <c r="C288" s="59" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D288" s="53"/>
+      <c r="E288" s="59" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F288" s="53"/>
+      <c r="G288" s="59" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H288" s="52"/>
+      <c r="I288" s="53"/>
+    </row>
+    <row r="289" spans="2:9">
+      <c r="C289" s="56" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D289" s="57"/>
+      <c r="E289" s="56" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F289" s="57"/>
+      <c r="G289" s="56" t="s">
+        <v>1486</v>
+      </c>
+      <c r="H289" s="18"/>
+      <c r="I289" s="57"/>
+    </row>
+    <row r="290" spans="2:9">
+      <c r="C290" s="54" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D290" s="55"/>
+      <c r="E290" s="54" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F290" s="55"/>
+      <c r="G290" s="54" t="s">
+        <v>1488</v>
+      </c>
+      <c r="H290" s="7"/>
+      <c r="I290" s="55"/>
+    </row>
+    <row r="292" spans="2:9">
+      <c r="B292" s="8" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="293" spans="2:9">
+      <c r="C293" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="294" spans="2:9">
+      <c r="C294" s="58" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D294" s="52"/>
+      <c r="E294" s="53"/>
+    </row>
+    <row r="295" spans="2:9">
+      <c r="C295" s="61" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D295" s="18"/>
+      <c r="E295" s="57"/>
+    </row>
+    <row r="296" spans="2:9">
+      <c r="C296" s="61" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D296" s="18"/>
+      <c r="E296" s="57"/>
+    </row>
+    <row r="297" spans="2:9">
+      <c r="C297" s="66" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D297" s="7"/>
+      <c r="E297" s="55"/>
+    </row>
+    <row r="299" spans="2:9">
+      <c r="B299" s="8" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="300" spans="2:9">
+      <c r="C300" s="67" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="301" spans="2:9">
+      <c r="C301" s="67" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="302" spans="2:9">
+      <c r="C302" s="67" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5">
+      <c r="B305" s="8" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="306" spans="2:5">
+      <c r="B306" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5">
+      <c r="B308" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="309" spans="2:5">
+      <c r="C309" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="310" spans="2:5">
+      <c r="C310" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5">
+      <c r="C311" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="313" spans="2:5">
+      <c r="B313" s="8" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="314" spans="2:5">
+      <c r="B314" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C314" s="52"/>
+      <c r="D314" s="52"/>
+      <c r="E314" s="53"/>
+    </row>
+    <row r="315" spans="2:5">
+      <c r="B315" s="56"/>
+      <c r="C315" s="18"/>
+      <c r="D315" s="18"/>
+      <c r="E315" s="57"/>
+    </row>
+    <row r="316" spans="2:5">
+      <c r="B316" s="56" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C316" s="18"/>
+      <c r="D316" s="18"/>
+      <c r="E316" s="57"/>
+    </row>
+    <row r="317" spans="2:5">
+      <c r="B317" s="56" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C317" s="18"/>
+      <c r="D317" s="18"/>
+      <c r="E317" s="57"/>
+    </row>
+    <row r="318" spans="2:5">
+      <c r="B318" s="56"/>
+      <c r="C318" s="18"/>
+      <c r="D318" s="18"/>
+      <c r="E318" s="57"/>
+    </row>
+    <row r="319" spans="2:5">
+      <c r="B319" s="56" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="C244" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246" s="8" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="B247" t="s">
+      <c r="C319" s="18"/>
+      <c r="D319" s="18"/>
+      <c r="E319" s="57"/>
+    </row>
+    <row r="320" spans="2:5">
+      <c r="B320" s="56"/>
+      <c r="C320" s="18"/>
+      <c r="D320" s="18"/>
+      <c r="E320" s="57"/>
+    </row>
+    <row r="321" spans="2:9">
+      <c r="B321" s="56" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="B248" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="B249" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="B251" s="8" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="B252" s="58" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C252" s="52"/>
-      <c r="D252" s="52"/>
-      <c r="E252" s="53"/>
-    </row>
-    <row r="253" spans="1:5">
-      <c r="B253" s="66" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C253" s="7"/>
-      <c r="D253" s="7"/>
-      <c r="E253" s="55"/>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="B255" s="60" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="257" spans="2:7">
-      <c r="B257" s="4" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="258" spans="2:7">
-      <c r="B258" s="58" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C258" s="52"/>
-      <c r="D258" s="52"/>
-      <c r="E258" s="53"/>
-    </row>
-    <row r="259" spans="2:7">
-      <c r="B259" s="56"/>
-      <c r="C259" s="18"/>
-      <c r="D259" s="18"/>
-      <c r="E259" s="57"/>
-    </row>
-    <row r="260" spans="2:7">
-      <c r="B260" s="56" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C260" s="18"/>
-      <c r="D260" s="18"/>
-      <c r="E260" s="57"/>
-    </row>
-    <row r="261" spans="2:7">
-      <c r="B261" s="56" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C261" s="18"/>
-      <c r="D261" s="18"/>
-      <c r="E261" s="57"/>
-    </row>
-    <row r="262" spans="2:7">
-      <c r="B262" s="56"/>
-      <c r="C262" s="18"/>
-      <c r="D262" s="18"/>
-      <c r="E262" s="57"/>
-    </row>
-    <row r="263" spans="2:7">
-      <c r="B263" s="61" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C263" s="18"/>
-      <c r="D263" s="18"/>
-      <c r="E263" s="57"/>
-    </row>
-    <row r="264" spans="2:7">
-      <c r="B264" s="56"/>
-      <c r="C264" s="18"/>
-      <c r="D264" s="18"/>
-      <c r="E264" s="57"/>
-    </row>
-    <row r="265" spans="2:7">
-      <c r="B265" s="56" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C265" s="18"/>
-      <c r="D265" s="18"/>
-      <c r="E265" s="57"/>
-      <c r="G265" s="5" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="266" spans="2:7">
-      <c r="B266" s="56" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C266" s="18"/>
-      <c r="D266" s="18"/>
-      <c r="E266" s="57"/>
-      <c r="G266" s="5" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="267" spans="2:7">
-      <c r="B267" s="56"/>
-      <c r="C267" s="18"/>
-      <c r="D267" s="18"/>
-      <c r="E267" s="57"/>
-    </row>
-    <row r="268" spans="2:7">
-      <c r="B268" s="56" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C268" s="18"/>
-      <c r="D268" s="18"/>
-      <c r="E268" s="57"/>
-    </row>
-    <row r="269" spans="2:7">
-      <c r="B269" s="56" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C269" s="18"/>
-      <c r="D269" s="18"/>
-      <c r="E269" s="57"/>
-      <c r="G269" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="270" spans="2:7">
-      <c r="B270" s="54" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C270" s="7"/>
-      <c r="D270" s="7"/>
-      <c r="E270" s="55"/>
-      <c r="G270">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="271" spans="2:7">
-      <c r="G271" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="272" spans="2:7">
-      <c r="G272">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="275" spans="2:9">
-      <c r="B275" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="276" spans="2:9">
-      <c r="C276" s="59" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D276" s="53"/>
-      <c r="E276" s="59" t="s">
-        <v>1490</v>
-      </c>
-      <c r="F276" s="53"/>
-      <c r="G276" s="59" t="s">
-        <v>1491</v>
-      </c>
-      <c r="H276" s="52"/>
-      <c r="I276" s="53"/>
-    </row>
-    <row r="277" spans="2:9">
-      <c r="C277" s="56" t="s">
-        <v>1436</v>
-      </c>
-      <c r="D277" s="57"/>
-      <c r="E277" s="56" t="s">
-        <v>1492</v>
-      </c>
-      <c r="F277" s="57"/>
-      <c r="G277" s="56" t="s">
-        <v>1493</v>
-      </c>
-      <c r="H277" s="18"/>
-      <c r="I277" s="57"/>
-    </row>
-    <row r="278" spans="2:9">
-      <c r="C278" s="54" t="s">
-        <v>1471</v>
-      </c>
-      <c r="D278" s="55"/>
-      <c r="E278" s="54" t="s">
-        <v>1494</v>
-      </c>
-      <c r="F278" s="55"/>
-      <c r="G278" s="54" t="s">
-        <v>1495</v>
-      </c>
-      <c r="H278" s="7"/>
-      <c r="I278" s="55"/>
-    </row>
-    <row r="280" spans="2:9">
-      <c r="B280" s="8" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="281" spans="2:9">
-      <c r="C281" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="282" spans="2:9">
-      <c r="C282" s="58" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D282" s="52"/>
-      <c r="E282" s="53"/>
-    </row>
-    <row r="283" spans="2:9">
-      <c r="C283" s="61" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D283" s="18"/>
-      <c r="E283" s="57"/>
-    </row>
-    <row r="284" spans="2:9">
-      <c r="C284" s="61" t="s">
-        <v>1500</v>
-      </c>
-      <c r="D284" s="18"/>
-      <c r="E284" s="57"/>
-    </row>
-    <row r="285" spans="2:9">
-      <c r="C285" s="66" t="s">
-        <v>1501</v>
-      </c>
-      <c r="D285" s="7"/>
-      <c r="E285" s="55"/>
-    </row>
-    <row r="287" spans="2:9">
-      <c r="B287" s="8" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="288" spans="2:9">
-      <c r="C288" s="67" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="289" spans="2:5">
-      <c r="C289" s="67" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="290" spans="2:5">
-      <c r="C290" s="67" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="293" spans="2:5">
-      <c r="B293" s="8" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="294" spans="2:5">
-      <c r="B294" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="296" spans="2:5">
-      <c r="B296" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="297" spans="2:5">
-      <c r="C297" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="298" spans="2:5">
-      <c r="C298" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="299" spans="2:5">
-      <c r="C299" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="301" spans="2:5">
-      <c r="B301" s="8" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="302" spans="2:5">
-      <c r="B302" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C302" s="52"/>
-      <c r="D302" s="52"/>
-      <c r="E302" s="53"/>
-    </row>
-    <row r="303" spans="2:5">
-      <c r="B303" s="56"/>
-      <c r="C303" s="18"/>
-      <c r="D303" s="18"/>
-      <c r="E303" s="57"/>
-    </row>
-    <row r="304" spans="2:5">
-      <c r="B304" s="56" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C304" s="18"/>
-      <c r="D304" s="18"/>
-      <c r="E304" s="57"/>
-    </row>
-    <row r="305" spans="2:9">
-      <c r="B305" s="56" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C305" s="18"/>
-      <c r="D305" s="18"/>
-      <c r="E305" s="57"/>
-    </row>
-    <row r="306" spans="2:9">
-      <c r="B306" s="56"/>
-      <c r="C306" s="18"/>
-      <c r="D306" s="18"/>
-      <c r="E306" s="57"/>
-    </row>
-    <row r="307" spans="2:9">
-      <c r="B307" s="56" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C307" s="18"/>
-      <c r="D307" s="18"/>
-      <c r="E307" s="57"/>
-    </row>
-    <row r="308" spans="2:9">
-      <c r="B308" s="56"/>
-      <c r="C308" s="18"/>
-      <c r="D308" s="18"/>
-      <c r="E308" s="57"/>
-    </row>
-    <row r="309" spans="2:9">
-      <c r="B309" s="56" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C309" s="18"/>
-      <c r="D309" s="18"/>
-      <c r="E309" s="57"/>
-      <c r="G309" s="5" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="310" spans="2:9">
-      <c r="B310" s="56" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C310" s="18"/>
-      <c r="D310" s="18"/>
-      <c r="E310" s="57"/>
-      <c r="G310" s="5" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="311" spans="2:9">
-      <c r="B311" s="56"/>
-      <c r="C311" s="18"/>
-      <c r="D311" s="18"/>
-      <c r="E311" s="57"/>
-    </row>
-    <row r="312" spans="2:9">
-      <c r="B312" s="56" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C312" s="18"/>
-      <c r="D312" s="18"/>
-      <c r="E312" s="57"/>
-    </row>
-    <row r="313" spans="2:9">
-      <c r="B313" s="56" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C313" s="18"/>
-      <c r="D313" s="18"/>
-      <c r="E313" s="57"/>
-      <c r="G313" s="5" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="314" spans="2:9">
-      <c r="B314" s="56" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C314" s="18"/>
-      <c r="D314" s="18"/>
-      <c r="E314" s="57"/>
-      <c r="G314" s="5">
-        <v>123</v>
-      </c>
-      <c r="I314" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="315" spans="2:9">
-      <c r="B315" s="54" t="s">
-        <v>1515</v>
-      </c>
-      <c r="C315" s="7"/>
-      <c r="D315" s="7"/>
-      <c r="E315" s="55"/>
-      <c r="G315" s="5">
-        <v>123</v>
-      </c>
-      <c r="I315" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="318" spans="2:9">
-      <c r="B318" s="8" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="320" spans="2:9">
-      <c r="B320" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C320" s="52"/>
-      <c r="D320" s="52"/>
-      <c r="E320" s="53"/>
-    </row>
-    <row r="321" spans="2:11">
-      <c r="B321" s="56"/>
       <c r="C321" s="18"/>
       <c r="D321" s="18"/>
       <c r="E321" s="57"/>
-    </row>
-    <row r="322" spans="2:11">
+      <c r="G321" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="322" spans="2:9">
       <c r="B322" s="56" t="s">
-        <v>1529</v>
+        <v>1475</v>
       </c>
       <c r="C322" s="18"/>
       <c r="D322" s="18"/>
       <c r="E322" s="57"/>
-    </row>
-    <row r="323" spans="2:11">
-      <c r="B323" s="56" t="s">
-        <v>1511</v>
-      </c>
+      <c r="G322" s="5" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="323" spans="2:9">
+      <c r="B323" s="56"/>
       <c r="C323" s="18"/>
       <c r="D323" s="18"/>
       <c r="E323" s="57"/>
     </row>
-    <row r="324" spans="2:11">
-      <c r="B324" s="56"/>
+    <row r="324" spans="2:9">
+      <c r="B324" s="56" t="s">
+        <v>1479</v>
+      </c>
       <c r="C324" s="18"/>
       <c r="D324" s="18"/>
       <c r="E324" s="57"/>
     </row>
-    <row r="325" spans="2:11">
+    <row r="325" spans="2:9">
       <c r="B325" s="56" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="C325" s="18"/>
       <c r="D325" s="18"/>
       <c r="E325" s="57"/>
-    </row>
-    <row r="326" spans="2:11">
-      <c r="B326" s="56"/>
+      <c r="G325" s="5" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="326" spans="2:9">
+      <c r="B326" s="56" t="s">
+        <v>1509</v>
+      </c>
       <c r="C326" s="18"/>
       <c r="D326" s="18"/>
       <c r="E326" s="57"/>
-    </row>
-    <row r="327" spans="2:11">
-      <c r="B327" s="56" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C327" s="18"/>
-      <c r="D327" s="18"/>
-      <c r="E327" s="57"/>
-      <c r="G327" s="5" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="328" spans="2:11">
-      <c r="B328" s="56" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C328" s="18"/>
-      <c r="D328" s="18"/>
-      <c r="E328" s="57"/>
+      <c r="G326" s="5">
+        <v>123</v>
+      </c>
+      <c r="I326" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="327" spans="2:9">
+      <c r="B327" s="54" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C327" s="7"/>
+      <c r="D327" s="7"/>
+      <c r="E327" s="55"/>
+      <c r="G327" s="5">
+        <v>123</v>
+      </c>
+      <c r="I327" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="328" spans="2:9">
       <c r="G328" s="5" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="329" spans="2:11">
-      <c r="B329" s="56"/>
-      <c r="C329" s="18"/>
-      <c r="D329" s="18"/>
-      <c r="E329" s="57"/>
-    </row>
-    <row r="330" spans="2:11">
-      <c r="B330" s="56" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C330" s="18"/>
-      <c r="D330" s="18"/>
-      <c r="E330" s="57"/>
-    </row>
-    <row r="331" spans="2:11">
-      <c r="B331" s="56" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C331" s="18"/>
-      <c r="D331" s="18"/>
-      <c r="E331" s="57"/>
-      <c r="G331" s="68" t="s">
-        <v>1519</v>
-      </c>
-      <c r="I331" t="s">
-        <v>1526</v>
-      </c>
-      <c r="K331" s="68" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="332" spans="2:11">
-      <c r="B332" s="56" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C332" s="18"/>
-      <c r="D332" s="18"/>
-      <c r="E332" s="57"/>
-      <c r="G332" s="69" t="s">
-        <v>1520</v>
-      </c>
-      <c r="I332" t="s">
-        <v>1521</v>
-      </c>
-      <c r="K332" s="69" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="333" spans="2:11">
-      <c r="B333" s="56" t="s">
-        <v>1515</v>
-      </c>
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="329" spans="2:9">
+      <c r="G329" s="5">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="330" spans="2:9">
+      <c r="B330" s="8" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G330" s="5">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="332" spans="2:9">
+      <c r="B332" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C332" s="52"/>
+      <c r="D332" s="52"/>
+      <c r="E332" s="53"/>
+    </row>
+    <row r="333" spans="2:9">
+      <c r="B333" s="56"/>
       <c r="C333" s="18"/>
       <c r="D333" s="18"/>
       <c r="E333" s="57"/>
-      <c r="G333" s="69" t="s">
+    </row>
+    <row r="334" spans="2:9">
+      <c r="B334" s="56" t="s">
         <v>1522</v>
-      </c>
-      <c r="I333" t="s">
-        <v>1523</v>
-      </c>
-      <c r="K333" s="69" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="334" spans="2:11">
-      <c r="B334" s="56" t="s">
-        <v>1524</v>
       </c>
       <c r="C334" s="18"/>
       <c r="D334" s="18"/>
       <c r="E334" s="57"/>
-      <c r="G334" s="69">
-        <v>123</v>
-      </c>
-      <c r="I334" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K334" s="69">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="335" spans="2:11">
-      <c r="B335" s="54" t="s">
-        <v>1530</v>
-      </c>
-      <c r="C335" s="7"/>
-      <c r="D335" s="7"/>
-      <c r="E335" s="55"/>
-      <c r="G335" s="70" t="s">
-        <v>1531</v>
-      </c>
-      <c r="K335" s="70" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="337" spans="2:9">
-      <c r="I337" s="71" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="338" spans="2:9">
-      <c r="B338" s="8" t="s">
-        <v>1539</v>
-      </c>
-      <c r="I338" s="72"/>
-    </row>
-    <row r="339" spans="2:9">
-      <c r="I339" s="72"/>
-    </row>
-    <row r="340" spans="2:9">
-      <c r="B340" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C340" s="52"/>
-      <c r="D340" s="52"/>
-      <c r="E340" s="53"/>
-      <c r="I340" s="72"/>
-    </row>
-    <row r="341" spans="2:9">
+    </row>
+    <row r="335" spans="2:9">
+      <c r="B335" s="56" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C335" s="18"/>
+      <c r="D335" s="18"/>
+      <c r="E335" s="57"/>
+    </row>
+    <row r="336" spans="2:9">
+      <c r="B336" s="56"/>
+      <c r="C336" s="18"/>
+      <c r="D336" s="18"/>
+      <c r="E336" s="57"/>
+    </row>
+    <row r="337" spans="2:11">
+      <c r="B337" s="56" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C337" s="18"/>
+      <c r="D337" s="18"/>
+      <c r="E337" s="57"/>
+    </row>
+    <row r="338" spans="2:11">
+      <c r="B338" s="56"/>
+      <c r="C338" s="18"/>
+      <c r="D338" s="18"/>
+      <c r="E338" s="57"/>
+    </row>
+    <row r="339" spans="2:11">
+      <c r="B339" s="56" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C339" s="18"/>
+      <c r="D339" s="18"/>
+      <c r="E339" s="57"/>
+      <c r="G339" s="5" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="340" spans="2:11">
+      <c r="B340" s="56" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C340" s="18"/>
+      <c r="D340" s="18"/>
+      <c r="E340" s="57"/>
+      <c r="G340" s="5" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="341" spans="2:11">
       <c r="B341" s="56"/>
       <c r="C341" s="18"/>
       <c r="D341" s="18"/>
       <c r="E341" s="57"/>
-      <c r="I341" s="72"/>
-    </row>
-    <row r="342" spans="2:9">
+    </row>
+    <row r="342" spans="2:11">
       <c r="B342" s="56" t="s">
-        <v>1537</v>
+        <v>1479</v>
       </c>
       <c r="C342" s="18"/>
       <c r="D342" s="18"/>
       <c r="E342" s="57"/>
-      <c r="I342" s="72"/>
-    </row>
-    <row r="343" spans="2:9">
-      <c r="B343" s="56"/>
+    </row>
+    <row r="343" spans="2:11">
+      <c r="B343" s="56" t="s">
+        <v>1480</v>
+      </c>
       <c r="C343" s="18"/>
       <c r="D343" s="18"/>
       <c r="E343" s="57"/>
-      <c r="I343" s="72"/>
-    </row>
-    <row r="344" spans="2:9">
+      <c r="G343" s="68" t="s">
+        <v>1512</v>
+      </c>
+      <c r="I343" t="s">
+        <v>1519</v>
+      </c>
+      <c r="K343" s="68" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="344" spans="2:11">
       <c r="B344" s="56" t="s">
-        <v>1538</v>
+        <v>1509</v>
       </c>
       <c r="C344" s="18"/>
       <c r="D344" s="18"/>
       <c r="E344" s="57"/>
-      <c r="I344" s="72"/>
-    </row>
-    <row r="345" spans="2:9">
-      <c r="B345" s="56"/>
+      <c r="G344" s="69" t="s">
+        <v>1513</v>
+      </c>
+      <c r="I344" t="s">
+        <v>1514</v>
+      </c>
+      <c r="K344" s="69" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="345" spans="2:11">
+      <c r="B345" s="56" t="s">
+        <v>1508</v>
+      </c>
       <c r="C345" s="18"/>
       <c r="D345" s="18"/>
       <c r="E345" s="57"/>
-      <c r="I345" s="72"/>
-    </row>
-    <row r="346" spans="2:9">
+      <c r="G345" s="69" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I345" t="s">
+        <v>1516</v>
+      </c>
+      <c r="K345" s="69" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="346" spans="2:11">
       <c r="B346" s="56" t="s">
-        <v>1540</v>
+        <v>1517</v>
       </c>
       <c r="C346" s="18"/>
       <c r="D346" s="18"/>
       <c r="E346" s="57"/>
-      <c r="I346" s="72"/>
-    </row>
-    <row r="347" spans="2:9">
-      <c r="B347" s="56" t="s">
+      <c r="G346" s="69">
+        <v>123</v>
+      </c>
+      <c r="I346" t="s">
+        <v>1518</v>
+      </c>
+      <c r="K346" s="69">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="347" spans="2:11">
+      <c r="B347" s="54" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C347" s="7"/>
+      <c r="D347" s="7"/>
+      <c r="E347" s="55"/>
+      <c r="G347" s="70" t="s">
+        <v>1524</v>
+      </c>
+      <c r="K347" s="70" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="349" spans="2:11">
+      <c r="I349" s="71" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="350" spans="2:11">
+      <c r="B350" s="8" t="s">
+        <v>1532</v>
+      </c>
+      <c r="I350" s="72"/>
+    </row>
+    <row r="351" spans="2:11">
+      <c r="I351" s="72"/>
+    </row>
+    <row r="352" spans="2:11">
+      <c r="B352" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C352" s="52"/>
+      <c r="D352" s="52"/>
+      <c r="E352" s="53"/>
+      <c r="I352" s="72"/>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="B353" s="56"/>
+      <c r="C353" s="18"/>
+      <c r="D353" s="18"/>
+      <c r="E353" s="57"/>
+      <c r="I353" s="72"/>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="B354" s="56" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C354" s="18"/>
+      <c r="D354" s="18"/>
+      <c r="E354" s="57"/>
+      <c r="I354" s="72"/>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="B355" s="56"/>
+      <c r="C355" s="18"/>
+      <c r="D355" s="18"/>
+      <c r="E355" s="57"/>
+      <c r="I355" s="72"/>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="B356" s="56" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C356" s="18"/>
+      <c r="D356" s="18"/>
+      <c r="E356" s="57"/>
+      <c r="I356" s="72"/>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="B357" s="56"/>
+      <c r="C357" s="18"/>
+      <c r="D357" s="18"/>
+      <c r="E357" s="57"/>
+      <c r="I357" s="72"/>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="B358" s="56" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C358" s="18"/>
+      <c r="D358" s="18"/>
+      <c r="E358" s="57"/>
+      <c r="I358" s="72"/>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="B359" s="56" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C359" s="18"/>
+      <c r="D359" s="18"/>
+      <c r="E359" s="57"/>
+      <c r="G359" t="s">
+        <v>1540</v>
+      </c>
+      <c r="I359" s="72"/>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="B360" s="56" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C360" s="18"/>
+      <c r="D360" s="18"/>
+      <c r="E360" s="57"/>
+      <c r="G360" t="s">
         <v>1541</v>
       </c>
-      <c r="C347" s="18"/>
-      <c r="D347" s="18"/>
-      <c r="E347" s="57"/>
-      <c r="G347" t="s">
-        <v>1547</v>
-      </c>
-      <c r="I347" s="72"/>
-    </row>
-    <row r="348" spans="2:9">
-      <c r="B348" s="56" t="s">
+      <c r="I360" s="72"/>
+    </row>
+    <row r="361" spans="1:9">
+      <c r="B361" s="56" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C361" s="18"/>
+      <c r="D361" s="18"/>
+      <c r="E361" s="57"/>
+      <c r="G361" t="s">
         <v>1542</v>
       </c>
-      <c r="C348" s="18"/>
-      <c r="D348" s="18"/>
-      <c r="E348" s="57"/>
-      <c r="G348" t="s">
-        <v>1548</v>
-      </c>
-      <c r="I348" s="72"/>
-    </row>
-    <row r="349" spans="2:9">
-      <c r="B349" s="56" t="s">
+      <c r="I361" s="72"/>
+    </row>
+    <row r="362" spans="1:9">
+      <c r="B362" s="56" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C362" s="18"/>
+      <c r="D362" s="18"/>
+      <c r="E362" s="57"/>
+      <c r="G362" t="s">
         <v>1543</v>
       </c>
-      <c r="C349" s="18"/>
-      <c r="D349" s="18"/>
-      <c r="E349" s="57"/>
-      <c r="G349" t="s">
-        <v>1549</v>
-      </c>
-      <c r="I349" s="72"/>
-    </row>
-    <row r="350" spans="2:9">
-      <c r="B350" s="56" t="s">
-        <v>1544</v>
-      </c>
-      <c r="C350" s="18"/>
-      <c r="D350" s="18"/>
-      <c r="E350" s="57"/>
-      <c r="G350" t="s">
-        <v>1550</v>
-      </c>
-      <c r="I350" s="72"/>
-    </row>
-    <row r="351" spans="2:9">
-      <c r="B351" s="54" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C351" s="7"/>
-      <c r="D351" s="7"/>
-      <c r="E351" s="55"/>
-      <c r="G351" t="s">
-        <v>1546</v>
-      </c>
-      <c r="I351" s="72"/>
-    </row>
-    <row r="352" spans="2:9">
-      <c r="I352" s="72"/>
-    </row>
-    <row r="354" spans="1:2">
-      <c r="A354" s="8" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2">
-      <c r="B355" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2">
-      <c r="B356" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2">
-      <c r="A358" s="8" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2">
-      <c r="B359" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2">
-      <c r="B360" t="s">
-        <v>1683</v>
+      <c r="I362" s="72"/>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="B363" s="54" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C363" s="7"/>
+      <c r="D363" s="7"/>
+      <c r="E363" s="55"/>
+      <c r="G363" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I363" s="72"/>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="I364" s="72"/>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" s="8" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
+      <c r="B367" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="B368" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="8" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="B371" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="B372" t="s">
+        <v>1676</v>
       </c>
     </row>
   </sheetData>
@@ -32825,7 +33323,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="8" t="s">
-        <v>1588</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -32848,7 +33346,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>1551</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -32858,7 +33356,7 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>1552</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -32913,12 +33411,12 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>1554</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -33108,7 +33606,7 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>1555</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -33163,17 +33661,17 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>1556</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>1557</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>1558</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="91" spans="1:1">
@@ -33183,7 +33681,7 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>1559</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -33193,7 +33691,7 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>1560</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -33203,7 +33701,7 @@
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>1561</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -33218,32 +33716,32 @@
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>1562</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="244.8">
       <c r="A100" s="3" t="s">
-        <v>1563</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>1564</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>1565</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>1566</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>1567</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="106" spans="1:1">
@@ -33253,22 +33751,22 @@
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>1568</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>1569</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>1570</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>1571</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -33278,56 +33776,56 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>1518</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>1572</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>1573</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>1518</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>1575</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>1576</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>1577</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="22" t="s">
-        <v>1578</v>
+        <v>1571</v>
       </c>
       <c r="B123" t="s">
-        <v>1579</v>
+        <v>1572</v>
       </c>
       <c r="C123" t="s">
-        <v>1580</v>
+        <v>1573</v>
       </c>
       <c r="D123" t="s">
-        <v>1581</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -33335,7 +33833,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="22" t="s">
-        <v>1582</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -33358,12 +33856,12 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>1583</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -33371,17 +33869,17 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>1585</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>1586</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>1587</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="15" thickBot="1">

--- a/Regex 04.02.25.xlsx
+++ b/Regex 04.02.25.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3051" uniqueCount="1700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3052" uniqueCount="1701">
   <si>
     <t>with (?mx) with description</t>
   </si>
@@ -10511,9 +10511,6 @@
     </r>
   </si>
   <si>
-    <t>група 2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -10524,53 +10521,6 @@
   </si>
   <si>
     <r>
-      <t>text = "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Order 123</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF179A77"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>order 456</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">    print(</t>
     </r>
     <r>
@@ -10614,40 +10564,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>())</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Order', '123'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
     </r>
   </si>
   <si>
@@ -11082,12 +10998,6 @@
     <t>import fitz</t>
   </si>
   <si>
-    <t>data = []</t>
-  </si>
-  <si>
-    <t>current_shop = None</t>
-  </si>
-  <si>
     <t>i = 0</t>
   </si>
   <si>
@@ -12254,6 +12164,9 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFA626A4"/>
@@ -12262,22 +12175,1195 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> try</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   except</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IndexError:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shop_pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a compiled regular expression object</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = r'(?P&lt;year&gt;\d{4})-(?P&lt;month&gt;\d{2})-(?P&lt;day&gt;\d{2})'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = "2024-01-18"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>match = re.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shop_match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shop_pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(line)</t>
+    </r>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Proficiency in Python and its data science ecosystem (NumPy, Pandas, Matplotlib, Seaborn, SciPy, Scikit-learn, PyTorch)</t>
+  </si>
+  <si>
+    <t>SQL Python ETL BI Azure AWS GCP Qlik Tableau Data Visualization Power BI Kubernetes</t>
+  </si>
+  <si>
+    <t>Libraries in Python</t>
+  </si>
+  <si>
+    <r>
+      <t>match = re.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(pattern, string)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shop_pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>re</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>matshes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shop_pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>findall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">re.compile() </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>takes a regular expression pattern as a string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">compiles it into a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regex object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shop_pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = re.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shop_pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = re.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('shop')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shop_pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>findall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regex object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> created by re.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">() represents a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compiled regular expression pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that can be</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reused</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>match object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> created by re.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">() represents the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result of applying that pattern to a string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contains details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> about the matched text</t>
+    </r>
+  </si>
+  <si>
+    <t>Diff between findall and match</t>
+  </si>
+  <si>
+    <t>text = "Vasil Vasilev"</t>
+  </si>
+  <si>
+    <t>pattern = re.compile(r"\w+")</t>
+  </si>
+  <si>
+    <t>print(match)</t>
+  </si>
+  <si>
+    <t>['Vasil', 'Vasilev']</t>
+  </si>
+  <si>
+    <t>print(match.group())</t>
+  </si>
+  <si>
+    <t>&lt;re.Match object; span=(0, 5), match='Vasil'&gt;</t>
+  </si>
+  <si>
+    <t>Vasil</t>
+  </si>
+  <si>
+    <r>
+      <t>match = pattern.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>findall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>match = pattern.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <t>Vesil е защото match() връща само първото съвпадение и то ако е в началото</t>
+  </si>
+  <si>
+    <t>['Vasil', 'Vasilev'] защото findall() връща лист от всички съвпадения които отговарят на pattern-a</t>
+  </si>
+  <si>
+    <t>Обект : МАДРИД', '1', '222868', 'КАРЕЛИЯ ОМЕ МЕНТОЛ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">    if </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>row_number_pattern.match(line) and current_shop:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">       </t>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>row_number_pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
     </r>
     <r>
       <rPr>
@@ -12288,7 +13374,28 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> try</t>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>current_shop</t>
     </r>
     <r>
       <rPr>
@@ -12303,55 +13410,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA626A4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   except</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IndexError:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shop_pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is a compiled regular expression object</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
@@ -12360,105 +13418,67 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = r'(?P&lt;year&gt;\d{4})-(?P&lt;month&gt;\d{2})-(?P&lt;day&gt;\d{2})'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>text</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = "2024-01-18"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>match = re.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
+      <t>current_shop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = None</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = []</t>
+    </r>
+  </si>
+  <si>
+    <t>pattern = r"(Order) (\d+)"</t>
+  </si>
+  <si>
+    <r>
       <t>(</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>text</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Order', '123'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -12466,454 +13486,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shop_match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shop_pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(line)</t>
-    </r>
-  </si>
-  <si>
-    <t>match</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>group</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>()/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>group</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(0)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>start</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>end</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>print</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Proficiency in Python and its data science ecosystem (NumPy, Pandas, Matplotlib, Seaborn, SciPy, Scikit-learn, PyTorch)</t>
-  </si>
-  <si>
-    <t>SQL Python ETL BI Azure AWS GCP Qlik Tableau Data Visualization Power BI Kubernetes</t>
-  </si>
-  <si>
-    <t>Libraries in Python</t>
-  </si>
-  <si>
-    <r>
-      <t>match = re.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>search</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(pattern, string)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shop_pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF179A77"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>re</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>compile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shop</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>')</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDA7BB9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>matshes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shop_pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>findall</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>text</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">re.compile() </t>
+      <t>text = "</t>
     </r>
     <r>
       <rPr>
@@ -12922,9 +13495,10 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>takes a regular expression pattern as a string</t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Order 123</t>
     </r>
     <r>
       <rPr>
@@ -12943,462 +13517,21 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">compiles it into a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>regex object</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shop_pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = re.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>compile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>("</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shop</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>")</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shop_pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = re.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>compile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>('shop')</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shop_pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>findall</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>text</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>regex object</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> created by re.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>compile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">() represents a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>compiled regular expression pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> that can be</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> reused</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>match object</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> created by re.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">() represents the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>result of applying that pattern to a string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>contains details</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> about the matched text</t>
-    </r>
-  </si>
-  <si>
-    <t>Diff between findall and match</t>
-  </si>
-  <si>
-    <t>text = "Vasil Vasilev"</t>
-  </si>
-  <si>
-    <t>pattern = re.compile(r"\w+")</t>
-  </si>
-  <si>
-    <t>print(match)</t>
-  </si>
-  <si>
-    <t>['Vasil', 'Vasilev']</t>
-  </si>
-  <si>
-    <t>print(match.group())</t>
-  </si>
-  <si>
-    <t>&lt;re.Match object; span=(0, 5), match='Vasil'&gt;</t>
-  </si>
-  <si>
-    <t>Vasil</t>
-  </si>
-  <si>
-    <r>
-      <t>match = pattern.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>findall</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(text)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>match = pattern.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(text)</t>
-    </r>
-  </si>
-  <si>
-    <t>Vesil е защото match() връща само първото съвпадение и то ако е в началото</t>
-  </si>
-  <si>
-    <t>['Vasil', 'Vasilev'] защото findall() връща лист от всички съвпадения които отговарят на pattern-a</t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Order 456</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -13411,6 +13544,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13860,14 +14001,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF179A77"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -14070,73 +14203,73 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -14144,23 +14277,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -14181,27 +14314,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -15570,10 +15708,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDA7BB9"/>
+      <color rgb="FFA626A4"/>
       <color rgb="FFA47A20"/>
       <color rgb="FF7D7DFF"/>
-      <color rgb="FFA626A4"/>
-      <color rgb="FFDA7BB9"/>
       <color rgb="FF179A77"/>
       <color rgb="FFFF33CC"/>
     </mruColors>
@@ -16145,7 +16283,7 @@
         <v>966</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
     </row>
   </sheetData>
@@ -19565,7 +19703,7 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="39" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="F212" s="38">
         <v>163</v>
@@ -19573,7 +19711,7 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="39" t="s">
-        <v>1645</v>
+        <v>1640</v>
       </c>
       <c r="F213" s="38">
         <v>164</v>
@@ -19581,7 +19719,7 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="39" t="s">
-        <v>1646</v>
+        <v>1641</v>
       </c>
       <c r="F214" s="38">
         <v>165</v>
@@ -19589,7 +19727,7 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="39" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="F215" s="38">
         <v>166</v>
@@ -19597,7 +19735,7 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="39" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="F216" s="38">
         <v>167</v>
@@ -19605,7 +19743,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="39" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="F217" s="38">
         <v>168</v>
@@ -19613,7 +19751,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="39" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="F218" s="38">
         <v>169</v>
@@ -19621,7 +19759,7 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="39" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="F219" s="38">
         <v>170</v>
@@ -28719,7 +28857,7 @@
   <dimension ref="B1:R75"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28731,7 +28869,7 @@
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -28754,15 +28892,15 @@
       <c r="F7" s="18"/>
       <c r="G7" s="57"/>
       <c r="I7" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="K7" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="56" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -28770,14 +28908,14 @@
       <c r="F8" s="18"/>
       <c r="G8" s="57"/>
       <c r="I8" s="74" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="J8" s="52"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="56" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -28813,14 +28951,14 @@
       <c r="F11" s="18"/>
       <c r="G11" s="57"/>
       <c r="I11" s="75" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="57"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="61" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -28828,7 +28966,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="57"/>
       <c r="I12" s="75" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="57"/>
@@ -28858,7 +28996,7 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="78" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -28866,15 +29004,15 @@
       <c r="F15" s="18"/>
       <c r="G15" s="57"/>
       <c r="I15" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
       <c r="K15" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="78" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -28882,15 +29020,15 @@
       <c r="F16" s="18"/>
       <c r="G16" s="57"/>
       <c r="I16" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
       <c r="K16" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="17" spans="2:18">
       <c r="B17" s="56" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -28898,15 +29036,15 @@
       <c r="F17" s="18"/>
       <c r="G17" s="57"/>
       <c r="I17" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
       <c r="K17" t="s">
-        <v>1619</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="78" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -28914,10 +29052,10 @@
       <c r="F18" s="18"/>
       <c r="G18" s="57"/>
       <c r="I18" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="K18" t="s">
-        <v>1621</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="19" spans="2:18">
@@ -28930,15 +29068,15 @@
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="61" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="57"/>
-      <c r="I20" s="60" t="s">
-        <v>1629</v>
+      <c r="I20" s="92" t="s">
+        <v>1624</v>
       </c>
     </row>
     <row r="21" spans="2:18">
@@ -28949,12 +29087,12 @@
       <c r="F21" s="18"/>
       <c r="G21" s="57"/>
       <c r="I21" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="61" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -28962,12 +29100,12 @@
       <c r="F22" s="18"/>
       <c r="G22" s="57"/>
       <c r="I22" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="78" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -28975,7 +29113,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="57"/>
       <c r="I23" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="24" spans="2:18">
@@ -28986,12 +29124,12 @@
       <c r="F24" s="18"/>
       <c r="G24" s="57"/>
       <c r="I24" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="56" t="s">
-        <v>1585</v>
+      <c r="B25" s="93" t="s">
+        <v>1697</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -29000,8 +29138,8 @@
       <c r="G25" s="57"/>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="56" t="s">
-        <v>1586</v>
+      <c r="B26" s="93" t="s">
+        <v>1696</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -29009,12 +29147,12 @@
       <c r="F26" s="18"/>
       <c r="G26" s="57"/>
       <c r="I26" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="56" t="s">
-        <v>1587</v>
+        <v>1582</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -29022,7 +29160,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="57"/>
       <c r="I27" s="79" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
@@ -29041,7 +29179,7 @@
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="78" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -29049,30 +29187,33 @@
       <c r="F29" s="18"/>
       <c r="G29" s="57"/>
       <c r="I29" t="s">
-        <v>1640</v>
-      </c>
-      <c r="M29" s="58" t="s">
+        <v>1635</v>
+      </c>
+      <c r="N29" s="58" t="s">
         <v>1377</v>
       </c>
-      <c r="N29" s="52"/>
       <c r="O29" s="52"/>
-      <c r="P29" s="53"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="53"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="56" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="57"/>
-      <c r="M30" s="80" t="s">
-        <v>1668</v>
-      </c>
-      <c r="N30" s="7"/>
+      <c r="I30" s="6" t="s">
+        <v>1694</v>
+      </c>
+      <c r="N30" s="80" t="s">
+        <v>1662</v>
+      </c>
       <c r="O30" s="7"/>
-      <c r="P30" s="55"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="55"/>
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="56"/>
@@ -29084,7 +29225,7 @@
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="56" t="s">
-        <v>1588</v>
+        <v>1583</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -29094,7 +29235,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="56" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -29102,12 +29243,12 @@
       <c r="F33" s="18"/>
       <c r="G33" s="57"/>
       <c r="I33" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="78" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
@@ -29115,12 +29256,12 @@
       <c r="F34" s="18"/>
       <c r="G34" s="57"/>
       <c r="I34" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="56" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
@@ -29128,12 +29269,12 @@
       <c r="F35" s="18"/>
       <c r="G35" s="57"/>
       <c r="I35" s="77" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="56" t="s">
-        <v>1589</v>
+        <v>1584</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
@@ -29143,7 +29284,7 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="56" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
@@ -29161,7 +29302,7 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="56" t="s">
-        <v>1590</v>
+        <v>1585</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
@@ -29170,8 +29311,8 @@
       <c r="G39" s="57"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="78" t="s">
-        <v>1661</v>
+      <c r="B40" s="93" t="s">
+        <v>1695</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
@@ -29181,7 +29322,7 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="56" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -29191,7 +29332,7 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="56" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
@@ -29201,7 +29342,7 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="56" t="s">
-        <v>1592</v>
+        <v>1587</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
@@ -29211,7 +29352,7 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="56" t="s">
-        <v>1593</v>
+        <v>1588</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
@@ -29221,7 +29362,7 @@
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="56" t="s">
-        <v>1594</v>
+        <v>1589</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
@@ -29239,7 +29380,7 @@
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="56" t="s">
-        <v>1595</v>
+        <v>1590</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
@@ -29249,7 +29390,7 @@
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="56" t="s">
-        <v>1596</v>
+        <v>1591</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
@@ -29259,7 +29400,7 @@
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="56" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
@@ -29269,7 +29410,7 @@
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="56" t="s">
-        <v>1598</v>
+        <v>1593</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
@@ -29279,7 +29420,7 @@
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="56" t="s">
-        <v>1599</v>
+        <v>1594</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
@@ -29289,7 +29430,7 @@
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="56" t="s">
-        <v>1600</v>
+        <v>1595</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
@@ -29299,7 +29440,7 @@
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="56" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
@@ -29317,7 +29458,7 @@
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="56" t="s">
-        <v>1602</v>
+        <v>1597</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
@@ -29327,7 +29468,7 @@
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="56" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
@@ -29345,7 +29486,7 @@
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="56" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
@@ -29355,7 +29496,7 @@
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="56" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
@@ -29373,7 +29514,7 @@
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="56" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
@@ -29411,7 +29552,7 @@
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="56" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
@@ -29421,7 +29562,7 @@
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="56" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
       <c r="C66" s="18"/>
       <c r="D66" s="18"/>
@@ -29431,7 +29572,7 @@
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="56" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
@@ -29441,7 +29582,7 @@
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="56" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="C68" s="18"/>
       <c r="D68" s="18"/>
@@ -29451,7 +29592,7 @@
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="56" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
@@ -29469,7 +29610,7 @@
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="56" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -29479,7 +29620,7 @@
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="56" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="C72" s="18"/>
       <c r="D72" s="18"/>
@@ -29489,7 +29630,7 @@
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="56" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
@@ -29507,7 +29648,7 @@
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="54" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -29542,8 +29683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G330" sqref="G330"/>
+    <sheetView tabSelected="1" topLeftCell="A329" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F335" sqref="F335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -29568,17 +29709,17 @@
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="79" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="79" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -29708,19 +29849,19 @@
       <c r="D36" s="57"/>
       <c r="F36" s="81"/>
       <c r="G36" s="84" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
       <c r="H36" s="85" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="I36" s="85" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="K36" s="87" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="M36" s="86" t="s">
-        <v>1674</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="37" spans="2:13">
@@ -29730,7 +29871,7 @@
       <c r="C37" s="18"/>
       <c r="D37" s="57"/>
       <c r="F37" s="83" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="G37" s="71" t="s">
         <v>1376</v>
@@ -30182,7 +30323,7 @@
     </row>
     <row r="96" spans="1:7">
       <c r="B96" s="54" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="55"/>
@@ -30376,7 +30517,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="B138" s="90" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -30386,7 +30527,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="B142" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -30420,7 +30561,7 @@
     </row>
     <row r="150" spans="2:6">
       <c r="B150" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="151" spans="2:6">
@@ -30443,7 +30584,7 @@
     </row>
     <row r="155" spans="2:6">
       <c r="C155" s="91" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -30456,7 +30597,7 @@
     </row>
     <row r="158" spans="2:6">
       <c r="C158" s="90" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="160" spans="2:6">
@@ -30673,7 +30814,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="D196" s="90" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -30683,22 +30824,22 @@
     </row>
     <row r="198" spans="1:4">
       <c r="D198" s="90" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="B200" s="8" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="C201" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="C202" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -30961,7 +31102,7 @@
     </row>
     <row r="249" spans="2:12">
       <c r="B249" s="8" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="250" spans="2:12">
@@ -30980,12 +31121,12 @@
     <row r="251" spans="2:12">
       <c r="B251" s="8"/>
       <c r="C251" s="56" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="D251" s="18"/>
       <c r="E251" s="57"/>
       <c r="G251" s="56" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="H251" s="18"/>
       <c r="I251" s="57"/>
@@ -30993,12 +31134,12 @@
     <row r="252" spans="2:12">
       <c r="B252" s="8"/>
       <c r="C252" s="56" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="D252" s="18"/>
       <c r="E252" s="57"/>
       <c r="G252" s="56" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="H252" s="18"/>
       <c r="I252" s="57"/>
@@ -31006,12 +31147,12 @@
     <row r="253" spans="2:12">
       <c r="B253" s="8"/>
       <c r="C253" s="56" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
       <c r="D253" s="18"/>
       <c r="E253" s="57"/>
       <c r="G253" s="56" t="s">
-        <v>1697</v>
+        <v>1691</v>
       </c>
       <c r="H253" s="18"/>
       <c r="I253" s="57"/>
@@ -31019,41 +31160,41 @@
     <row r="254" spans="2:12">
       <c r="B254" s="8"/>
       <c r="C254" s="54" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="D254" s="7"/>
       <c r="E254" s="55"/>
       <c r="G254" s="56" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="H254" s="18"/>
       <c r="I254" s="57"/>
       <c r="K254" s="5" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="255" spans="2:12">
       <c r="D255" s="5" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
       <c r="G255" s="54" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="H255" s="7"/>
       <c r="I255" s="55"/>
       <c r="K255" s="5" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="L255" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="256" spans="2:12">
       <c r="D256" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="F256" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -31335,7 +31476,7 @@
     </row>
     <row r="305" spans="2:5">
       <c r="B305" s="8" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="306" spans="2:5">
@@ -31527,7 +31668,7 @@
     </row>
     <row r="334" spans="2:9">
       <c r="B334" s="56" t="s">
-        <v>1522</v>
+        <v>1700</v>
       </c>
       <c r="C334" s="18"/>
       <c r="D334" s="18"/>
@@ -31535,7 +31676,7 @@
     </row>
     <row r="335" spans="2:9">
       <c r="B335" s="56" t="s">
-        <v>1504</v>
+        <v>1698</v>
       </c>
       <c r="C335" s="18"/>
       <c r="D335" s="18"/>
@@ -31608,10 +31749,10 @@
         <v>1512</v>
       </c>
       <c r="I343" t="s">
+        <v>1518</v>
+      </c>
+      <c r="K343" s="68" t="s">
         <v>1519</v>
-      </c>
-      <c r="K343" s="68" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="344" spans="2:11">
@@ -31628,7 +31769,7 @@
         <v>1514</v>
       </c>
       <c r="K344" s="69" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="345" spans="2:11">
@@ -31659,7 +31800,7 @@
         <v>123</v>
       </c>
       <c r="I346" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="K346" s="69">
         <v>456</v>
@@ -31667,26 +31808,26 @@
     </row>
     <row r="347" spans="2:11">
       <c r="B347" s="54" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="55"/>
-      <c r="G347" s="70" t="s">
-        <v>1524</v>
+      <c r="G347" s="94" t="s">
+        <v>1699</v>
       </c>
       <c r="K347" s="70" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="349" spans="2:11">
       <c r="I349" s="71" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="350" spans="2:11">
       <c r="B350" s="8" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="I350" s="72"/>
     </row>
@@ -31711,7 +31852,7 @@
     </row>
     <row r="354" spans="1:9">
       <c r="B354" s="56" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="C354" s="18"/>
       <c r="D354" s="18"/>
@@ -31727,7 +31868,7 @@
     </row>
     <row r="356" spans="1:9">
       <c r="B356" s="56" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="C356" s="18"/>
       <c r="D356" s="18"/>
@@ -31743,7 +31884,7 @@
     </row>
     <row r="358" spans="1:9">
       <c r="B358" s="56" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="C358" s="18"/>
       <c r="D358" s="18"/>
@@ -31752,61 +31893,61 @@
     </row>
     <row r="359" spans="1:9">
       <c r="B359" s="56" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="C359" s="18"/>
       <c r="D359" s="18"/>
       <c r="E359" s="57"/>
       <c r="G359" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="I359" s="72"/>
     </row>
     <row r="360" spans="1:9">
       <c r="B360" s="56" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="C360" s="18"/>
       <c r="D360" s="18"/>
       <c r="E360" s="57"/>
       <c r="G360" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="I360" s="72"/>
     </row>
     <row r="361" spans="1:9">
       <c r="B361" s="56" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="C361" s="18"/>
       <c r="D361" s="18"/>
       <c r="E361" s="57"/>
       <c r="G361" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="I361" s="72"/>
     </row>
     <row r="362" spans="1:9">
       <c r="B362" s="56" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="C362" s="18"/>
       <c r="D362" s="18"/>
       <c r="E362" s="57"/>
       <c r="G362" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="I362" s="72"/>
     </row>
     <row r="363" spans="1:9">
       <c r="B363" s="54" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="55"/>
       <c r="G363" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="I363" s="72"/>
     </row>
@@ -31815,32 +31956,32 @@
     </row>
     <row r="366" spans="1:9">
       <c r="A366" s="8" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="367" spans="1:9">
       <c r="B367" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="368" spans="1:9">
       <c r="B368" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="8" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="B371" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="B372" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
     </row>
   </sheetData>
@@ -33323,7 +33464,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="8" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -33346,7 +33487,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -33356,7 +33497,7 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -33411,12 +33552,12 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -33606,7 +33747,7 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -33661,17 +33802,17 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="91" spans="1:1">
@@ -33681,7 +33822,7 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -33691,7 +33832,7 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -33701,7 +33842,7 @@
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -33716,32 +33857,32 @@
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="244.8">
       <c r="A100" s="3" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="106" spans="1:1">
@@ -33751,22 +33892,22 @@
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -33781,17 +33922,17 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -33801,31 +33942,31 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="22" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D123" t="s">
         <v>1571</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C123" t="s">
-        <v>1573</v>
-      </c>
-      <c r="D123" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -33833,7 +33974,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="22" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -33856,12 +33997,12 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -33869,17 +34010,17 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="15" thickBot="1">

--- a/Regex 04.02.25.xlsx
+++ b/Regex 04.02.25.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3136" uniqueCount="1776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="1809">
   <si>
     <t>with (?mx) with description</t>
   </si>
@@ -11019,9 +11019,6 @@
     <t xml:space="preserve">                unit,</t>
   </si>
   <si>
-    <t xml:space="preserve">            ])</t>
-  </si>
-  <si>
     <t xml:space="preserve">            i += 5</t>
   </si>
   <si>
@@ -13731,14 +13728,1485 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">    for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>col_idx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in enumerate(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, start=1):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(type(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(type(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(type(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text.splitlines</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()))  #  &lt;class 'list'&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shop_match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shop_pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shop_pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = re.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(r'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>^Обект\s*:\s*(.+)$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>')</t>
+    </r>
+  </si>
+  <si>
+    <t>print()</t>
+  </si>
+  <si>
+    <t>type()</t>
+  </si>
+  <si>
+    <t>re.compile('^Обект\\s*:\\s*(.+)$')</t>
+  </si>
+  <si>
+    <t>&lt;re.Match object; span=(0, 18), match='Обект : ГОРНА БАНЯ'&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>headers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = ["Shop", "Number", "Code", "Description", "Unit", "Quantity"]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(number),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(code),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(quantity)</t>
+    </r>
+  </si>
+  <si>
+    <t>КАРЕЛИЯ ОМЕ МЕНТОЛ\xa0 /6,20</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">           </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> continue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            number =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FFDA7BB9"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lines</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[i]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            code = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lines</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[i + 1]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            description = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lines</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[i + 2]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            unit = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lines</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[i + 3]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            quantity = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lines</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[i + 4]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>['МАДРИД', 1, 222868, 'КАРЕЛИЯ ОМЕ МЕНТОЛ\xa0 /6,20', 'БР', 10], ['МАДРИД', 2, 222874, 'КАРЕЛИЯ ОМЕ ЛАЙТ /6,20', 'БР', 20],</t>
+    </r>
+  </si>
+  <si>
+    <t>Ако успее да запише следващите 4 индекса от lines в променливи: number, code, dexcription, unit, quantity -&gt; увеличи (i-индекса който следи текущия ред) с 4 , т.е следващата итерация нека да е на чист/следващ ред</t>
+  </si>
+  <si>
+    <r>
+      <t>Отиди в while за следваща итерация/ред или елемент в list-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lines</t>
+    </r>
+  </si>
+  <si>
+    <t>Ако програмата излезе извън обхвата(дължината на list-&gt; lines) тогава удари break на while loop-a) но не прекъсвай програмата</t>
+  </si>
+  <si>
+    <t>&lt;class 'openpyxl.workbook.workbook.Workbook'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;class 'openpyxl.worksheet.worksheet.Worksheet'&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;class 'openpyxl.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>workbook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.workbook.Workbook'&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>print(type(workbook))</t>
+  </si>
+  <si>
+    <t>workbook exploanation</t>
+  </si>
+  <si>
+    <t>This is just a variable name you chose.</t>
+  </si>
+  <si>
+    <t>It lives in your code</t>
+  </si>
+  <si>
+    <t>It points to an object in memory</t>
+  </si>
+  <si>
+    <t>You could rename it to wb, banana, or my_excel_file</t>
+  </si>
+  <si>
+    <t>This part comes from the library’s internal structure.</t>
+  </si>
+  <si>
+    <t>Think of it like folders:</t>
+  </si>
+  <si>
+    <t>openpyxl</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>So:</t>
+  </si>
+  <si>
+    <t>openpyxl → top-level package</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    |--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>workbook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.py</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>workbook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → the file workbook.py</t>
+    </r>
+  </si>
+  <si>
+    <t>Python is telling you exactly where the class is defined</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>workbook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (lowercase) — your variable</t>
+    </r>
+  </si>
+  <si>
+    <t>This is the actual class definition.</t>
+  </si>
+  <si>
+    <t>When you do:</t>
+  </si>
+  <si>
+    <t>openpyxl.Workbook()</t>
+  </si>
+  <si>
+    <t>you are:</t>
+  </si>
+  <si>
+    <t>Calling the Workbook class</t>
+  </si>
+  <si>
+    <t>Creating an instance (object) of that class</t>
+  </si>
+  <si>
+    <t>Storing it in your variable workbook</t>
+  </si>
+  <si>
+    <t>Putting it all together</t>
+  </si>
+  <si>
+    <t>means:</t>
+  </si>
+  <si>
+    <t>This line:</t>
+  </si>
+  <si>
+    <t>A mental model (very useful)</t>
+  </si>
+  <si>
+    <t>Think of it like this:</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>folder</t>
+  </si>
+  <si>
+    <t>workbook</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Workbook</t>
+  </si>
+  <si>
+    <t>-&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>workbook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.py</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>|--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>workbook</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>workbook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → subpackage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. openpyxl.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>workbook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>workbook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — the module path</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;class '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>openpyxl.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>workbook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>workbook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Workbook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>And your variable(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>workbook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) just </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>points to an instance of that class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Why the repetition (workbook.workbook)?</t>
+  </si>
+  <si>
+    <t>Purely naming choices by the library authors:</t>
+  </si>
+  <si>
+    <t>One folder named workbook</t>
+  </si>
+  <si>
+    <t>One file named workbook.py</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Quan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'МАДРИД', 1, 222868, 'КАРЕЛИЯ ОМЕ МЕНТОЛ\xa0 /6,20', 'БР', 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Мадрид</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Workbook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (capital W) — the class</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Inside</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> workbook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.py, there is something like</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Workbook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">“This </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is an instance of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Workbook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> class, which is defined in openpyxl/workbook/workbook.py.”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>workbook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = openpyxl.Workbook()</t>
+    </r>
+  </si>
+  <si>
+    <t>Python is telling you the import path, not the filesystem path</t>
+  </si>
+  <si>
+    <t>Folder vs Package</t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>A folder (directory) is just a filesystem concept</t>
+  </si>
+  <si>
+    <t>The OS knows about it</t>
+  </si>
+  <si>
+    <t>Python doesn’t automatically treat it as importable</t>
+  </si>
+  <si>
+    <t>Example: my_folder/  -  This alone means nothing to Python</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>A package is a folder that Python can import from</t>
+  </si>
+  <si>
+    <t>To Python:  “This folder contains Python code I’m allowed to import.”</t>
+  </si>
+  <si>
+    <t>Historically, a folder became a package if it had:  __init__.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    __init__.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        __init__.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            class Workbook</t>
+  </si>
+  <si>
+    <t>openpyxl/                &lt;-  package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    workbook/            &lt;-  subpackage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        workbook.py      &lt;-  module (file)</t>
+  </si>
+  <si>
+    <t>Python path:</t>
+  </si>
+  <si>
+    <t>openpyxl.workbook.workbook.Workbook</t>
+  </si>
+  <si>
+    <t>package  package  module   class</t>
+  </si>
+  <si>
+    <t>Every package is a folder</t>
+  </si>
+  <si>
+    <t>Not every folder is a package</t>
+  </si>
+  <si>
+    <t>Mental model (remember this)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Folder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = physical container</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Package</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = folder + Python import rules</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Module</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = .py file</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = inside the module</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> data</t>
@@ -13771,52 +15239,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>([</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>col_idx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in enumerate(</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -13824,35 +15247,26 @@
         <color rgb="FFDA7BB9"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>row</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, start=1):</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>print(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>doc</t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
     </r>
     <r>
       <rPr>
@@ -13866,1095 +15280,39 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>print(type(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>doc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>))</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>print(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>print(type(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>page</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>))</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>print(type(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDA7BB9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>text.splitlines</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>()))  #  &lt;class 'list'&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shop_match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shop_pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>line</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shop_pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = re.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA47A20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>compile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(r'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>^Обект\s*:\s*(.+)$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>')</t>
-    </r>
-  </si>
-  <si>
-    <t>print()</t>
-  </si>
-  <si>
-    <t>type()</t>
-  </si>
-  <si>
-    <t>re.compile('^Обект\\s*:\\s*(.+)$')</t>
-  </si>
-  <si>
-    <t>&lt;re.Match object; span=(0, 18), match='Обект : ГОРНА БАНЯ'&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDA7BB9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>headers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = ["Shop", "Number", "Code", "Description", "Unit", "Quantity"]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF179A77"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(number),</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">               </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF179A77"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(code),</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">               </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF179A77"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(quantity)</t>
-    </r>
-  </si>
-  <si>
-    <t>КАРЕЛИЯ ОМЕ МЕНТОЛ\xa0 /6,20</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFA626A4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> continue</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            number =</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDA7BB9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> lines</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[i]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            code = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDA7BB9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lines</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[i + 1]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            description = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDA7BB9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lines</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[i + 2]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            unit = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDA7BB9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lines</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[i + 3]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            quantity = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDA7BB9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lines</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[i + 4]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDA7BB9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>['МАДРИД', 1, 222868, 'КАРЕЛИЯ ОМЕ МЕНТОЛ\xa0 /6,20', 'БР', 10], ['МАДРИД', 2, 222874, 'КАРЕЛИЯ ОМЕ ЛАЙТ /6,20', 'БР', 20],</t>
-    </r>
-  </si>
-  <si>
-    <t>Ако успее да запише следващите 4 индекса от lines в променливи: number, code, dexcription, unit, quantity -&gt; увеличи (i-индекса който следи текущия ред) с 4 , т.е следващата итерация нека да е на чист/следващ ред</t>
-  </si>
-  <si>
-    <r>
-      <t>Отиди в while за следваща итерация/ред или елемент в list-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDA7BB9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lines</t>
-    </r>
-  </si>
-  <si>
-    <t>Ако програмата излезе извън обхвата(дължината на list-&gt; lines) тогава удари break на while loop-a) но не прекъсвай програмата</t>
-  </si>
-  <si>
-    <t>&lt;class 'openpyxl.workbook.workbook.Workbook'&gt;</t>
-  </si>
-  <si>
-    <t>&lt;class 'openpyxl.worksheet.worksheet.Worksheet'&gt;</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;class 'openpyxl.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF179A77"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>workbook</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.workbook.Workbook'&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>print(type(workbook))</t>
-  </si>
-  <si>
-    <t>workbook exploanation</t>
-  </si>
-  <si>
-    <t>This is just a variable name you chose.</t>
-  </si>
-  <si>
-    <t>It lives in your code</t>
-  </si>
-  <si>
-    <t>It points to an object in memory</t>
-  </si>
-  <si>
-    <t>You could rename it to wb, banana, or my_excel_file</t>
-  </si>
-  <si>
-    <t>This part comes from the library’s internal structure.</t>
-  </si>
-  <si>
-    <t>Think of it like folders:</t>
-  </si>
-  <si>
-    <t>openpyxl</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>So:</t>
-  </si>
-  <si>
-    <t>openpyxl → top-level package</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    |--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>workbook</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.py</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>workbook</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> → the file workbook.py</t>
-    </r>
-  </si>
-  <si>
-    <t>Python is telling you exactly where the class is defined</t>
-  </si>
-  <si>
-    <t>3. Workbook (capital W) — the class</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF179A77"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>workbook</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (lowercase) — your variable</t>
-    </r>
-  </si>
-  <si>
-    <t>This is the actual class definition.</t>
-  </si>
-  <si>
-    <t>Inside workbook.py, there is something like</t>
-  </si>
-  <si>
-    <t>class Workbook:</t>
-  </si>
-  <si>
-    <t>When you do:</t>
-  </si>
-  <si>
-    <t>openpyxl.Workbook()</t>
-  </si>
-  <si>
-    <t>you are:</t>
-  </si>
-  <si>
-    <t>Calling the Workbook class</t>
-  </si>
-  <si>
-    <t>Creating an instance (object) of that class</t>
-  </si>
-  <si>
-    <t>Storing it in your variable workbook</t>
-  </si>
-  <si>
-    <t>Putting it all together</t>
-  </si>
-  <si>
-    <t>means:</t>
-  </si>
-  <si>
-    <t>This line:</t>
-  </si>
-  <si>
-    <t>“This object is an instance of the Workbook class, which is defined in openpyxl/workbook/workbook.py.”</t>
-  </si>
-  <si>
-    <t>A mental model (very useful)</t>
-  </si>
-  <si>
-    <t>Think of it like this:</t>
-  </si>
-  <si>
-    <t>package</t>
-  </si>
-  <si>
-    <t>folder</t>
-  </si>
-  <si>
-    <t>workbook</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Workbook</t>
-  </si>
-  <si>
-    <t>-&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>workbook</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.py</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>|--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>workbook</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>workbook</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> → subpackage</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2. openpyxl.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>workbook</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>workbook</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — the module path</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;class '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>openpyxl.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>workbook</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>workbook</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF179A77"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Workbook</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>And your variable(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF179A77"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>workbook</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) just </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>points to an instance of that class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Why the repetition (workbook.workbook)?</t>
-  </si>
-  <si>
-    <t>Purely naming choices by the library authors:</t>
-  </si>
-  <si>
-    <t>One folder named workbook</t>
-  </si>
-  <si>
-    <t>One file named workbook.py</t>
-  </si>
-  <si>
-    <t>Shop</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Des</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Quan</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDA7BB9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'МАДРИД', 1, 222868, 'КАРЕЛИЯ ОМЕ МЕНТОЛ\xa0 /6,20', 'БР', 10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFDA7BB9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <t>Мадрид</t>
+    <t>[</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.03.1.21": "1SBN010140R1022",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.08.00.1.06": "TRT-10A230V-NC",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.08.00.0.09": "HTP150",</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="67">
+  <fonts count="68">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -15691,73 +16049,73 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -15765,23 +16123,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -15802,33 +16160,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -15836,170 +16194,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="215">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="194">
     <dxf>
       <fill>
         <patternFill>
@@ -17363,10 +17577,10 @@
   <colors>
     <mruColors>
       <color rgb="FFDA7BB9"/>
+      <color rgb="FF7D7DFF"/>
       <color rgb="FF179A77"/>
       <color rgb="FFA626A4"/>
       <color rgb="FFA47A20"/>
-      <color rgb="FF7D7DFF"/>
       <color rgb="FFFF33CC"/>
     </mruColors>
   </colors>
@@ -17940,672 +18154,672 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="214" priority="123">
+    <cfRule type="expression" dxfId="193" priority="123">
       <formula>$B$16&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5">
-    <cfRule type="expression" dxfId="213" priority="124">
+    <cfRule type="expression" dxfId="192" priority="124">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="212" priority="125">
+    <cfRule type="expression" dxfId="191" priority="125">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:F4 C4:C5 D3:F5">
-    <cfRule type="expression" dxfId="211" priority="126">
+    <cfRule type="expression" dxfId="190" priority="126">
       <formula>$B$26&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="210" priority="127">
+    <cfRule type="expression" dxfId="189" priority="127">
       <formula>$B$27&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5 C3:F3 C4:D4">
-    <cfRule type="expression" dxfId="209" priority="128">
+    <cfRule type="expression" dxfId="188" priority="128">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="208" priority="164">
+    <cfRule type="expression" dxfId="187" priority="164">
       <formula>$B$9&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="165">
+    <cfRule type="expression" dxfId="186" priority="165">
       <formula>$B$9&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="206" priority="166">
+    <cfRule type="expression" dxfId="185" priority="166">
       <formula>$B$10&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="167">
+    <cfRule type="expression" dxfId="184" priority="167">
       <formula>$B$10&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="204" priority="168">
+    <cfRule type="expression" dxfId="183" priority="168">
       <formula>$B$15&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="203" priority="171">
+    <cfRule type="expression" dxfId="182" priority="171">
       <formula>$B$21&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:F5">
-    <cfRule type="expression" dxfId="202" priority="175">
+    <cfRule type="expression" dxfId="181" priority="175">
       <formula>$B$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="expression" dxfId="201" priority="176">
+    <cfRule type="expression" dxfId="180" priority="176">
       <formula>$B$14=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="200" priority="122">
+    <cfRule type="expression" dxfId="179" priority="122">
       <formula>$B$27&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="199" priority="121">
+    <cfRule type="expression" dxfId="178" priority="121">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="198" priority="120">
+    <cfRule type="expression" dxfId="177" priority="120">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="197" priority="119">
+    <cfRule type="expression" dxfId="176" priority="119">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="196" priority="118">
+    <cfRule type="expression" dxfId="175" priority="118">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="195" priority="117">
+    <cfRule type="expression" dxfId="174" priority="117">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="194" priority="116">
+    <cfRule type="expression" dxfId="173" priority="116">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="193" priority="115">
+    <cfRule type="expression" dxfId="172" priority="115">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="192" priority="114">
+    <cfRule type="expression" dxfId="171" priority="114">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="191" priority="113">
+    <cfRule type="expression" dxfId="170" priority="113">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="190" priority="112">
+    <cfRule type="expression" dxfId="169" priority="112">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="189" priority="111">
+    <cfRule type="expression" dxfId="168" priority="111">
       <formula>$B$16&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="188" priority="110">
+    <cfRule type="expression" dxfId="167" priority="110">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="187" priority="109">
+    <cfRule type="expression" dxfId="166" priority="109">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:F6">
-    <cfRule type="expression" dxfId="186" priority="108">
+    <cfRule type="expression" dxfId="165" priority="108">
       <formula>$B$26&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="185" priority="107">
+    <cfRule type="expression" dxfId="164" priority="107">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="184" priority="105">
+    <cfRule type="expression" dxfId="163" priority="105">
       <formula>$B$10&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="106">
+    <cfRule type="expression" dxfId="162" priority="106">
       <formula>$B$10&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:F6">
-    <cfRule type="expression" dxfId="182" priority="104">
+    <cfRule type="expression" dxfId="161" priority="104">
       <formula>$B$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="181" priority="103">
+    <cfRule type="expression" dxfId="160" priority="103">
       <formula>$B$14=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="180" priority="102">
+    <cfRule type="expression" dxfId="159" priority="102">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="179" priority="101">
+    <cfRule type="expression" dxfId="158" priority="101">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="178" priority="100">
+    <cfRule type="expression" dxfId="157" priority="100">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="177" priority="99">
+    <cfRule type="expression" dxfId="156" priority="99">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="176" priority="98">
+    <cfRule type="expression" dxfId="155" priority="98">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="175" priority="97">
+    <cfRule type="expression" dxfId="154" priority="97">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="174" priority="96">
+    <cfRule type="expression" dxfId="153" priority="96">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="173" priority="95">
+    <cfRule type="expression" dxfId="152" priority="95">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="172" priority="94">
+    <cfRule type="expression" dxfId="151" priority="94">
       <formula>$B$16&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="171" priority="93">
+    <cfRule type="expression" dxfId="150" priority="93">
       <formula>$B$14=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="170" priority="92">
+    <cfRule type="expression" dxfId="149" priority="92">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="169" priority="91">
+    <cfRule type="expression" dxfId="148" priority="91">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="168" priority="90">
+    <cfRule type="expression" dxfId="147" priority="90">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="167" priority="89">
+    <cfRule type="expression" dxfId="146" priority="89">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="166" priority="88">
+    <cfRule type="expression" dxfId="145" priority="88">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="165" priority="87">
+    <cfRule type="expression" dxfId="144" priority="87">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="164" priority="86">
+    <cfRule type="expression" dxfId="143" priority="86">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="163" priority="85">
+    <cfRule type="expression" dxfId="142" priority="85">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="162" priority="84">
+    <cfRule type="expression" dxfId="141" priority="84">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="161" priority="83">
+    <cfRule type="expression" dxfId="140" priority="83">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="160" priority="82">
+    <cfRule type="expression" dxfId="139" priority="82">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="159" priority="81">
+    <cfRule type="expression" dxfId="138" priority="81">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="158" priority="80">
+    <cfRule type="expression" dxfId="137" priority="80">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="157" priority="79">
+    <cfRule type="expression" dxfId="136" priority="79">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="156" priority="78">
+    <cfRule type="expression" dxfId="135" priority="78">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="155" priority="77">
+    <cfRule type="expression" dxfId="134" priority="77">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="154" priority="76">
+    <cfRule type="expression" dxfId="133" priority="76">
       <formula>$B$16&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="153" priority="75">
+    <cfRule type="expression" dxfId="132" priority="75">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="152" priority="74">
+    <cfRule type="expression" dxfId="131" priority="74">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:F7">
-    <cfRule type="expression" dxfId="151" priority="73">
+    <cfRule type="expression" dxfId="130" priority="73">
       <formula>$B$26&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="150" priority="72">
+    <cfRule type="expression" dxfId="129" priority="72">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="149" priority="70">
+    <cfRule type="expression" dxfId="128" priority="70">
       <formula>$B$10&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="71">
+    <cfRule type="expression" dxfId="127" priority="71">
       <formula>$B$10&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:F7">
-    <cfRule type="expression" dxfId="147" priority="69">
+    <cfRule type="expression" dxfId="126" priority="69">
       <formula>$B$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="146" priority="68">
+    <cfRule type="expression" dxfId="125" priority="68">
       <formula>$B$14=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="145" priority="67">
+    <cfRule type="expression" dxfId="124" priority="67">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="144" priority="66">
+    <cfRule type="expression" dxfId="123" priority="66">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="143" priority="65">
+    <cfRule type="expression" dxfId="122" priority="65">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="142" priority="64">
+    <cfRule type="expression" dxfId="121" priority="64">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="141" priority="63">
+    <cfRule type="expression" dxfId="120" priority="63">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="140" priority="62">
+    <cfRule type="expression" dxfId="119" priority="62">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="139" priority="61">
+    <cfRule type="expression" dxfId="118" priority="61">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="138" priority="60">
+    <cfRule type="expression" dxfId="117" priority="60">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="137" priority="59">
+    <cfRule type="expression" dxfId="116" priority="59">
       <formula>$B$16&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="136" priority="58">
+    <cfRule type="expression" dxfId="115" priority="58">
       <formula>$B$14=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="135" priority="57">
+    <cfRule type="expression" dxfId="114" priority="57">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="134" priority="56">
+    <cfRule type="expression" dxfId="113" priority="56">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="133" priority="55">
+    <cfRule type="expression" dxfId="112" priority="55">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="132" priority="54">
+    <cfRule type="expression" dxfId="111" priority="54">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="131" priority="53">
+    <cfRule type="expression" dxfId="110" priority="53">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="130" priority="52">
+    <cfRule type="expression" dxfId="109" priority="52">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="129" priority="51">
+    <cfRule type="expression" dxfId="108" priority="51">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="128" priority="50">
+    <cfRule type="expression" dxfId="107" priority="50">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="127" priority="49">
+    <cfRule type="expression" dxfId="106" priority="49">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="126" priority="48">
+    <cfRule type="expression" dxfId="105" priority="48">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="125" priority="47">
+    <cfRule type="expression" dxfId="104" priority="47">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="124" priority="46">
+    <cfRule type="expression" dxfId="103" priority="46">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="123" priority="45">
+    <cfRule type="expression" dxfId="102" priority="45">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="122" priority="44">
+    <cfRule type="expression" dxfId="101" priority="44">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="121" priority="43">
+    <cfRule type="expression" dxfId="100" priority="43">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="120" priority="42">
+    <cfRule type="expression" dxfId="99" priority="42">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="119" priority="41">
+    <cfRule type="expression" dxfId="98" priority="41">
       <formula>$B$26&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="118" priority="39">
+    <cfRule type="expression" dxfId="97" priority="39">
       <formula>$B$10&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="40">
+    <cfRule type="expression" dxfId="96" priority="40">
       <formula>$B$10&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="116" priority="38">
+    <cfRule type="expression" dxfId="95" priority="38">
       <formula>$B$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="115" priority="37">
+    <cfRule type="expression" dxfId="94" priority="37">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="114" priority="36">
+    <cfRule type="expression" dxfId="93" priority="36">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="113" priority="35">
+    <cfRule type="expression" dxfId="92" priority="35">
       <formula>$B$16&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="112" priority="34">
+    <cfRule type="expression" dxfId="91" priority="34">
       <formula>$B$14=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="111" priority="33">
+    <cfRule type="expression" dxfId="90" priority="33">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="110" priority="32">
+    <cfRule type="expression" dxfId="89" priority="32">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="109" priority="31">
+    <cfRule type="expression" dxfId="88" priority="31">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="108" priority="30">
+    <cfRule type="expression" dxfId="87" priority="30">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="107" priority="29">
+    <cfRule type="expression" dxfId="86" priority="29">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="106" priority="28">
+    <cfRule type="expression" dxfId="85" priority="28">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="105" priority="27">
+    <cfRule type="expression" dxfId="84" priority="27">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="104" priority="26">
+    <cfRule type="expression" dxfId="83" priority="26">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="103" priority="25">
+    <cfRule type="expression" dxfId="82" priority="25">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="102" priority="24">
+    <cfRule type="expression" dxfId="81" priority="24">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="101" priority="23">
+    <cfRule type="expression" dxfId="80" priority="23">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="100" priority="22">
+    <cfRule type="expression" dxfId="79" priority="22">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="99" priority="21">
+    <cfRule type="expression" dxfId="78" priority="21">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="98" priority="20">
+    <cfRule type="expression" dxfId="77" priority="20">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="97" priority="19">
+    <cfRule type="expression" dxfId="76" priority="19">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="96" priority="18">
+    <cfRule type="expression" dxfId="75" priority="18">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="95" priority="17">
+    <cfRule type="expression" dxfId="74" priority="17">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="94" priority="16">
+    <cfRule type="expression" dxfId="73" priority="16">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="93" priority="15">
+    <cfRule type="expression" dxfId="72" priority="15">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="92" priority="14">
+    <cfRule type="expression" dxfId="71" priority="14">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="91" priority="13">
+    <cfRule type="expression" dxfId="70" priority="13">
       <formula>$B$26&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="90" priority="12">
+    <cfRule type="expression" dxfId="69" priority="12">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="89" priority="11">
+    <cfRule type="expression" dxfId="68" priority="11">
       <formula>$B$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="88" priority="10">
+    <cfRule type="expression" dxfId="67" priority="10">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="87" priority="9">
+    <cfRule type="expression" dxfId="66" priority="9">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="86" priority="8">
+    <cfRule type="expression" dxfId="65" priority="8">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="85" priority="7">
+    <cfRule type="expression" dxfId="64" priority="7">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="84" priority="6">
+    <cfRule type="expression" dxfId="63" priority="6">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="83" priority="5">
+    <cfRule type="expression" dxfId="62" priority="5">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="82" priority="4">
+    <cfRule type="expression" dxfId="61" priority="4">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="81" priority="3">
+    <cfRule type="expression" dxfId="60" priority="3">
       <formula>$B$20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="80" priority="2">
+    <cfRule type="expression" dxfId="59" priority="2">
       <formula>$B$22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="79" priority="1">
+    <cfRule type="expression" dxfId="58" priority="1">
       <formula>$B$28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18853,17 +19067,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="50" priority="3">
+    <cfRule type="expression" dxfId="29" priority="3">
       <formula>$B$40&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="49" priority="6">
+    <cfRule type="expression" dxfId="28" priority="6">
       <formula>$B$36&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="48" priority="7">
+    <cfRule type="expression" dxfId="27" priority="7">
       <formula>$B$15=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19372,17 +19586,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="47" priority="8">
+    <cfRule type="expression" dxfId="26" priority="8">
       <formula>$B$37&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="46" priority="9">
+    <cfRule type="expression" dxfId="25" priority="9">
       <formula>$B$17=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="45" priority="61">
+    <cfRule type="expression" dxfId="24" priority="61">
       <formula>$B$93&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19650,17 +19864,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>$B$23=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="43" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>$B$47&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="42" priority="5">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>$B$45&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19828,17 +20042,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="41" priority="3">
+    <cfRule type="expression" dxfId="20" priority="3">
       <formula>$B$47&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>$B$45&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="39" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$B$27=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19851,7 +20065,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J240"/>
+  <dimension ref="A1:J243"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -21355,171 +21569,195 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="39" t="s">
-        <v>1619</v>
-      </c>
-      <c r="F212" s="38">
+        <v>1618</v>
+      </c>
+      <c r="F212" s="39">
         <v>163</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="39" t="s">
-        <v>1620</v>
-      </c>
-      <c r="F213" s="38">
+        <v>1619</v>
+      </c>
+      <c r="F213" s="39">
         <v>164</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="39" t="s">
-        <v>1621</v>
-      </c>
-      <c r="F214" s="38">
+        <v>1620</v>
+      </c>
+      <c r="F214" s="39">
         <v>165</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="39" t="s">
-        <v>1622</v>
-      </c>
-      <c r="F215" s="38">
+        <v>1621</v>
+      </c>
+      <c r="F215" s="39">
         <v>166</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="39" t="s">
-        <v>1623</v>
-      </c>
-      <c r="F216" s="38">
+        <v>1622</v>
+      </c>
+      <c r="F216" s="39">
         <v>167</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="39" t="s">
-        <v>1624</v>
-      </c>
-      <c r="F217" s="38">
+        <v>1623</v>
+      </c>
+      <c r="F217" s="39">
         <v>168</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="39" t="s">
-        <v>1625</v>
-      </c>
-      <c r="F218" s="38">
+        <v>1624</v>
+      </c>
+      <c r="F218" s="39">
         <v>169</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="39" t="s">
-        <v>1626</v>
-      </c>
-      <c r="F219" s="38">
+        <v>1625</v>
+      </c>
+      <c r="F219" s="39">
         <v>170</v>
       </c>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" t="s">
+      <c r="A220" s="39" t="s">
+        <v>1806</v>
+      </c>
+      <c r="F220" s="38">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="39" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F221" s="38">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="39" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F222" s="38">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" t="s">
         <v>591</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
-      <c r="A226" t="s">
-        <v>32</v>
-      </c>
-      <c r="H226" t="s">
-        <v>885</v>
+        <v>29</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>724</v>
-      </c>
-      <c r="H227" t="s">
-        <v>884</v>
+        <v>30</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>725</v>
+        <v>32</v>
+      </c>
+      <c r="H229" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>165</v>
+        <v>724</v>
+      </c>
+      <c r="H230" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
-      <c r="D235" t="s">
+    <row r="238" spans="1:8">
+      <c r="D238" t="s">
         <v>845</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="C236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="C237">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="C238">
-        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="C239">
-        <v>4</v>
-      </c>
-      <c r="D239" s="38"/>
-      <c r="E239" s="38"/>
-      <c r="F239" s="38"/>
-      <c r="G239" s="38"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="240" spans="1:8">
       <c r="C240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="3:7">
+      <c r="C241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="3:7">
+      <c r="C242">
+        <v>4</v>
+      </c>
+      <c r="D242" s="38"/>
+      <c r="E242" s="38"/>
+      <c r="F242" s="38"/>
+      <c r="G242" s="38"/>
+    </row>
+    <row r="243" spans="3:7">
+      <c r="C243">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="38" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$B$54&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$B$52&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="36" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B$32=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21897,17 +22135,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="35" priority="7">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>$C$35&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="34" priority="8">
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>$C$33&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="33" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>$C$15=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22059,17 +22297,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="32" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>$B$53&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>$B$51&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$B$33=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22212,17 +22450,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="29" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>$B$38&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="28" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$B$36&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="27" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>$B$16=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29375,22 +29613,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="78" priority="4">
+    <cfRule type="expression" dxfId="57" priority="4">
       <formula>$B$37&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="77" priority="3">
+    <cfRule type="expression" dxfId="56" priority="3">
       <formula>$B$35&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="76" priority="2">
+    <cfRule type="expression" dxfId="55" priority="2">
       <formula>$B$17=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="75" priority="1">
+    <cfRule type="expression" dxfId="54" priority="1">
       <formula>$B$35&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30482,17 +30720,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="26" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$B$82&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="25" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>$B$80&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="24" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>$B$49=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30506,9 +30744,9 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R128"/>
+  <dimension ref="A1:R161"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -30521,7 +30759,7 @@
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -30544,10 +30782,10 @@
       <c r="F7" s="18"/>
       <c r="G7" s="57"/>
       <c r="I7" t="s">
+        <v>1602</v>
+      </c>
+      <c r="K7" t="s">
         <v>1603</v>
-      </c>
-      <c r="K7" t="s">
-        <v>1604</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -30560,7 +30798,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="57"/>
       <c r="I8" s="74" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="J8" s="52"/>
       <c r="K8" s="53"/>
@@ -30603,14 +30841,14 @@
       <c r="F11" s="18"/>
       <c r="G11" s="57"/>
       <c r="I11" s="75" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="57"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="61" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -30618,7 +30856,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="57"/>
       <c r="I12" s="75" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="57"/>
@@ -30648,7 +30886,7 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="78" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -30656,15 +30894,15 @@
       <c r="F15" s="18"/>
       <c r="G15" s="57"/>
       <c r="I15" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="K15" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="78" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -30672,15 +30910,15 @@
       <c r="F16" s="18"/>
       <c r="G16" s="57"/>
       <c r="I16" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="K16" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="17" spans="2:18">
       <c r="B17" s="56" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -30688,15 +30926,15 @@
       <c r="F17" s="18"/>
       <c r="G17" s="57"/>
       <c r="I17" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="K17" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="78" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -30704,10 +30942,10 @@
       <c r="F18" s="18"/>
       <c r="G18" s="57"/>
       <c r="I18" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="K18" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="19" spans="2:18">
@@ -30720,7 +30958,7 @@
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="61" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -30728,7 +30966,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="57"/>
       <c r="I20" s="95" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="21" spans="2:18">
@@ -30739,12 +30977,12 @@
       <c r="F21" s="18"/>
       <c r="G21" s="57"/>
       <c r="I21" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="61" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -30752,12 +30990,12 @@
       <c r="F22" s="18"/>
       <c r="G22" s="57"/>
       <c r="I22" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="78" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -30765,7 +31003,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="57"/>
       <c r="I23" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="24" spans="2:18">
@@ -30776,12 +31014,12 @@
       <c r="F24" s="18"/>
       <c r="G24" s="57"/>
       <c r="I24" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="91" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -30789,20 +31027,20 @@
       <c r="F25" s="18"/>
       <c r="G25" s="57"/>
       <c r="I25" s="95" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="91" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="57"/>
-      <c r="I26" t="s">
-        <v>1608</v>
+      <c r="J26" t="s">
+        <v>1607</v>
       </c>
     </row>
     <row r="27" spans="2:18">
@@ -30814,8 +31052,8 @@
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="57"/>
-      <c r="I27" s="79" t="s">
-        <v>1638</v>
+      <c r="J27" s="79" t="s">
+        <v>1637</v>
       </c>
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
@@ -30834,7 +31072,7 @@
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="78" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -30842,12 +31080,12 @@
       <c r="F29" s="18"/>
       <c r="G29" s="57"/>
       <c r="I29" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="56" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -30855,7 +31093,7 @@
       <c r="F30" s="18"/>
       <c r="G30" s="57"/>
       <c r="I30" s="6" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="31" spans="2:18">
@@ -30878,7 +31116,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="56" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -30886,12 +31124,12 @@
       <c r="F33" s="18"/>
       <c r="G33" s="57"/>
       <c r="I33" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="78" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
@@ -30899,12 +31137,12 @@
       <c r="F34" s="18"/>
       <c r="G34" s="57"/>
       <c r="I34" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="56" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
@@ -30912,7 +31150,7 @@
       <c r="F35" s="18"/>
       <c r="G35" s="57"/>
       <c r="I35" s="77" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="36" spans="2:9">
@@ -30927,7 +31165,7 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="56" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
@@ -30955,7 +31193,7 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="93" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
@@ -30965,7 +31203,7 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="56" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -30975,7 +31213,7 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="56" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
@@ -30988,7 +31226,7 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="56" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
@@ -31001,7 +31239,7 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="56" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
@@ -31009,12 +31247,12 @@
       <c r="F44" s="18"/>
       <c r="G44" s="57"/>
       <c r="I44" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="56" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
@@ -31022,12 +31260,12 @@
       <c r="F45" s="18"/>
       <c r="G45" s="57"/>
       <c r="I45" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="56" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
@@ -31048,13 +31286,16 @@
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="56" t="s">
-        <v>1688</v>
+        <v>1802</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
       <c r="G48" s="57"/>
+      <c r="I48" s="110" t="s">
+        <v>1804</v>
+      </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="56" t="s">
@@ -31066,12 +31307,12 @@
       <c r="F49" s="18"/>
       <c r="G49" s="57"/>
       <c r="I49" s="77" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="56" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
@@ -31084,7 +31325,7 @@
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="56" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
@@ -31105,7 +31346,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="57"/>
       <c r="I52" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -31118,12 +31359,12 @@
       <c r="F53" s="18"/>
       <c r="G53" s="57"/>
       <c r="I53" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="56" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
@@ -31136,13 +31377,16 @@
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="56" t="s">
-        <v>1589</v>
+        <v>1803</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
       <c r="G55" s="57"/>
+      <c r="I55" s="110" t="s">
+        <v>1805</v>
+      </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="56"/>
@@ -31154,7 +31398,7 @@
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="56" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
@@ -31162,12 +31406,12 @@
       <c r="F57" s="18"/>
       <c r="G57" s="57"/>
       <c r="I57" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="56" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
@@ -31175,7 +31419,7 @@
       <c r="F58" s="18"/>
       <c r="G58" s="57"/>
       <c r="I58" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -31188,7 +31432,7 @@
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="56" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
@@ -31196,12 +31440,12 @@
       <c r="F60" s="18"/>
       <c r="G60" s="57"/>
       <c r="I60" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" s="56" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
@@ -31219,7 +31463,7 @@
     </row>
     <row r="63" spans="2:9">
       <c r="B63" s="56" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C63" s="18"/>
       <c r="D63" s="18"/>
@@ -31227,12 +31471,12 @@
       <c r="F63" s="18"/>
       <c r="G63" s="57"/>
       <c r="I63" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" s="56" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="18"/>
@@ -31240,12 +31484,12 @@
       <c r="F64" s="18"/>
       <c r="G64" s="57"/>
       <c r="I64" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="65" spans="2:15">
       <c r="B65" s="56" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
@@ -31253,7 +31497,7 @@
       <c r="F65" s="18"/>
       <c r="G65" s="57"/>
       <c r="I65" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="66" spans="2:15">
@@ -31266,7 +31510,7 @@
     </row>
     <row r="67" spans="2:15">
       <c r="B67" s="56" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
@@ -31276,7 +31520,7 @@
     </row>
     <row r="68" spans="2:15">
       <c r="B68" s="56" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="C68" s="18"/>
       <c r="D68" s="18"/>
@@ -31286,7 +31530,7 @@
     </row>
     <row r="69" spans="2:15">
       <c r="B69" s="56" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
@@ -31314,7 +31558,7 @@
     </row>
     <row r="70" spans="2:15">
       <c r="B70" s="56" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
@@ -31322,27 +31566,27 @@
       <c r="F70" s="18"/>
       <c r="G70" s="57"/>
       <c r="J70" s="105" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
       <c r="K70" s="105" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
       <c r="L70" s="105" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="M70" s="106" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="N70" s="105" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="O70" s="105" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="71" spans="2:15">
       <c r="B71" s="56" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -31350,7 +31594,7 @@
       <c r="F71" s="18"/>
       <c r="G71" s="57"/>
       <c r="J71" s="107" t="s">
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="K71" s="107">
         <v>1</v>
@@ -31359,10 +31603,10 @@
         <v>222868</v>
       </c>
       <c r="M71" s="107" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="N71" s="107" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="O71" s="107">
         <v>10</v>
@@ -31378,7 +31622,7 @@
     </row>
     <row r="73" spans="2:15">
       <c r="B73" s="56" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
@@ -31388,7 +31632,7 @@
     </row>
     <row r="74" spans="2:15">
       <c r="B74" s="56" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
@@ -31396,12 +31640,12 @@
       <c r="F74" s="18"/>
       <c r="G74" s="57"/>
       <c r="I74" s="95" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="75" spans="2:15">
       <c r="B75" s="56" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
@@ -31419,7 +31663,7 @@
     </row>
     <row r="77" spans="2:15">
       <c r="B77" s="54" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -31428,255 +31672,391 @@
       <c r="G77" s="55"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" t="s">
-        <v>1720</v>
-      </c>
+      <c r="A81" s="8" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="109"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="B83" s="51" t="s">
-        <v>1680</v>
+      <c r="B83" s="108" t="s">
+        <v>1774</v>
       </c>
       <c r="C83" s="52"/>
       <c r="D83" s="52"/>
       <c r="E83" s="53"/>
+      <c r="G83" s="8" t="s">
+        <v>1775</v>
+      </c>
     </row>
     <row r="84" spans="1:7">
       <c r="B84" s="54" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="55"/>
       <c r="G84" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="B87" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="C88" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="D89" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="D90" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="D91" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="B93" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="C94" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="C95" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="D96" t="s">
+        <v>1725</v>
+      </c>
+      <c r="G96" t="s">
         <v>1727</v>
-      </c>
-      <c r="G96" t="s">
-        <v>1729</v>
       </c>
     </row>
     <row r="97" spans="2:7">
       <c r="D97" t="s">
+        <v>1726</v>
+      </c>
+      <c r="G97" t="s">
         <v>1728</v>
-      </c>
-      <c r="G97" t="s">
-        <v>1730</v>
       </c>
     </row>
     <row r="98" spans="2:7">
       <c r="D98" t="s">
-        <v>1759</v>
+        <v>1753</v>
       </c>
       <c r="G98" s="95" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="99" spans="2:7">
       <c r="D99" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="G99" s="95" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="101" spans="2:7">
       <c r="G101" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="102" spans="2:7">
       <c r="B102" t="s">
-        <v>1734</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="103" spans="2:7">
       <c r="C103" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="104" spans="2:7">
       <c r="C104" t="s">
-        <v>1737</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="105" spans="2:7">
       <c r="D105" t="s">
-        <v>1738</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="106" spans="2:7">
       <c r="C106" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="107" spans="2:7">
       <c r="D107" s="96" t="s">
-        <v>1740</v>
+        <v>1735</v>
       </c>
       <c r="E107" s="97"/>
       <c r="F107" s="98"/>
     </row>
     <row r="108" spans="2:7">
       <c r="C108" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="109" spans="2:7">
       <c r="D109" t="s">
-        <v>1742</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="110" spans="2:7">
       <c r="D110" t="s">
-        <v>1743</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="111" spans="2:7">
       <c r="D111" t="s">
-        <v>1744</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="112" spans="2:7">
       <c r="B112" s="8" t="s">
-        <v>1745</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="113" spans="2:9">
       <c r="B113" s="8"/>
       <c r="C113" t="s">
-        <v>1747</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="114" spans="2:9">
       <c r="D114" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="115" spans="2:9">
       <c r="C115" t="s">
-        <v>1746</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="116" spans="2:9">
       <c r="D116" t="s">
-        <v>1748</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="118" spans="2:9">
       <c r="B118" s="8" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="119" spans="2:9">
       <c r="B119" s="95"/>
       <c r="C119" t="s">
-        <v>1750</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="120" spans="2:9">
       <c r="C120" s="100" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="E120" s="100" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
       <c r="G120" s="100" t="s">
-        <v>1754</v>
+        <v>1748</v>
       </c>
       <c r="I120" s="100" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="121" spans="2:9">
       <c r="C121" s="104" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="D121" s="99" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="E121" s="101" t="s">
-        <v>1753</v>
+        <v>1747</v>
       </c>
       <c r="F121" s="99" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="G121" s="102" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
       <c r="H121" s="99" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="I121" s="103" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="123" spans="2:9">
       <c r="C123" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="125" spans="2:9">
       <c r="B125" s="8" t="s">
-        <v>1764</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="126" spans="2:9">
       <c r="C126" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="127" spans="2:9">
       <c r="D127" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="128" spans="2:9">
       <c r="D128" t="s">
-        <v>1767</v>
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4">
+      <c r="B130" s="8" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4">
+      <c r="C131" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4">
+      <c r="D132" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4">
+      <c r="D133" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4">
+      <c r="D134" s="88" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4">
+      <c r="D136" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4">
+      <c r="C138" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4">
+      <c r="D139" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4">
+      <c r="D140" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4">
+      <c r="D141" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4">
+      <c r="C143" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4">
+      <c r="C144" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4">
+      <c r="C145" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4">
+      <c r="C146" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4">
+      <c r="C147" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4">
+      <c r="C148" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4">
+      <c r="C150" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="151" spans="3:4">
+      <c r="D151" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="152" spans="3:4">
+      <c r="D152" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="154" spans="3:4">
+      <c r="C154" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="155" spans="3:4">
+      <c r="C155" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="157" spans="3:4">
+      <c r="C157" s="8" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="158" spans="3:4">
+      <c r="D158" s="109" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="159" spans="3:4">
+      <c r="D159" s="109" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="160" spans="3:4">
+      <c r="D160" s="109" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4">
+      <c r="D161" s="109" t="s">
+        <v>1801</v>
       </c>
     </row>
   </sheetData>
@@ -31686,12 +32066,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$B$80&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$B$49=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31733,17 +32113,17 @@
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="79" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="79" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -31873,19 +32253,19 @@
       <c r="D36" s="57"/>
       <c r="F36" s="80"/>
       <c r="G36" s="83" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H36" s="84" t="s">
         <v>1643</v>
       </c>
-      <c r="H36" s="84" t="s">
+      <c r="I36" s="84" t="s">
         <v>1644</v>
       </c>
-      <c r="I36" s="84" t="s">
+      <c r="K36" s="86" t="s">
         <v>1645</v>
       </c>
-      <c r="K36" s="86" t="s">
+      <c r="M36" s="85" t="s">
         <v>1646</v>
-      </c>
-      <c r="M36" s="85" t="s">
-        <v>1647</v>
       </c>
     </row>
     <row r="37" spans="2:13">
@@ -31895,7 +32275,7 @@
       <c r="C37" s="18"/>
       <c r="D37" s="57"/>
       <c r="F37" s="82" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="G37" s="71" t="s">
         <v>1376</v>
@@ -32347,7 +32727,7 @@
     </row>
     <row r="96" spans="1:7">
       <c r="B96" s="54" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="55"/>
@@ -32541,7 +32921,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="B138" s="89" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -32551,7 +32931,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="B142" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -32585,7 +32965,7 @@
     </row>
     <row r="150" spans="2:6">
       <c r="B150" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="151" spans="2:6">
@@ -32608,7 +32988,7 @@
     </row>
     <row r="155" spans="2:6">
       <c r="C155" s="90" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -32621,7 +33001,7 @@
     </row>
     <row r="158" spans="2:6">
       <c r="C158" s="89" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="160" spans="2:6">
@@ -32838,7 +33218,7 @@
     </row>
     <row r="196" spans="1:10">
       <c r="D196" s="89" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -32848,52 +33228,52 @@
     </row>
     <row r="198" spans="1:10">
       <c r="D198" s="89" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="200" spans="1:10">
       <c r="B200" s="8" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="201" spans="1:10">
       <c r="C201" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="202" spans="1:10">
       <c r="C202" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="203" spans="1:10">
       <c r="H203" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="J203" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="204" spans="1:10">
       <c r="C204" s="94" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="H204" t="s">
         <v>1309</v>
       </c>
       <c r="J204" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="205" spans="1:10">
       <c r="C205" s="94" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="H205" t="s">
         <v>1361</v>
       </c>
       <c r="J205" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -33156,7 +33536,7 @@
     </row>
     <row r="253" spans="2:10">
       <c r="B253" s="8" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="254" spans="2:10">
@@ -33175,12 +33555,12 @@
     <row r="255" spans="2:10">
       <c r="B255" s="8"/>
       <c r="C255" s="56" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="D255" s="18"/>
       <c r="E255" s="57"/>
       <c r="G255" s="56" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H255" s="18"/>
       <c r="I255" s="57"/>
@@ -33188,12 +33568,12 @@
     <row r="256" spans="2:10">
       <c r="B256" s="8"/>
       <c r="C256" s="56" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D256" s="18"/>
       <c r="E256" s="57"/>
       <c r="G256" s="56" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H256" s="18"/>
       <c r="I256" s="57"/>
@@ -33201,12 +33581,12 @@
     <row r="257" spans="1:12">
       <c r="B257" s="8"/>
       <c r="C257" s="56" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="D257" s="18"/>
       <c r="E257" s="57"/>
       <c r="G257" s="56" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H257" s="18"/>
       <c r="I257" s="57"/>
@@ -33214,38 +33594,38 @@
     <row r="258" spans="1:12">
       <c r="B258" s="8"/>
       <c r="C258" s="54" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="D258" s="7"/>
       <c r="E258" s="55"/>
       <c r="G258" s="56" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H258" s="18"/>
       <c r="I258" s="57"/>
       <c r="K258" s="5" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="259" spans="1:12">
       <c r="D259" s="5" t="s">
+        <v>1664</v>
+      </c>
+      <c r="G259" s="54" t="s">
         <v>1665</v>
-      </c>
-      <c r="G259" s="54" t="s">
-        <v>1666</v>
       </c>
       <c r="H259" s="7"/>
       <c r="I259" s="55"/>
       <c r="K259" s="5" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="L259" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="260" spans="1:12">
       <c r="D260" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F260" t="s">
         <v>1518</v>
@@ -33722,7 +34102,7 @@
     </row>
     <row r="338" spans="2:11">
       <c r="B338" s="56" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C338" s="18"/>
       <c r="D338" s="18"/>
@@ -33730,7 +34110,7 @@
     </row>
     <row r="339" spans="2:11">
       <c r="B339" s="56" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C339" s="18"/>
       <c r="D339" s="18"/>
@@ -33868,7 +34248,7 @@
       <c r="D351" s="7"/>
       <c r="E351" s="55"/>
       <c r="G351" s="92" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K351" s="70" t="s">
         <v>1522</v>
@@ -34025,32 +34405,32 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="8" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="B375" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="B376" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="74" priority="4">
+    <cfRule type="expression" dxfId="53" priority="4">
       <formula>$B$31&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="73" priority="3">
+    <cfRule type="expression" dxfId="52" priority="3">
       <formula>$B$29&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="72" priority="10">
+    <cfRule type="expression" dxfId="51" priority="10">
       <formula>$C$12=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34347,17 +34727,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="71" priority="2">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>$B$11=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="70" priority="5">
+    <cfRule type="expression" dxfId="49" priority="5">
       <formula>$B$44&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="69" priority="6">
+    <cfRule type="expression" dxfId="48" priority="6">
       <formula>$B$42&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34739,17 +35119,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="68" priority="4">
+    <cfRule type="expression" dxfId="47" priority="4">
       <formula>$B$31&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="67" priority="3">
+    <cfRule type="expression" dxfId="46" priority="3">
       <formula>$B$29&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="66" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>$B$11=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35033,22 +35413,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="65" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>$B$31&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="64" priority="3">
+    <cfRule type="expression" dxfId="43" priority="3">
       <formula>$B$29&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="63" priority="2">
+    <cfRule type="expression" dxfId="42" priority="2">
       <formula>$B$11=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="62" priority="1">
+    <cfRule type="expression" dxfId="41" priority="1">
       <formula>$B$29&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35423,22 +35803,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="61" priority="4">
+    <cfRule type="expression" dxfId="40" priority="4">
       <formula>$B$31&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="60" priority="3">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>$B$29&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="59" priority="2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>$B$11=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="58" priority="1">
+    <cfRule type="expression" dxfId="37" priority="1">
       <formula>$B$29&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36763,17 +37143,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="57" priority="4">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>$B$103&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="56" priority="3">
+    <cfRule type="expression" dxfId="35" priority="3">
       <formula>$B$101&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="55" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>$B$83=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36919,22 +37299,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="54" priority="4">
+    <cfRule type="expression" dxfId="33" priority="4">
       <formula>$B$32&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="53" priority="3">
+    <cfRule type="expression" dxfId="32" priority="3">
       <formula>$B$30&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>$B$12=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="51" priority="1">
+    <cfRule type="expression" dxfId="30" priority="1">
       <formula>$B$30&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Regex 04.02.25.xlsx
+++ b/Regex 04.02.25.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="787"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="787" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="1809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="1820">
   <si>
     <t>with (?mx) with description</t>
   </si>
@@ -15294,17 +15294,58 @@
   <si>
     <t xml:space="preserve">    "MI.04.01.08.00.0.09": "HTP150",</t>
   </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.02.01.0.07": "XB4BW34M5",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.01.0.14": "RXM4AB1BD",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.02.02.0.21": "1SFA619403R5231",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.09.00.0.102": "NSYS3X121030H",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.09.00.0.103": "NSYTX10030",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.09.00.0.104": "NSYTL405SML",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.09.00.0.54": "NSYMM1210",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.08.0.68": "A9F74604",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.09.00.0.115": "FF12U5",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.08.0.32": "2CDS251103R0014",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.05.01.04.00.1.11": "6404301",</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="68">
+  <fonts count="69">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -16049,73 +16090,73 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -16123,23 +16164,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -16160,33 +16201,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -16194,20 +16235,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -18075,7 +18116,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -20065,10 +20108,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J243"/>
+  <dimension ref="A1:J254"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C234" sqref="C234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21635,7 +21678,7 @@
       <c r="A220" s="39" t="s">
         <v>1806</v>
       </c>
-      <c r="F220" s="38">
+      <c r="F220">
         <v>171</v>
       </c>
     </row>
@@ -21643,7 +21686,7 @@
       <c r="A221" s="39" t="s">
         <v>1807</v>
       </c>
-      <c r="F221" s="38">
+      <c r="F221">
         <v>172</v>
       </c>
     </row>
@@ -21651,97 +21694,185 @@
       <c r="A222" s="39" t="s">
         <v>1808</v>
       </c>
-      <c r="F222" s="38">
+      <c r="F222">
         <v>173</v>
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" t="s">
-        <v>591</v>
+      <c r="A223" s="39" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F223" s="38">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="39" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F224" s="38">
+        <v>175</v>
       </c>
     </row>
     <row r="225" spans="1:8">
-      <c r="A225" t="s">
-        <v>29</v>
+      <c r="A225" s="39" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F225" s="38">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="39" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F226" s="38">
+        <v>177</v>
       </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" t="s">
-        <v>30</v>
+      <c r="A227" s="39" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F227" s="38">
+        <v>178</v>
       </c>
     </row>
     <row r="228" spans="1:8">
-      <c r="A228" t="s">
-        <v>602</v>
+      <c r="A228" s="39" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F228" s="38">
+        <v>179</v>
       </c>
     </row>
     <row r="229" spans="1:8">
-      <c r="A229" t="s">
-        <v>32</v>
-      </c>
-      <c r="H229" t="s">
-        <v>885</v>
+      <c r="A229" s="39" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F229" s="38">
+        <v>180</v>
       </c>
     </row>
     <row r="230" spans="1:8">
-      <c r="A230" t="s">
-        <v>724</v>
-      </c>
-      <c r="H230" t="s">
-        <v>884</v>
+      <c r="A230" s="39" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F230" s="38">
+        <v>181</v>
       </c>
     </row>
     <row r="231" spans="1:8">
-      <c r="A231" t="s">
-        <v>603</v>
+      <c r="A231" s="39" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F231" s="38">
+        <v>182</v>
       </c>
     </row>
     <row r="232" spans="1:8">
-      <c r="A232" t="s">
-        <v>725</v>
+      <c r="A232" s="39" t="s">
+        <v>1818</v>
+      </c>
+      <c r="F232" s="38">
+        <v>183</v>
       </c>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233" t="s">
-        <v>165</v>
+      <c r="A233" s="39" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F233" s="38">
+        <v>184</v>
       </c>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" t="s">
+        <v>32</v>
+      </c>
+      <c r="H240" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" t="s">
+        <v>724</v>
+      </c>
+      <c r="H241" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
-      <c r="D238" t="s">
+    <row r="249" spans="1:8">
+      <c r="D249" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
-      <c r="C239">
+    <row r="250" spans="1:8">
+      <c r="C250">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
-      <c r="C240">
+    <row r="251" spans="1:8">
+      <c r="C251">
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="3:7">
-      <c r="C241">
+    <row r="252" spans="1:8">
+      <c r="C252">
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="3:7">
-      <c r="C242">
+    <row r="253" spans="1:8">
+      <c r="C253">
         <v>4</v>
       </c>
-      <c r="D242" s="38"/>
-      <c r="E242" s="38"/>
-      <c r="F242" s="38"/>
-      <c r="G242" s="38"/>
-    </row>
-    <row r="243" spans="3:7">
-      <c r="C243">
+      <c r="D253" s="38"/>
+      <c r="E253" s="38"/>
+      <c r="F253" s="38"/>
+      <c r="G253" s="38"/>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="C254">
         <v>5</v>
       </c>
     </row>

--- a/Regex 04.02.25.xlsx
+++ b/Regex 04.02.25.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="1820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="1827">
   <si>
     <t>with (?mx) with description</t>
   </si>
@@ -15326,6 +15326,27 @@
   </si>
   <si>
     <t xml:space="preserve">    "MI.05.01.04.00.1.11": "6404301",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.03.0.36": "LC1DT80AP7",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.01.01.08.0.181": "EZC100N3080",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.05.03.1.38": "EZALUG1003",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.09.00.0.05": "NSYMM1010",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.09.00.0.55": "NSYS3D121030",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.05.01.1.50": "E08KH-02010108401",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MI.04.02.99.04.0.02": "200 353 90",</t>
   </si>
 </sst>
 </file>
@@ -20108,10 +20129,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J254"/>
+  <dimension ref="A1:J261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C234" sqref="C234"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E238" sqref="E238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21702,7 +21723,7 @@
       <c r="A223" s="39" t="s">
         <v>1809</v>
       </c>
-      <c r="F223" s="38">
+      <c r="F223" s="39">
         <v>174</v>
       </c>
     </row>
@@ -21710,169 +21731,225 @@
       <c r="A224" s="39" t="s">
         <v>1810</v>
       </c>
-      <c r="F224" s="38">
+      <c r="F224" s="39">
         <v>175</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:6">
       <c r="A225" s="39" t="s">
         <v>1811</v>
       </c>
-      <c r="F225" s="38">
+      <c r="F225" s="39">
         <v>176</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:6">
       <c r="A226" s="39" t="s">
         <v>1812</v>
       </c>
-      <c r="F226" s="38">
+      <c r="F226" s="39">
         <v>177</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:6">
       <c r="A227" s="39" t="s">
         <v>1813</v>
       </c>
-      <c r="F227" s="38">
+      <c r="F227" s="39">
         <v>178</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:6">
       <c r="A228" s="39" t="s">
         <v>1814</v>
       </c>
-      <c r="F228" s="38">
+      <c r="F228" s="39">
         <v>179</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:6">
       <c r="A229" s="39" t="s">
         <v>1815</v>
       </c>
-      <c r="F229" s="38">
+      <c r="F229" s="39">
         <v>180</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:6">
       <c r="A230" s="39" t="s">
         <v>1816</v>
       </c>
-      <c r="F230" s="38">
+      <c r="F230" s="39">
         <v>181</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:6">
       <c r="A231" s="39" t="s">
         <v>1817</v>
       </c>
-      <c r="F231" s="38">
+      <c r="F231" s="39">
         <v>182</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:6">
       <c r="A232" s="39" t="s">
         <v>1818</v>
       </c>
-      <c r="F232" s="38">
+      <c r="F232" s="39">
         <v>183</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:6">
       <c r="A233" s="39" t="s">
         <v>1819</v>
       </c>
-      <c r="F233" s="38">
+      <c r="F233" s="39">
         <v>184</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
-      <c r="A234" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="A236" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="A238" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
-      <c r="A239" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="A240" t="s">
-        <v>32</v>
-      </c>
-      <c r="H240" t="s">
-        <v>885</v>
+    <row r="234" spans="1:6">
+      <c r="A234" s="39" t="s">
+        <v>1820</v>
+      </c>
+      <c r="F234" s="38">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="39" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F235" s="38">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="39" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F236" s="38">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="39" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F237" s="38">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="39" t="s">
+        <v>1824</v>
+      </c>
+      <c r="F238" s="38">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="39" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F239" s="38">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="39" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F240" s="38">
+        <v>191</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>724</v>
-      </c>
-      <c r="H241" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
-      <c r="A242" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="A244" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" t="s">
+        <v>32</v>
+      </c>
+      <c r="H247" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" t="s">
+        <v>724</v>
+      </c>
+      <c r="H248" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
-      <c r="D249" t="s">
+    <row r="256" spans="1:8">
+      <c r="D256" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
-      <c r="C250">
+    <row r="257" spans="3:7">
+      <c r="C257">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
-      <c r="C251">
+    <row r="258" spans="3:7">
+      <c r="C258">
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
-      <c r="C252">
+    <row r="259" spans="3:7">
+      <c r="C259">
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
-      <c r="C253">
+    <row r="260" spans="3:7">
+      <c r="C260">
         <v>4</v>
       </c>
-      <c r="D253" s="38"/>
-      <c r="E253" s="38"/>
-      <c r="F253" s="38"/>
-      <c r="G253" s="38"/>
-    </row>
-    <row r="254" spans="1:8">
-      <c r="C254">
+      <c r="D260" s="38"/>
+      <c r="E260" s="38"/>
+      <c r="F260" s="38"/>
+      <c r="G260" s="38"/>
+    </row>
+    <row r="261" spans="3:7">
+      <c r="C261">
         <v>5</v>
       </c>
     </row>
